--- a/outputs-HGR-r202/f__CAG-272.xlsx
+++ b/outputs-HGR-r202/f__CAG-272.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:W144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -617,6 +622,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -689,6 +699,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -761,6 +776,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -833,6 +853,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -905,6 +930,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -977,6 +1007,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1049,6 +1084,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1121,6 +1161,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1193,6 +1238,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1265,6 +1315,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1337,6 +1392,11 @@
           <t>g__CAG-724</t>
         </is>
       </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>g__CAG-724(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1409,6 +1469,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1481,6 +1546,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1553,6 +1623,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1625,6 +1700,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1697,6 +1777,11 @@
           <t>g__CAG-841</t>
         </is>
       </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>g__CAG-841</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1769,6 +1854,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1841,6 +1931,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1913,6 +2008,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1985,6 +2085,11 @@
           <t>g__CAG-841</t>
         </is>
       </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>g__CAG-841</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2057,6 +2162,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2129,6 +2239,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2201,6 +2316,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2273,6 +2393,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2345,6 +2470,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2417,6 +2547,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2489,6 +2624,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2561,6 +2701,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2633,6 +2778,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2705,6 +2855,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2777,6 +2932,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2849,6 +3009,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2921,6 +3086,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2993,6 +3163,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -3065,6 +3240,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -3137,6 +3317,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3209,6 +3394,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3281,6 +3471,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -3353,6 +3548,11 @@
           <t>g__CAG-724</t>
         </is>
       </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g__CAG-724(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -3425,6 +3625,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -3497,6 +3702,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3569,6 +3779,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3641,6 +3856,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3713,6 +3933,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3785,6 +4010,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3857,6 +4087,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3929,6 +4164,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -4001,6 +4241,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4073,6 +4318,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -4145,6 +4395,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -4217,6 +4472,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -4289,6 +4549,11 @@
           <t>g__CAG-724</t>
         </is>
       </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>g__CAG-724(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -4361,6 +4626,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -4433,6 +4703,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -4505,6 +4780,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -4577,6 +4857,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -4649,6 +4934,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -4721,6 +5011,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -4793,6 +5088,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -4865,6 +5165,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -4937,6 +5242,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -5009,6 +5319,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -5081,6 +5396,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -5153,6 +5473,11 @@
           <t>g__CAG-841</t>
         </is>
       </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>g__CAG-841</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -5225,6 +5550,11 @@
           <t>g__CAG-724</t>
         </is>
       </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>g__CAG-724(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -5297,6 +5627,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -5369,6 +5704,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -5441,6 +5781,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -5513,6 +5858,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -5585,6 +5935,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -5657,6 +6012,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -5729,6 +6089,11 @@
           <t>g__CAG-724</t>
         </is>
       </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>g__CAG-724(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -5801,6 +6166,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -5873,6 +6243,11 @@
           <t>g__CAG-724</t>
         </is>
       </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>g__CAG-724(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -5945,6 +6320,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -6017,6 +6397,11 @@
           <t>g__CAG-841</t>
         </is>
       </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>g__CAG-841</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -6089,6 +6474,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -6161,6 +6551,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -6233,6 +6628,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -6305,6 +6705,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -6377,6 +6782,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -6449,6 +6859,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -6521,6 +6936,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -6593,6 +7013,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -6665,6 +7090,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -6737,6 +7167,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -6809,6 +7244,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -6881,6 +7321,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -6953,6 +7398,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -7025,6 +7475,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -7097,6 +7552,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -7169,6 +7629,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -7241,6 +7706,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -7313,6 +7783,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -7385,6 +7860,11 @@
           <t>g__CAG-724</t>
         </is>
       </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>g__CAG-724(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -7457,6 +7937,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -7529,6 +8014,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -7601,6 +8091,11 @@
           <t>g__UMGS1312</t>
         </is>
       </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>g__UMGS1312(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -7673,6 +8168,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -7745,6 +8245,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -7817,6 +8322,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -7889,6 +8399,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -7961,6 +8476,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -8033,6 +8553,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -8105,6 +8630,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -8177,6 +8707,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -8249,6 +8784,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -8321,6 +8861,11 @@
           <t>g__CAG-724</t>
         </is>
       </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>g__CAG-724(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -8393,6 +8938,11 @@
           <t>g__QALR01</t>
         </is>
       </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>g__QALR01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -8465,6 +9015,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -8537,6 +9092,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -8609,6 +9169,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -8681,6 +9246,11 @@
           <t>g__CAG-724</t>
         </is>
       </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>g__CAG-724(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -8753,6 +9323,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -8825,6 +9400,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -8897,6 +9477,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -8969,6 +9554,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -9041,6 +9631,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -9113,6 +9708,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -9185,6 +9785,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -9257,6 +9862,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -9329,6 +9939,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -9401,6 +10016,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -9473,6 +10093,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -9545,6 +10170,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -9617,6 +10247,11 @@
           <t>g__CAG-724</t>
         </is>
       </c>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>g__CAG-724(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -9689,6 +10324,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -9761,6 +10401,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -9833,6 +10478,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -9905,6 +10555,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -9977,6 +10632,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -10049,6 +10709,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -10121,6 +10786,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -10193,6 +10863,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -10265,6 +10940,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -10337,6 +11017,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -10409,6 +11094,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -10481,6 +11171,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -10553,6 +11248,11 @@
           <t>g__QALR01</t>
         </is>
       </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>g__QALR01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -10625,6 +11325,11 @@
           <t>g__UMGS902</t>
         </is>
       </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>g__UMGS902(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -10697,6 +11402,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -10769,6 +11479,11 @@
           <t>g__UMGS911</t>
         </is>
       </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>g__UMGS911(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -10837,6 +11552,11 @@
         <v>0.8170669086212132</v>
       </c>
       <c r="V144" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr">
         <is>
           <t>g__UMGS911</t>
         </is>

--- a/outputs-HGR-r202/f__CAG-272.xlsx
+++ b/outputs-HGR-r202/f__CAG-272.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:W112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1478,145 +1478,145 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17793.fa</t>
+          <t>even_MAG-GUT16720.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.05525682812061e-06</v>
+        <v>3.661573522642988e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>1.285371437540578e-06</v>
+        <v>7.868004269151093e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>4.971172321776341e-07</v>
+        <v>1.838893012909553e-10</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06548403988759152</v>
+        <v>0.00318043787577628</v>
       </c>
       <c r="F14" t="n">
-        <v>6.638377524025179e-05</v>
+        <v>0.9943264456936579</v>
       </c>
       <c r="G14" t="n">
-        <v>6.139703263395879e-11</v>
+        <v>2.559968390292028e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>6.366104825246445e-07</v>
+        <v>7.318426560293045e-08</v>
       </c>
       <c r="I14" t="n">
-        <v>2.626813805953524e-06</v>
+        <v>3.510840304819025e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>7.2713186445685e-07</v>
+        <v>1.475446924212233e-08</v>
       </c>
       <c r="K14" t="n">
-        <v>1.154978284535749e-06</v>
+        <v>7.699301454142297e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>5.174951608625361e-09</v>
+        <v>0.001735188998843567</v>
       </c>
       <c r="M14" t="n">
-        <v>2.541525223755598e-12</v>
+        <v>9.731792896917923e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>3.248667008187038e-05</v>
+        <v>8.444612497785667e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>3.833246534118977e-13</v>
+        <v>2.220109780768334e-14</v>
       </c>
       <c r="P14" t="n">
-        <v>4.36400805596647e-13</v>
+        <v>7.539114483250258e-13</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.642230227166548e-06</v>
+        <v>8.815435888629145e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>0.001302511880451225</v>
+        <v>6.490765340981929e-09</v>
       </c>
       <c r="S14" t="n">
-        <v>8.143514623204153e-06</v>
+        <v>3.009823973598367e-07</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9330958035221395</v>
+        <v>0.0005359108444130872</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9330958035221395</v>
+        <v>0.9943264456936579</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-841</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-841</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18125.fa</t>
+          <t>even_MAG-GUT17793.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.232999539801683e-06</v>
+        <v>1.05525682812061e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>7.323500192078793e-08</v>
+        <v>1.285371437540578e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>1.405872950521111e-06</v>
+        <v>4.971172321776341e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2056539411331846</v>
+        <v>0.06548403988759152</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0004592351932859239</v>
+        <v>6.638377524025179e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>1.806343603427354e-10</v>
+        <v>6.139703263395879e-11</v>
       </c>
       <c r="H15" t="n">
-        <v>6.006217999645403e-08</v>
+        <v>6.366104825246445e-07</v>
       </c>
       <c r="I15" t="n">
-        <v>3.153673230056063e-06</v>
+        <v>2.626813805953524e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>7.323931314408127e-07</v>
+        <v>7.2713186445685e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>1.509095379476011e-06</v>
+        <v>1.154978284535749e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>1.15245595888903e-06</v>
+        <v>5.174951608625361e-09</v>
       </c>
       <c r="M15" t="n">
-        <v>2.332743600306597e-12</v>
+        <v>2.541525223755598e-12</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001076518192965384</v>
+        <v>3.248667008187038e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>3.61478727705718e-13</v>
+        <v>3.833246534118977e-13</v>
       </c>
       <c r="P15" t="n">
-        <v>1.361155535917907e-13</v>
+        <v>4.36400805596647e-13</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.203522280961951e-06</v>
+        <v>2.642230227166548e-06</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0003662435385538585</v>
+        <v>0.001302511880451225</v>
       </c>
       <c r="S15" t="n">
-        <v>4.140296977428976e-07</v>
+        <v>8.143514623204153e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7924271244191947</v>
+        <v>0.9330958035221395</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7924271244191947</v>
+        <v>0.9330958035221395</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1632,222 +1632,222 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19215.fa</t>
+          <t>even_MAG-GUT18125.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.380032395529072e-05</v>
+        <v>5.232999539801683e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>2.814165538657024e-06</v>
+        <v>7.323500192078793e-08</v>
       </c>
       <c r="D16" t="n">
-        <v>8.576967059188077e-11</v>
+        <v>1.405872950521111e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008607022454518491</v>
+        <v>0.2056539411331846</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9884177505862609</v>
+        <v>0.0004592351932859239</v>
       </c>
       <c r="G16" t="n">
-        <v>1.321686060478439e-07</v>
+        <v>1.806343603427354e-10</v>
       </c>
       <c r="H16" t="n">
-        <v>6.312994764292547e-08</v>
+        <v>6.006217999645403e-08</v>
       </c>
       <c r="I16" t="n">
-        <v>5.165440013006103e-06</v>
+        <v>3.153673230056063e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>1.042493452948016e-08</v>
+        <v>7.323931314408127e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>3.363232732169629e-07</v>
+        <v>1.509095379476011e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002363153820240737</v>
+        <v>1.15245595888903e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>2.4950306858468e-13</v>
+        <v>2.332743600306597e-12</v>
       </c>
       <c r="N16" t="n">
-        <v>5.9687225442221e-06</v>
+        <v>0.001076518192965384</v>
       </c>
       <c r="O16" t="n">
-        <v>2.666163792134953e-14</v>
+        <v>3.61478727705718e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>1.038019385525334e-13</v>
+        <v>1.361155535917907e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.002307868334280637</v>
+        <v>3.203522280961951e-06</v>
       </c>
       <c r="R16" t="n">
-        <v>3.768294597348039e-09</v>
+        <v>0.0003662435385538585</v>
       </c>
       <c r="S16" t="n">
-        <v>5.198934544511147e-07</v>
+        <v>4.140296977428976e-07</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0003922287962046079</v>
+        <v>0.7924271244191947</v>
       </c>
       <c r="U16" t="n">
-        <v>0.9884177505862609</v>
+        <v>0.7924271244191947</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>g__CAG-841</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g__CAG-841</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19220.fa</t>
+          <t>even_MAG-GUT19215.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.089278150634765e-05</v>
+        <v>2.380032395529072e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>4.509060698531631e-07</v>
+        <v>2.814165538657024e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>4.834506105258851e-07</v>
+        <v>8.576967059188077e-11</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3795110907728624</v>
+        <v>0.008607022454518491</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002100001243117929</v>
+        <v>0.9884177505862609</v>
       </c>
       <c r="G17" t="n">
-        <v>1.191052694501712e-09</v>
+        <v>1.321686060478439e-07</v>
       </c>
       <c r="H17" t="n">
-        <v>8.747934653994945e-08</v>
+        <v>6.312994764292547e-08</v>
       </c>
       <c r="I17" t="n">
-        <v>3.655724665756779e-06</v>
+        <v>5.165440013006103e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>5.470894686626578e-06</v>
+        <v>1.042493452948016e-08</v>
       </c>
       <c r="K17" t="n">
-        <v>4.131611118988402e-06</v>
+        <v>3.363232732169629e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>4.150539276822835e-07</v>
+        <v>0.0002363153820240737</v>
       </c>
       <c r="M17" t="n">
-        <v>1.73443374835292e-11</v>
+        <v>2.4950306858468e-13</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0007013803666853386</v>
+        <v>5.9687225442221e-06</v>
       </c>
       <c r="O17" t="n">
-        <v>1.310707801405809e-11</v>
+        <v>2.666163792134953e-14</v>
       </c>
       <c r="P17" t="n">
-        <v>4.869741216154336e-13</v>
+        <v>1.038019385525334e-13</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.07511241272747e-06</v>
+        <v>0.002307868334280637</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0001564319401739209</v>
+        <v>3.768294597348039e-09</v>
       </c>
       <c r="S17" t="n">
-        <v>9.37487492016336e-07</v>
+        <v>5.198934544511147e-07</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6174994939533323</v>
+        <v>0.0003922287962046079</v>
       </c>
       <c r="U17" t="n">
-        <v>0.6174994939533323</v>
+        <v>0.9884177505862609</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-841</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-841</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20624.fa</t>
+          <t>even_MAG-GUT19220.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.06777439627958e-06</v>
+        <v>1.089278150634765e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>9.526975147828013e-07</v>
+        <v>4.509060698531631e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>1.683231290575534e-06</v>
+        <v>4.834506105258851e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03854062500219897</v>
+        <v>0.3795110907728624</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000211071118234946</v>
+        <v>0.002100001243117929</v>
       </c>
       <c r="G18" t="n">
-        <v>2.733942750286174e-11</v>
+        <v>1.191052694501712e-09</v>
       </c>
       <c r="H18" t="n">
-        <v>6.981851729144565e-06</v>
+        <v>8.747934653994945e-08</v>
       </c>
       <c r="I18" t="n">
-        <v>1.911224871672246e-05</v>
+        <v>3.655724665756779e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>3.559736555738839e-07</v>
+        <v>5.470894686626578e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>1.194403192290594e-06</v>
+        <v>4.131611118988402e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>6.756563193175383e-09</v>
+        <v>4.150539276822835e-07</v>
       </c>
       <c r="M18" t="n">
-        <v>8.174553715726606e-11</v>
+        <v>1.73443374835292e-11</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0001148342961061466</v>
+        <v>0.0007013803666853386</v>
       </c>
       <c r="O18" t="n">
-        <v>1.861875911354517e-12</v>
+        <v>1.310707801405809e-11</v>
       </c>
       <c r="P18" t="n">
-        <v>1.257871069613809e-11</v>
+        <v>4.869741216154336e-13</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.482368333617935e-06</v>
+        <v>5.07511241272747e-06</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01998535119176817</v>
+        <v>0.0001564319401739209</v>
       </c>
       <c r="S18" t="n">
-        <v>1.80652415633799e-05</v>
+        <v>9.37487492016336e-07</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9410882157212107</v>
+        <v>0.6174994939533323</v>
       </c>
       <c r="U18" t="n">
-        <v>0.9410882157212107</v>
+        <v>0.6174994939533323</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -1863,68 +1863,68 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21972.fa</t>
+          <t>even_MAG-GUT20624.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.890966116943343e-08</v>
+        <v>2.06777439627958e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>1.076245009322131e-10</v>
+        <v>9.526975147828013e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>1.858444880992083e-07</v>
+        <v>1.683231290575534e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1993218633008576</v>
+        <v>0.03854062500219897</v>
       </c>
       <c r="F19" t="n">
-        <v>4.318603312453785e-05</v>
+        <v>0.000211071118234946</v>
       </c>
       <c r="G19" t="n">
-        <v>4.252950870410772e-12</v>
+        <v>2.733942750286174e-11</v>
       </c>
       <c r="H19" t="n">
-        <v>3.117131037504735e-09</v>
+        <v>6.981851729144565e-06</v>
       </c>
       <c r="I19" t="n">
-        <v>3.670986557298795e-07</v>
+        <v>1.911224871672246e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>1.151400922444937e-09</v>
+        <v>3.559736555738839e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>2.012504270069254e-08</v>
+        <v>1.194403192290594e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>1.226121347349779e-09</v>
+        <v>6.756563193175383e-09</v>
       </c>
       <c r="M19" t="n">
-        <v>2.220022992303485e-14</v>
+        <v>8.174553715726606e-11</v>
       </c>
       <c r="N19" t="n">
-        <v>2.098633043699921e-05</v>
+        <v>0.0001148342961061466</v>
       </c>
       <c r="O19" t="n">
-        <v>2.220022992303485e-14</v>
+        <v>1.861875911354517e-12</v>
       </c>
       <c r="P19" t="n">
-        <v>2.220022992303485e-14</v>
+        <v>1.257871069613809e-11</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.34819782166276e-06</v>
+        <v>9.482368333617935e-06</v>
       </c>
       <c r="R19" t="n">
-        <v>4.150821196359303e-05</v>
+        <v>0.01998535119176817</v>
       </c>
       <c r="S19" t="n">
-        <v>3.066476404619956e-09</v>
+        <v>1.80652415633799e-05</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8005704972748743</v>
+        <v>0.9410882157212107</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8005704972748743</v>
+        <v>0.9410882157212107</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -1940,68 +1940,68 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23860.fa</t>
+          <t>even_MAG-GUT21972.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.245026630783709e-06</v>
+        <v>2.890966116943343e-08</v>
       </c>
       <c r="C20" t="n">
-        <v>1.247745874684801e-09</v>
+        <v>1.076245009322131e-10</v>
       </c>
       <c r="D20" t="n">
-        <v>5.872046426134177e-07</v>
+        <v>1.858444880992083e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4573135947354823</v>
+        <v>0.1993218633008576</v>
       </c>
       <c r="F20" t="n">
-        <v>0.002095093947130277</v>
+        <v>4.318603312453785e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>3.541813813302452e-10</v>
+        <v>4.252950870410772e-12</v>
       </c>
       <c r="H20" t="n">
-        <v>9.825273009035173e-09</v>
+        <v>3.117131037504735e-09</v>
       </c>
       <c r="I20" t="n">
-        <v>2.665195129942233e-06</v>
+        <v>3.670986557298795e-07</v>
       </c>
       <c r="J20" t="n">
-        <v>3.909632002298775e-07</v>
+        <v>1.151400922444937e-09</v>
       </c>
       <c r="K20" t="n">
-        <v>2.918307077756164e-07</v>
+        <v>2.012504270069254e-08</v>
       </c>
       <c r="L20" t="n">
-        <v>1.434787138333674e-06</v>
+        <v>1.226121347349779e-09</v>
       </c>
       <c r="M20" t="n">
-        <v>2.093671284590956e-12</v>
+        <v>2.220022992303485e-14</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001183041189430814</v>
+        <v>2.098633043699921e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.855978953357806e-13</v>
+        <v>2.220022992303485e-14</v>
       </c>
       <c r="P20" t="n">
-        <v>3.455501960580667e-13</v>
+        <v>2.220022992303485e-14</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.895304606533037e-06</v>
+        <v>1.34819782166276e-06</v>
       </c>
       <c r="R20" t="n">
-        <v>9.071868555598033e-05</v>
+        <v>4.150821196359303e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>5.330900722729546e-08</v>
+        <v>3.066476404619956e-09</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5392989763915121</v>
+        <v>0.8005704972748743</v>
       </c>
       <c r="U20" t="n">
-        <v>0.5392989763915121</v>
+        <v>0.8005704972748743</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2017,68 +2017,68 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24642.fa</t>
+          <t>even_MAG-GUT23860.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.697943212992151e-08</v>
+        <v>7.245026630783709e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.974161990767446e-08</v>
+        <v>1.247745874684801e-09</v>
       </c>
       <c r="D21" t="n">
-        <v>3.157381450209116e-07</v>
+        <v>5.872046426134177e-07</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008463923561866527</v>
+        <v>0.4573135947354823</v>
       </c>
       <c r="F21" t="n">
-        <v>2.471761679058921e-05</v>
+        <v>0.002095093947130277</v>
       </c>
       <c r="G21" t="n">
-        <v>6.520578225163458e-13</v>
+        <v>3.541813813302452e-10</v>
       </c>
       <c r="H21" t="n">
-        <v>8.821688739787547e-06</v>
+        <v>9.825273009035173e-09</v>
       </c>
       <c r="I21" t="n">
-        <v>1.222516872316612e-05</v>
+        <v>2.665195129942233e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>2.912375252966132e-09</v>
+        <v>3.909632002298775e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>1.030038027037921e-08</v>
+        <v>2.918307077756164e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>4.033665395405609e-10</v>
+        <v>1.434787138333674e-06</v>
       </c>
       <c r="M21" t="n">
-        <v>7.058922689949774e-13</v>
+        <v>2.093671284590956e-12</v>
       </c>
       <c r="N21" t="n">
-        <v>1.0827763060266e-05</v>
+        <v>0.001183041189430814</v>
       </c>
       <c r="O21" t="n">
-        <v>3.104873340891995e-14</v>
+        <v>1.855978953357806e-13</v>
       </c>
       <c r="P21" t="n">
-        <v>1.639097132178587e-12</v>
+        <v>3.455501960580667e-13</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.37966658498412e-06</v>
+        <v>5.895304606533037e-06</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02209771853629989</v>
+        <v>9.071868555598033e-05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.186341424345346e-06</v>
+        <v>5.330900722729546e-08</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9693778235781633</v>
+        <v>0.5392989763915121</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9693778235781633</v>
+        <v>0.5392989763915121</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2094,68 +2094,68 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24686.fa</t>
+          <t>even_MAG-GUT24642.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.61690080052858e-07</v>
+        <v>2.697943212992151e-08</v>
       </c>
       <c r="C22" t="n">
-        <v>7.154028826487659e-08</v>
+        <v>1.974161990767446e-08</v>
       </c>
       <c r="D22" t="n">
-        <v>1.479640739140677e-06</v>
+        <v>3.157381450209116e-07</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01285406110553251</v>
+        <v>0.008463923561866527</v>
       </c>
       <c r="F22" t="n">
-        <v>1.813937497555512e-05</v>
+        <v>2.471761679058921e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>1.150313028901766e-12</v>
+        <v>6.520578225163458e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>1.541735197560989e-05</v>
+        <v>8.821688739787547e-06</v>
       </c>
       <c r="I22" t="n">
-        <v>3.403023831800727e-05</v>
+        <v>1.222516872316612e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>1.288688109383962e-08</v>
+        <v>2.912375252966132e-09</v>
       </c>
       <c r="K22" t="n">
-        <v>1.619915487967122e-07</v>
+        <v>1.030038027037921e-08</v>
       </c>
       <c r="L22" t="n">
-        <v>2.235405447927415e-09</v>
+        <v>4.033665395405609e-10</v>
       </c>
       <c r="M22" t="n">
-        <v>1.34112491503884e-11</v>
+        <v>7.058922689949774e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0001316690140110367</v>
+        <v>1.0827763060266e-05</v>
       </c>
       <c r="O22" t="n">
-        <v>7.956757591494066e-13</v>
+        <v>3.104873340891995e-14</v>
       </c>
       <c r="P22" t="n">
-        <v>1.111613772384036e-10</v>
+        <v>1.639097132178587e-12</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.003037646776515e-06</v>
+        <v>2.37966658498412e-06</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01638660422039099</v>
+        <v>0.02209771853629989</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0002107380670829971</v>
+        <v>1.186341424345346e-06</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9703464474786051</v>
+        <v>0.9693778235781633</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9703464474786051</v>
+        <v>0.9693778235781633</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2171,68 +2171,68 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26059.fa</t>
+          <t>even_MAG-GUT24686.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.544189047232484e-08</v>
+        <v>1.61690080052858e-07</v>
       </c>
       <c r="C23" t="n">
-        <v>9.281684772507907e-09</v>
+        <v>7.154028826487659e-08</v>
       </c>
       <c r="D23" t="n">
-        <v>6.632908634262453e-07</v>
+        <v>1.479640739140677e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1364943952394767</v>
+        <v>0.01285406110553251</v>
       </c>
       <c r="F23" t="n">
-        <v>1.697129669052674e-05</v>
+        <v>1.813937497555512e-05</v>
       </c>
       <c r="G23" t="n">
-        <v>7.333292348579247e-12</v>
+        <v>1.150313028901766e-12</v>
       </c>
       <c r="H23" t="n">
-        <v>4.719925717851045e-07</v>
+        <v>1.541735197560989e-05</v>
       </c>
       <c r="I23" t="n">
-        <v>2.565928362169208e-06</v>
+        <v>3.403023831800727e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>1.220394673116677e-08</v>
+        <v>1.288688109383962e-08</v>
       </c>
       <c r="K23" t="n">
-        <v>2.407606390088253e-07</v>
+        <v>1.619915487967122e-07</v>
       </c>
       <c r="L23" t="n">
-        <v>5.788895505944418e-09</v>
+        <v>2.235405447927415e-09</v>
       </c>
       <c r="M23" t="n">
-        <v>4.242830052221141e-13</v>
+        <v>1.34112491503884e-11</v>
       </c>
       <c r="N23" t="n">
-        <v>4.335985305413548e-05</v>
+        <v>0.0001316690140110367</v>
       </c>
       <c r="O23" t="n">
-        <v>2.220198026615269e-14</v>
+        <v>7.956757591494066e-13</v>
       </c>
       <c r="P23" t="n">
-        <v>1.869676231843805e-13</v>
+        <v>1.111613772384036e-10</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.184540994295175e-06</v>
+        <v>1.003037646776515e-06</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0004779471697029558</v>
+        <v>0.01638660422039099</v>
       </c>
       <c r="S23" t="n">
-        <v>1.975644588974024e-07</v>
+        <v>0.0002107380670829971</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8629599096388019</v>
+        <v>0.9703464474786051</v>
       </c>
       <c r="U23" t="n">
-        <v>0.8629599096388019</v>
+        <v>0.9703464474786051</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2248,68 +2248,68 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2655.fa</t>
+          <t>even_MAG-GUT26059.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.597499986480989e-07</v>
+        <v>6.544189047232484e-08</v>
       </c>
       <c r="C24" t="n">
-        <v>3.569210884406726e-07</v>
+        <v>9.281684772507907e-09</v>
       </c>
       <c r="D24" t="n">
-        <v>2.189239823595317e-06</v>
+        <v>6.632908634262453e-07</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0186180939785808</v>
+        <v>0.1364943952394767</v>
       </c>
       <c r="F24" t="n">
-        <v>8.072185752960124e-05</v>
+        <v>1.697129669052674e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>1.315694482044037e-11</v>
+        <v>7.333292348579247e-12</v>
       </c>
       <c r="H24" t="n">
-        <v>8.017439160653223e-07</v>
+        <v>4.719925717851045e-07</v>
       </c>
       <c r="I24" t="n">
-        <v>1.963918447951376e-05</v>
+        <v>2.565928362169208e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>8.971671537283943e-08</v>
+        <v>1.220394673116677e-08</v>
       </c>
       <c r="K24" t="n">
-        <v>5.156073037770429e-07</v>
+        <v>2.407606390088253e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>6.687442004018761e-09</v>
+        <v>5.788895505944418e-09</v>
       </c>
       <c r="M24" t="n">
-        <v>1.287104677401915e-11</v>
+        <v>4.242830052221141e-13</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0001424920069009702</v>
+        <v>4.335985305413548e-05</v>
       </c>
       <c r="O24" t="n">
-        <v>1.975364193751737e-12</v>
+        <v>2.220198026615269e-14</v>
       </c>
       <c r="P24" t="n">
-        <v>2.641070250178254e-11</v>
+        <v>1.869676231843805e-13</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.958001644985986e-06</v>
+        <v>3.184540994295175e-06</v>
       </c>
       <c r="R24" t="n">
-        <v>0.06082997513425256</v>
+        <v>0.0004779471697029558</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0002443577787821422</v>
+        <v>1.975644588974024e-07</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9200551423371275</v>
+        <v>0.8629599096388019</v>
       </c>
       <c r="U24" t="n">
-        <v>0.9200551423371275</v>
+        <v>0.8629599096388019</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2325,68 +2325,68 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26757.fa</t>
+          <t>even_MAG-GUT2655.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.31176513833445e-06</v>
+        <v>6.597499986480989e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>5.686954040975875e-08</v>
+        <v>3.569210884406726e-07</v>
       </c>
       <c r="D25" t="n">
-        <v>1.521121179499673e-06</v>
+        <v>2.189239823595317e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1095741536255538</v>
+        <v>0.0186180939785808</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0001184625882007499</v>
+        <v>8.072185752960124e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>2.032119561557246e-11</v>
+        <v>1.315694482044037e-11</v>
       </c>
       <c r="H25" t="n">
-        <v>3.65872959870154e-07</v>
+        <v>8.017439160653223e-07</v>
       </c>
       <c r="I25" t="n">
-        <v>6.388579449254847e-06</v>
+        <v>1.963918447951376e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>2.088652801070161e-07</v>
+        <v>8.971671537283943e-08</v>
       </c>
       <c r="K25" t="n">
-        <v>9.183539901074386e-07</v>
+        <v>5.156073037770429e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>7.743785846400036e-09</v>
+        <v>6.687442004018761e-09</v>
       </c>
       <c r="M25" t="n">
-        <v>3.481123866095444e-12</v>
+        <v>1.287104677401915e-11</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0002685554962533999</v>
+        <v>0.0001424920069009702</v>
       </c>
       <c r="O25" t="n">
-        <v>6.036392862283692e-13</v>
+        <v>1.975364193751737e-12</v>
       </c>
       <c r="P25" t="n">
-        <v>7.957876016448141e-13</v>
+        <v>2.641070250178254e-11</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.388634235371515e-06</v>
+        <v>4.958001644985986e-06</v>
       </c>
       <c r="R25" t="n">
-        <v>0.001634699350801216</v>
+        <v>0.06082997513425256</v>
       </c>
       <c r="S25" t="n">
-        <v>5.932929809948938e-07</v>
+        <v>0.0002443577787821422</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8883873678154494</v>
+        <v>0.9200551423371275</v>
       </c>
       <c r="U25" t="n">
-        <v>0.8883873678154494</v>
+        <v>0.9200551423371275</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2402,68 +2402,68 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27144.fa</t>
+          <t>even_MAG-GUT26757.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.609894000562823e-08</v>
+        <v>2.31176513833445e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>3.47516582174161e-09</v>
+        <v>5.686954040975875e-08</v>
       </c>
       <c r="D26" t="n">
-        <v>3.601166363061121e-07</v>
+        <v>1.521121179499673e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05307585270052245</v>
+        <v>0.1095741536255538</v>
       </c>
       <c r="F26" t="n">
-        <v>6.791795315554509e-05</v>
+        <v>0.0001184625882007499</v>
       </c>
       <c r="G26" t="n">
-        <v>7.09610512920917e-12</v>
+        <v>2.032119561557246e-11</v>
       </c>
       <c r="H26" t="n">
-        <v>3.42789378034497e-07</v>
+        <v>3.65872959870154e-07</v>
       </c>
       <c r="I26" t="n">
-        <v>1.850939676076008e-06</v>
+        <v>6.388579449254847e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>7.451780348775266e-09</v>
+        <v>2.088652801070161e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>2.122866242872491e-07</v>
+        <v>9.183539901074386e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>1.561881259963598e-09</v>
+        <v>7.743785846400036e-09</v>
       </c>
       <c r="M26" t="n">
-        <v>2.126631559441853e-13</v>
+        <v>3.481123866095444e-12</v>
       </c>
       <c r="N26" t="n">
-        <v>0.000105170336933492</v>
+        <v>0.0002685554962533999</v>
       </c>
       <c r="O26" t="n">
-        <v>2.220096528835936e-14</v>
+        <v>6.036392862283692e-13</v>
       </c>
       <c r="P26" t="n">
-        <v>3.657231777387083e-13</v>
+        <v>7.957876016448141e-13</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.431708410801329e-06</v>
+        <v>4.388634235371515e-06</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0002643008104689852</v>
+        <v>0.001634699350801216</v>
       </c>
       <c r="S26" t="n">
-        <v>2.741285572473665e-07</v>
+        <v>5.932929809948938e-07</v>
       </c>
       <c r="T26" t="n">
-        <v>0.9464822076341727</v>
+        <v>0.8883873678154494</v>
       </c>
       <c r="U26" t="n">
-        <v>0.9464822076341727</v>
+        <v>0.8883873678154494</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2479,68 +2479,68 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27436.fa</t>
+          <t>even_MAG-GUT27144.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.642314398915647e-09</v>
+        <v>6.609894000562823e-08</v>
       </c>
       <c r="C27" t="n">
-        <v>5.91377110763446e-08</v>
+        <v>3.47516582174161e-09</v>
       </c>
       <c r="D27" t="n">
-        <v>1.261688840905731e-07</v>
+        <v>3.601166363061121e-07</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0004523321015642239</v>
+        <v>0.05307585270052245</v>
       </c>
       <c r="F27" t="n">
-        <v>1.177840956333042e-05</v>
+        <v>6.791795315554509e-05</v>
       </c>
       <c r="G27" t="n">
-        <v>2.790541580383747e-13</v>
+        <v>7.09610512920917e-12</v>
       </c>
       <c r="H27" t="n">
-        <v>2.613521060435507e-06</v>
+        <v>3.42789378034497e-07</v>
       </c>
       <c r="I27" t="n">
-        <v>5.829895217454491e-06</v>
+        <v>1.850939676076008e-06</v>
       </c>
       <c r="J27" t="n">
-        <v>8.940881937518822e-10</v>
+        <v>7.451780348775266e-09</v>
       </c>
       <c r="K27" t="n">
-        <v>4.511770852684886e-09</v>
+        <v>2.122866242872491e-07</v>
       </c>
       <c r="L27" t="n">
-        <v>1.689591252741421e-10</v>
+        <v>1.561881259963598e-09</v>
       </c>
       <c r="M27" t="n">
-        <v>5.513286030793454e-13</v>
+        <v>2.126631559441853e-13</v>
       </c>
       <c r="N27" t="n">
-        <v>2.854043968219924e-06</v>
+        <v>0.000105170336933492</v>
       </c>
       <c r="O27" t="n">
-        <v>6.807006871461811e-14</v>
+        <v>2.220096528835936e-14</v>
       </c>
       <c r="P27" t="n">
-        <v>2.335604049222546e-12</v>
+        <v>3.657231777387083e-13</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.051121585249684e-06</v>
+        <v>1.431708410801329e-06</v>
       </c>
       <c r="R27" t="n">
-        <v>0.04658524241463802</v>
+        <v>0.0002643008104689852</v>
       </c>
       <c r="S27" t="n">
-        <v>5.745673190041269e-06</v>
+        <v>2.741285572473665e-07</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9529323552922511</v>
+        <v>0.9464822076341727</v>
       </c>
       <c r="U27" t="n">
-        <v>0.9529323552922511</v>
+        <v>0.9464822076341727</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2556,68 +2556,68 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28099.fa</t>
+          <t>even_MAG-GUT27436.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.228888511154951e-07</v>
+        <v>6.642314398915647e-09</v>
       </c>
       <c r="C28" t="n">
-        <v>7.98476658991225e-09</v>
+        <v>5.91377110763446e-08</v>
       </c>
       <c r="D28" t="n">
-        <v>2.613193204666977e-07</v>
+        <v>1.261688840905731e-07</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1840025326336608</v>
+        <v>0.0004523321015642239</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0001364683301033374</v>
+        <v>1.177840956333042e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>2.844881347512424e-11</v>
+        <v>2.790541580383747e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>1.147715726226738e-07</v>
+        <v>2.613521060435507e-06</v>
       </c>
       <c r="I28" t="n">
-        <v>1.29004294318016e-06</v>
+        <v>5.829895217454491e-06</v>
       </c>
       <c r="J28" t="n">
-        <v>1.498021607577788e-07</v>
+        <v>8.940881937518822e-10</v>
       </c>
       <c r="K28" t="n">
-        <v>2.717898628577236e-07</v>
+        <v>4.511770852684886e-09</v>
       </c>
       <c r="L28" t="n">
-        <v>3.933767288781308e-09</v>
+        <v>1.689591252741421e-10</v>
       </c>
       <c r="M28" t="n">
-        <v>1.112925108431006e-12</v>
+        <v>5.513286030793454e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>2.755005700666795e-05</v>
+        <v>2.854043968219924e-06</v>
       </c>
       <c r="O28" t="n">
-        <v>2.275338722999709e-14</v>
+        <v>6.807006871461811e-14</v>
       </c>
       <c r="P28" t="n">
-        <v>1.476857755857676e-13</v>
+        <v>2.335604049222546e-12</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.252490755683912e-06</v>
+        <v>1.051121585249684e-06</v>
       </c>
       <c r="R28" t="n">
-        <v>7.455564525005499e-05</v>
+        <v>0.04658524241463802</v>
       </c>
       <c r="S28" t="n">
-        <v>5.854861571774269e-08</v>
+        <v>5.745673190041269e-06</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8157551597316306</v>
+        <v>0.9529323552922511</v>
       </c>
       <c r="U28" t="n">
-        <v>0.8157551597316306</v>
+        <v>0.9529323552922511</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2633,68 +2633,68 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28110.fa</t>
+          <t>even_MAG-GUT28099.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.012916151489229e-06</v>
+        <v>3.228888511154951e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>1.954661040986093e-06</v>
+        <v>7.98476658991225e-09</v>
       </c>
       <c r="D29" t="n">
-        <v>4.127755262433281e-06</v>
+        <v>2.613193204666977e-07</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1668451905985811</v>
+        <v>0.1840025326336608</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0002536062178764854</v>
+        <v>0.0001364683301033374</v>
       </c>
       <c r="G29" t="n">
-        <v>7.674151600999546e-11</v>
+        <v>2.844881347512424e-11</v>
       </c>
       <c r="H29" t="n">
-        <v>2.291731982736354e-06</v>
+        <v>1.147715726226738e-07</v>
       </c>
       <c r="I29" t="n">
-        <v>2.379587420797786e-05</v>
+        <v>1.29004294318016e-06</v>
       </c>
       <c r="J29" t="n">
-        <v>1.409907761048381e-06</v>
+        <v>1.498021607577788e-07</v>
       </c>
       <c r="K29" t="n">
-        <v>6.836941832904259e-06</v>
+        <v>2.717898628577236e-07</v>
       </c>
       <c r="L29" t="n">
-        <v>2.640193340112395e-09</v>
+        <v>3.933767288781308e-09</v>
       </c>
       <c r="M29" t="n">
-        <v>1.059769241339319e-11</v>
+        <v>1.112925108431006e-12</v>
       </c>
       <c r="N29" t="n">
-        <v>0.00101561219474016</v>
+        <v>2.755005700666795e-05</v>
       </c>
       <c r="O29" t="n">
-        <v>3.296599764300898e-13</v>
+        <v>2.275338722999709e-14</v>
       </c>
       <c r="P29" t="n">
-        <v>3.527555956497108e-12</v>
+        <v>1.476857755857676e-13</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.061473222596676e-06</v>
+        <v>1.252490755683912e-06</v>
       </c>
       <c r="R29" t="n">
-        <v>0.002383499539388653</v>
+        <v>7.455564525005499e-05</v>
       </c>
       <c r="S29" t="n">
-        <v>2.07894514292123e-05</v>
+        <v>5.854861571774269e-08</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8294358080051325</v>
+        <v>0.8157551597316306</v>
       </c>
       <c r="U29" t="n">
-        <v>0.8294358080051325</v>
+        <v>0.8157551597316306</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2710,68 +2710,68 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28130.fa</t>
+          <t>even_MAG-GUT28110.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.41134108039061e-06</v>
+        <v>2.012916151489229e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>1.563894260990206e-08</v>
+        <v>1.954661040986093e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>1.816758535953883e-06</v>
+        <v>4.127755262433281e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>0.05696836324245998</v>
+        <v>0.1668451905985811</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0003491714165572168</v>
+        <v>0.0002536062178764854</v>
       </c>
       <c r="G30" t="n">
-        <v>3.835179346775919e-11</v>
+        <v>7.674151600999546e-11</v>
       </c>
       <c r="H30" t="n">
-        <v>4.866198431734602e-07</v>
+        <v>2.291731982736354e-06</v>
       </c>
       <c r="I30" t="n">
-        <v>1.612044660734853e-05</v>
+        <v>2.379587420797786e-05</v>
       </c>
       <c r="J30" t="n">
-        <v>1.743150018305504e-06</v>
+        <v>1.409907761048381e-06</v>
       </c>
       <c r="K30" t="n">
-        <v>2.973658561767986e-06</v>
+        <v>6.836941832904259e-06</v>
       </c>
       <c r="L30" t="n">
-        <v>1.055592540239665e-08</v>
+        <v>2.640193340112395e-09</v>
       </c>
       <c r="M30" t="n">
-        <v>5.743906654501555e-11</v>
+        <v>1.059769241339319e-11</v>
       </c>
       <c r="N30" t="n">
-        <v>0.000771057389015167</v>
+        <v>0.00101561219474016</v>
       </c>
       <c r="O30" t="n">
-        <v>9.567528170724419e-13</v>
+        <v>3.296599764300898e-13</v>
       </c>
       <c r="P30" t="n">
-        <v>2.177315276325672e-12</v>
+        <v>3.527555956497108e-12</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.319858517761764e-06</v>
+        <v>3.061473222596676e-06</v>
       </c>
       <c r="R30" t="n">
-        <v>0.008261169371145998</v>
+        <v>0.002383499539388653</v>
       </c>
       <c r="S30" t="n">
-        <v>2.001118063290747e-05</v>
+        <v>2.07894514292123e-05</v>
       </c>
       <c r="T30" t="n">
-        <v>0.933603329273231</v>
+        <v>0.8294358080051325</v>
       </c>
       <c r="U30" t="n">
-        <v>0.933603329273231</v>
+        <v>0.8294358080051325</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -2787,68 +2787,68 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32583.fa</t>
+          <t>even_MAG-GUT28130.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.816744486578197e-08</v>
+        <v>1.41134108039061e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>5.939022536409549e-09</v>
+        <v>1.563894260990206e-08</v>
       </c>
       <c r="D31" t="n">
-        <v>7.170194890682379e-07</v>
+        <v>1.816758535953883e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02466955897157475</v>
+        <v>0.05696836324245998</v>
       </c>
       <c r="F31" t="n">
-        <v>6.801475986667169e-06</v>
+        <v>0.0003491714165572168</v>
       </c>
       <c r="G31" t="n">
-        <v>6.350443975608877e-13</v>
+        <v>3.835179346775919e-11</v>
       </c>
       <c r="H31" t="n">
-        <v>4.04955670182567e-06</v>
+        <v>4.866198431734602e-07</v>
       </c>
       <c r="I31" t="n">
-        <v>1.713567653859351e-05</v>
+        <v>1.612044660734853e-05</v>
       </c>
       <c r="J31" t="n">
-        <v>2.163029859501215e-09</v>
+        <v>1.743150018305504e-06</v>
       </c>
       <c r="K31" t="n">
-        <v>9.293251972951359e-08</v>
+        <v>2.973658561767986e-06</v>
       </c>
       <c r="L31" t="n">
-        <v>2.96353168985894e-09</v>
+        <v>1.055592540239665e-08</v>
       </c>
       <c r="M31" t="n">
-        <v>8.628843625044292e-13</v>
+        <v>5.743906654501555e-11</v>
       </c>
       <c r="N31" t="n">
-        <v>2.114045163361106e-05</v>
+        <v>0.000771057389015167</v>
       </c>
       <c r="O31" t="n">
-        <v>4.587854537448982e-14</v>
+        <v>9.567528170724419e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>2.081377454654231e-12</v>
+        <v>2.177315276325672e-12</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.046566998412459e-06</v>
+        <v>2.319858517761764e-06</v>
       </c>
       <c r="R31" t="n">
-        <v>0.009558053577158037</v>
+        <v>0.008261169371145998</v>
       </c>
       <c r="S31" t="n">
-        <v>7.931763167374715e-06</v>
+        <v>2.001118063290747e-05</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9657133627715778</v>
+        <v>0.933603329273231</v>
       </c>
       <c r="U31" t="n">
-        <v>0.9657133627715778</v>
+        <v>0.933603329273231</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -2864,222 +2864,222 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32792.fa</t>
+          <t>even_MAG-GUT29051.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.468082045199764e-06</v>
+        <v>0.08565796549326977</v>
       </c>
       <c r="C32" t="n">
-        <v>5.45744713856025e-05</v>
+        <v>2.363865238336763e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>7.227124715718291e-06</v>
+        <v>1.558668962423136e-09</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08310986097968628</v>
+        <v>6.526418705410833e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>7.428800976085684e-05</v>
+        <v>0.3716343710056613</v>
       </c>
       <c r="G32" t="n">
-        <v>1.00236744298573e-11</v>
+        <v>1.65354992368099e-06</v>
       </c>
       <c r="H32" t="n">
-        <v>1.302715293291084e-05</v>
+        <v>0.0001924252553662817</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0001913064356119876</v>
+        <v>3.338804212039709e-06</v>
       </c>
       <c r="J32" t="n">
-        <v>1.135870466555392e-07</v>
+        <v>1.914191611318776e-09</v>
       </c>
       <c r="K32" t="n">
-        <v>2.511801096273307e-07</v>
+        <v>1.01491997842961e-05</v>
       </c>
       <c r="L32" t="n">
-        <v>2.111122131735015e-08</v>
+        <v>0.5416765376589179</v>
       </c>
       <c r="M32" t="n">
-        <v>8.356218430580502e-11</v>
+        <v>3.597570073320324e-12</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0001492758196471498</v>
+        <v>3.980993800424537e-06</v>
       </c>
       <c r="O32" t="n">
-        <v>4.245348085762223e-13</v>
+        <v>4.330439173862115e-09</v>
       </c>
       <c r="P32" t="n">
-        <v>3.62820820048349e-10</v>
+        <v>2.045773261314031e-09</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.961591611661984e-06</v>
+        <v>0.0006519652512593126</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0605509441936331</v>
+        <v>3.059654038364298e-08</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0004971883067895527</v>
+        <v>8.64665756740777e-09</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8553404914969712</v>
+        <v>9.993563964405918e-05</v>
       </c>
       <c r="U32" t="n">
-        <v>0.8553404914969712</v>
+        <v>0.5416765376589179</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1312</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1312</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33658.fa</t>
+          <t>even_MAG-GUT29076.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.523506492114003e-05</v>
+        <v>0.05292655248672515</v>
       </c>
       <c r="C33" t="n">
-        <v>1.853355659119055e-06</v>
+        <v>2.357179623065111e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>4.550524988307303e-06</v>
+        <v>1.539736345056915e-09</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3444823858203386</v>
+        <v>6.570450505975696e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02263427320668606</v>
+        <v>0.3891963256421103</v>
       </c>
       <c r="G33" t="n">
-        <v>5.536988899522606e-09</v>
+        <v>1.449079845756222e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>2.027424151161646e-06</v>
+        <v>5.599024861145026e-05</v>
       </c>
       <c r="I33" t="n">
-        <v>5.119609279107767e-05</v>
+        <v>3.109117260843517e-06</v>
       </c>
       <c r="J33" t="n">
-        <v>1.264899771747133e-05</v>
+        <v>1.468895370843395e-08</v>
       </c>
       <c r="K33" t="n">
-        <v>4.467059831605903e-06</v>
+        <v>4.087993999483562e-06</v>
       </c>
       <c r="L33" t="n">
-        <v>8.265689542791551e-06</v>
+        <v>0.5561275432339767</v>
       </c>
       <c r="M33" t="n">
-        <v>1.580330223808448e-10</v>
+        <v>7.124318474868052e-12</v>
       </c>
       <c r="N33" t="n">
-        <v>0.001415188921196908</v>
+        <v>2.272897252523412e-06</v>
       </c>
       <c r="O33" t="n">
-        <v>1.242535763254294e-11</v>
+        <v>3.846710621529243e-10</v>
       </c>
       <c r="P33" t="n">
-        <v>3.090785367782745e-12</v>
+        <v>1.456480632887742e-09</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0004111581990475686</v>
+        <v>0.001149003529077195</v>
       </c>
       <c r="R33" t="n">
-        <v>0.00518256781214744</v>
+        <v>6.047844216438162e-08</v>
       </c>
       <c r="S33" t="n">
-        <v>3.882262888054358e-05</v>
+        <v>2.355645635971955e-08</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6256853534915623</v>
+        <v>0.0004655019745932195</v>
       </c>
       <c r="U33" t="n">
-        <v>0.6256853534915623</v>
+        <v>0.5561275432339767</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1312</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1312</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34569.fa</t>
+          <t>even_MAG-GUT32583.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.894795470988738e-08</v>
+        <v>9.816744486578197e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>6.578399653838429e-08</v>
+        <v>5.939022536409549e-09</v>
       </c>
       <c r="D34" t="n">
-        <v>5.157369818084507e-07</v>
+        <v>7.170194890682379e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004103168889003804</v>
+        <v>0.02466955897157475</v>
       </c>
       <c r="F34" t="n">
-        <v>1.118906927250224e-05</v>
+        <v>6.801475986667169e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>3.887120526162225e-13</v>
+        <v>6.350443975608877e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>1.339906673546667e-05</v>
+        <v>4.04955670182567e-06</v>
       </c>
       <c r="I34" t="n">
-        <v>1.190742840161461e-05</v>
+        <v>1.713567653859351e-05</v>
       </c>
       <c r="J34" t="n">
-        <v>1.324600263409552e-08</v>
+        <v>2.163029859501215e-09</v>
       </c>
       <c r="K34" t="n">
-        <v>5.527864057763822e-08</v>
+        <v>9.293251972951359e-08</v>
       </c>
       <c r="L34" t="n">
-        <v>3.558931199118773e-10</v>
+        <v>2.96353168985894e-09</v>
       </c>
       <c r="M34" t="n">
-        <v>5.651612458542188e-12</v>
+        <v>8.628843625044292e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>5.880964824760791e-06</v>
+        <v>2.114045163361106e-05</v>
       </c>
       <c r="O34" t="n">
-        <v>2.24643536996459e-14</v>
+        <v>4.587854537448982e-14</v>
       </c>
       <c r="P34" t="n">
-        <v>6.515191050630599e-12</v>
+        <v>2.081377454654231e-12</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.86981537005893e-07</v>
+        <v>1.046566998412459e-06</v>
       </c>
       <c r="R34" t="n">
-        <v>0.01711732147419161</v>
+        <v>0.009558053577158037</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0001107499309119438</v>
+        <v>7.931763167374715e-06</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9786248068330738</v>
+        <v>0.9657133627715778</v>
       </c>
       <c r="U34" t="n">
-        <v>0.9786248068330738</v>
+        <v>0.9657133627715778</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3095,68 +3095,68 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36712.fa</t>
+          <t>even_MAG-GUT32792.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.564826745142204e-08</v>
+        <v>2.468082045199764e-06</v>
       </c>
       <c r="C35" t="n">
-        <v>1.269530692652858e-09</v>
+        <v>5.45744713856025e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>3.519252622114015e-07</v>
+        <v>7.227124715718291e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04359937612371845</v>
+        <v>0.08310986097968628</v>
       </c>
       <c r="F35" t="n">
-        <v>3.876638261877874e-06</v>
+        <v>7.428800976085684e-05</v>
       </c>
       <c r="G35" t="n">
-        <v>5.542437349516191e-13</v>
+        <v>1.00236744298573e-11</v>
       </c>
       <c r="H35" t="n">
-        <v>2.073647614129867e-07</v>
+        <v>1.302715293291084e-05</v>
       </c>
       <c r="I35" t="n">
-        <v>5.747777965355617e-06</v>
+        <v>0.0001913064356119876</v>
       </c>
       <c r="J35" t="n">
-        <v>6.369344402312785e-10</v>
+        <v>1.135870466555392e-07</v>
       </c>
       <c r="K35" t="n">
-        <v>3.368456934579199e-08</v>
+        <v>2.511801096273307e-07</v>
       </c>
       <c r="L35" t="n">
-        <v>8.587269376685194e-09</v>
+        <v>2.111122131735015e-08</v>
       </c>
       <c r="M35" t="n">
-        <v>2.566925226195544e-13</v>
+        <v>8.356218430580502e-11</v>
       </c>
       <c r="N35" t="n">
-        <v>1.415358132398309e-05</v>
+        <v>0.0001492758196471498</v>
       </c>
       <c r="O35" t="n">
-        <v>2.220144955193341e-14</v>
+        <v>4.245348085762223e-13</v>
       </c>
       <c r="P35" t="n">
-        <v>4.284799964879654e-13</v>
+        <v>3.62820820048349e-10</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.088631636800936e-06</v>
+        <v>8.961591611661984e-06</v>
       </c>
       <c r="R35" t="n">
-        <v>0.002344816591121699</v>
+        <v>0.0605509441936331</v>
       </c>
       <c r="S35" t="n">
-        <v>2.000052117266882e-07</v>
+        <v>0.0004971883067895527</v>
       </c>
       <c r="T35" t="n">
-        <v>0.9540301115329036</v>
+        <v>0.8553404914969712</v>
       </c>
       <c r="U35" t="n">
-        <v>0.9540301115329036</v>
+        <v>0.8553404914969712</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3172,145 +3172,145 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36794.fa</t>
+          <t>even_MAG-GUT33658.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.003224135143596337</v>
+        <v>6.523506492114003e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>8.912796311263178e-13</v>
+        <v>1.853355659119055e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003192697800232111</v>
+        <v>4.550524988307303e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>8.860746164450497e-05</v>
+        <v>0.3444823858203386</v>
       </c>
       <c r="F36" t="n">
-        <v>7.499472506055469e-07</v>
+        <v>0.02263427320668606</v>
       </c>
       <c r="G36" t="n">
-        <v>2.83443698627802e-08</v>
+        <v>5.536988899522606e-09</v>
       </c>
       <c r="H36" t="n">
-        <v>1.250308582298196e-05</v>
+        <v>2.027424151161646e-06</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1551314678797105</v>
+        <v>5.119609279107767e-05</v>
       </c>
       <c r="J36" t="n">
-        <v>2.740792185715709e-05</v>
+        <v>1.264899771747133e-05</v>
       </c>
       <c r="K36" t="n">
-        <v>1.849199950222073e-06</v>
+        <v>4.467059831605903e-06</v>
       </c>
       <c r="L36" t="n">
-        <v>4.979377487094569e-05</v>
+        <v>8.265689542791551e-06</v>
       </c>
       <c r="M36" t="n">
-        <v>0.5922802410411089</v>
+        <v>1.580330223808448e-10</v>
       </c>
       <c r="N36" t="n">
-        <v>2.618444779966679e-07</v>
+        <v>0.001415188921196908</v>
       </c>
       <c r="O36" t="n">
-        <v>0.245973982213547</v>
+        <v>1.242535763254294e-11</v>
       </c>
       <c r="P36" t="n">
-        <v>1.511846532614186e-06</v>
+        <v>3.090785367782745e-12</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.161850330533073e-07</v>
+        <v>0.0004111581990475686</v>
       </c>
       <c r="R36" t="n">
-        <v>7.800929470075154e-09</v>
+        <v>0.00518256781214744</v>
       </c>
       <c r="S36" t="n">
-        <v>8.907765802417165e-08</v>
+        <v>3.882262888054358e-05</v>
       </c>
       <c r="T36" t="n">
-        <v>1.394943051650023e-05</v>
+        <v>0.6256853534915623</v>
       </c>
       <c r="U36" t="n">
-        <v>0.5922802410411089</v>
+        <v>0.6256853534915623</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36962.fa</t>
+          <t>even_MAG-GUT34569.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.353258130616551e-07</v>
+        <v>3.894795470988738e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>4.290158350062963e-08</v>
+        <v>6.578399653838429e-08</v>
       </c>
       <c r="D37" t="n">
-        <v>9.357521772309366e-07</v>
+        <v>5.157369818084507e-07</v>
       </c>
       <c r="E37" t="n">
-        <v>0.115366573216076</v>
+        <v>0.004103168889003804</v>
       </c>
       <c r="F37" t="n">
-        <v>6.656085001239319e-05</v>
+        <v>1.118906927250224e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>2.69040230067651e-11</v>
+        <v>3.887120526162225e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>6.296165871259976e-08</v>
+        <v>1.339906673546667e-05</v>
       </c>
       <c r="I37" t="n">
-        <v>3.264673086145414e-06</v>
+        <v>1.190742840161461e-05</v>
       </c>
       <c r="J37" t="n">
-        <v>6.574647526405101e-08</v>
+        <v>1.324600263409552e-08</v>
       </c>
       <c r="K37" t="n">
-        <v>1.949994036100192e-06</v>
+        <v>5.527864057763822e-08</v>
       </c>
       <c r="L37" t="n">
-        <v>5.477084184273244e-08</v>
+        <v>3.558931199118773e-10</v>
       </c>
       <c r="M37" t="n">
-        <v>1.106764076181107e-12</v>
+        <v>5.651612458542188e-12</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0003715775922000636</v>
+        <v>5.880964824760791e-06</v>
       </c>
       <c r="O37" t="n">
-        <v>3.806063648179579e-13</v>
+        <v>2.24643536996459e-14</v>
       </c>
       <c r="P37" t="n">
-        <v>4.229049661232776e-13</v>
+        <v>6.515191050630599e-12</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.020522751084953e-06</v>
+        <v>8.86981537005893e-07</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0003275840115693816</v>
+        <v>0.01711732147419161</v>
       </c>
       <c r="S37" t="n">
-        <v>7.842057503081874e-07</v>
+        <v>0.0001107499309119438</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8838580874471546</v>
+        <v>0.9786248068330738</v>
       </c>
       <c r="U37" t="n">
-        <v>0.8838580874471546</v>
+        <v>0.9786248068330738</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3326,222 +3326,222 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37542.fa</t>
+          <t>even_MAG-GUT36712.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.408468119136957e-06</v>
+        <v>2.564826745142204e-08</v>
       </c>
       <c r="C38" t="n">
-        <v>6.248749061543603e-09</v>
+        <v>1.269530692652858e-09</v>
       </c>
       <c r="D38" t="n">
-        <v>3.682538977615816e-07</v>
+        <v>3.519252622114015e-07</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6280481229267822</v>
+        <v>0.04359937612371845</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00975565838770644</v>
+        <v>3.876638261877874e-06</v>
       </c>
       <c r="G38" t="n">
-        <v>1.090153436520008e-09</v>
+        <v>5.542437349516191e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>1.217310198578885e-08</v>
+        <v>2.073647614129867e-07</v>
       </c>
       <c r="I38" t="n">
-        <v>2.617212601519899e-06</v>
+        <v>5.747777965355617e-06</v>
       </c>
       <c r="J38" t="n">
-        <v>1.211246913545604e-06</v>
+        <v>6.369344402312785e-10</v>
       </c>
       <c r="K38" t="n">
-        <v>3.642548183797529e-07</v>
+        <v>3.368456934579199e-08</v>
       </c>
       <c r="L38" t="n">
-        <v>8.660338069807713e-07</v>
+        <v>8.587269376685194e-09</v>
       </c>
       <c r="M38" t="n">
-        <v>1.05669143346069e-11</v>
+        <v>2.566925226195544e-13</v>
       </c>
       <c r="N38" t="n">
-        <v>0.000148581878787129</v>
+        <v>1.415358132398309e-05</v>
       </c>
       <c r="O38" t="n">
-        <v>1.097340884521255e-12</v>
+        <v>2.220144955193341e-14</v>
       </c>
       <c r="P38" t="n">
-        <v>1.556518791111499e-13</v>
+        <v>4.284799964879654e-13</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.269597497549321e-05</v>
+        <v>1.088631636800936e-06</v>
       </c>
       <c r="R38" t="n">
-        <v>0.0001901348487283563</v>
+        <v>0.002344816591121699</v>
       </c>
       <c r="S38" t="n">
-        <v>4.347488055248418e-07</v>
+        <v>2.000052117266882e-07</v>
       </c>
       <c r="T38" t="n">
-        <v>0.3618095162402332</v>
+        <v>0.9540301115329036</v>
       </c>
       <c r="U38" t="n">
-        <v>0.6280481229267822</v>
+        <v>0.9540301115329036</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37950.fa</t>
+          <t>even_MAG-GUT36794.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.672080937418793e-06</v>
+        <v>0.003224135143596337</v>
       </c>
       <c r="C39" t="n">
-        <v>2.116501088116314e-07</v>
+        <v>8.912796311263178e-13</v>
       </c>
       <c r="D39" t="n">
-        <v>2.549602826009023e-06</v>
+        <v>0.003192697800232111</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1730602677454529</v>
+        <v>8.860746164450497e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0002453213098546323</v>
+        <v>7.499472506055469e-07</v>
       </c>
       <c r="G39" t="n">
-        <v>4.642894990073699e-11</v>
+        <v>2.83443698627802e-08</v>
       </c>
       <c r="H39" t="n">
-        <v>1.542792643491227e-07</v>
+        <v>1.250308582298196e-05</v>
       </c>
       <c r="I39" t="n">
-        <v>6.32795068085319e-06</v>
+        <v>0.1551314678797105</v>
       </c>
       <c r="J39" t="n">
-        <v>4.762114675324539e-07</v>
+        <v>2.740792185715709e-05</v>
       </c>
       <c r="K39" t="n">
-        <v>1.502337010784878e-06</v>
+        <v>1.849199950222073e-06</v>
       </c>
       <c r="L39" t="n">
-        <v>2.150376071016003e-08</v>
+        <v>4.979377487094569e-05</v>
       </c>
       <c r="M39" t="n">
-        <v>7.014180762955459e-12</v>
+        <v>0.5922802410411089</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0006114638696755216</v>
+        <v>2.618444779966679e-07</v>
       </c>
       <c r="O39" t="n">
-        <v>5.556708429743987e-13</v>
+        <v>0.245973982213547</v>
       </c>
       <c r="P39" t="n">
-        <v>6.808717010418689e-13</v>
+        <v>1.511846532614186e-06</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.418743398460593e-06</v>
+        <v>7.161850330533073e-07</v>
       </c>
       <c r="R39" t="n">
-        <v>0.001020959114195369</v>
+        <v>7.800929470075154e-09</v>
       </c>
       <c r="S39" t="n">
-        <v>5.098128684693226e-07</v>
+        <v>8.907765802417165e-08</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8250441437338185</v>
+        <v>1.394943051650023e-05</v>
       </c>
       <c r="U39" t="n">
-        <v>0.8250441437338185</v>
+        <v>0.5922802410411089</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1696</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1696</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39078.fa</t>
+          <t>even_MAG-GUT36962.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.736676350756768e-07</v>
+        <v>4.353258130616551e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>3.449962554088778e-07</v>
+        <v>4.290158350062963e-08</v>
       </c>
       <c r="D40" t="n">
-        <v>4.8079285409402e-07</v>
+        <v>9.357521772309366e-07</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03516896403959287</v>
+        <v>0.115366573216076</v>
       </c>
       <c r="F40" t="n">
-        <v>3.653865064435206e-05</v>
+        <v>6.656085001239319e-05</v>
       </c>
       <c r="G40" t="n">
-        <v>7.477521369368032e-12</v>
+        <v>2.69040230067651e-11</v>
       </c>
       <c r="H40" t="n">
-        <v>1.035495856395784e-06</v>
+        <v>6.296165871259976e-08</v>
       </c>
       <c r="I40" t="n">
-        <v>4.258052581337171e-06</v>
+        <v>3.264673086145414e-06</v>
       </c>
       <c r="J40" t="n">
-        <v>3.766278975153764e-08</v>
+        <v>6.574647526405101e-08</v>
       </c>
       <c r="K40" t="n">
-        <v>1.531262450960635e-07</v>
+        <v>1.949994036100192e-06</v>
       </c>
       <c r="L40" t="n">
-        <v>2.414116044209231e-09</v>
+        <v>5.477084184273244e-08</v>
       </c>
       <c r="M40" t="n">
-        <v>1.718193308413815e-11</v>
+        <v>1.106764076181107e-12</v>
       </c>
       <c r="N40" t="n">
-        <v>2.356894266282999e-06</v>
+        <v>0.0003715775922000636</v>
       </c>
       <c r="O40" t="n">
-        <v>8.168072115378491e-13</v>
+        <v>3.806063648179579e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>1.66339677858413e-12</v>
+        <v>4.229049661232776e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.332892348620049e-06</v>
+        <v>2.020522751084953e-06</v>
       </c>
       <c r="R40" t="n">
-        <v>0.01966364575987869</v>
+        <v>0.0003275840115693816</v>
       </c>
       <c r="S40" t="n">
-        <v>1.039185280297105e-06</v>
+        <v>7.842057503081874e-07</v>
       </c>
       <c r="T40" t="n">
-        <v>0.945112636342516</v>
+        <v>0.8838580874471546</v>
       </c>
       <c r="U40" t="n">
-        <v>0.945112636342516</v>
+        <v>0.8838580874471546</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3557,145 +3557,145 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39245.fa</t>
+          <t>even_MAG-GUT37542.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.04749454458533565</v>
+        <v>9.408468119136957e-06</v>
       </c>
       <c r="C41" t="n">
-        <v>4.038241654555491e-11</v>
+        <v>6.248749061543603e-09</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0004259730605102802</v>
+        <v>3.682538977615816e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>1.461286847009445e-05</v>
+        <v>0.6280481229267822</v>
       </c>
       <c r="F41" t="n">
-        <v>1.036378382740605e-05</v>
+        <v>0.00975565838770644</v>
       </c>
       <c r="G41" t="n">
-        <v>3.64726979566304e-11</v>
+        <v>1.090153436520008e-09</v>
       </c>
       <c r="H41" t="n">
-        <v>2.565170128274384e-05</v>
+        <v>1.217310198578885e-08</v>
       </c>
       <c r="I41" t="n">
-        <v>5.425058564490365e-05</v>
+        <v>2.617212601519899e-06</v>
       </c>
       <c r="J41" t="n">
-        <v>5.038050346432644e-05</v>
+        <v>1.211246913545604e-06</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0001592575082514082</v>
+        <v>3.642548183797529e-07</v>
       </c>
       <c r="L41" t="n">
-        <v>3.7545366649866e-07</v>
+        <v>8.660338069807713e-07</v>
       </c>
       <c r="M41" t="n">
-        <v>0.9016264511120283</v>
+        <v>1.05669143346069e-11</v>
       </c>
       <c r="N41" t="n">
-        <v>3.009434465617783e-05</v>
+        <v>0.000148581878787129</v>
       </c>
       <c r="O41" t="n">
-        <v>0.002360474875889659</v>
+        <v>1.097340884521255e-12</v>
       </c>
       <c r="P41" t="n">
-        <v>2.595392271114811e-07</v>
+        <v>1.556518791111499e-13</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.298252237415698e-05</v>
+        <v>3.269597497549321e-05</v>
       </c>
       <c r="R41" t="n">
-        <v>0.04759659652678824</v>
+        <v>0.0001901348487283563</v>
       </c>
       <c r="S41" t="n">
-        <v>6.897482813873335e-05</v>
+        <v>4.347488055248418e-07</v>
       </c>
       <c r="T41" t="n">
-        <v>4.875612358912404e-05</v>
+        <v>0.3618095162402332</v>
       </c>
       <c r="U41" t="n">
-        <v>0.9016264511120283</v>
+        <v>0.6280481229267822</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__CAG-724</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__CAG-724</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39373.fa</t>
+          <t>even_MAG-GUT37950.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.943391773826287e-07</v>
+        <v>1.672080937418793e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>5.923934821618994e-08</v>
+        <v>2.116501088116314e-07</v>
       </c>
       <c r="D42" t="n">
-        <v>6.3347503277235e-07</v>
+        <v>2.549602826009023e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02967389596277181</v>
+        <v>0.1730602677454529</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0002795446282882644</v>
+        <v>0.0002453213098546323</v>
       </c>
       <c r="G42" t="n">
-        <v>4.992814734705905e-12</v>
+        <v>4.642894990073699e-11</v>
       </c>
       <c r="H42" t="n">
-        <v>2.236206561722024e-05</v>
+        <v>1.542792643491227e-07</v>
       </c>
       <c r="I42" t="n">
-        <v>7.060486356559504e-05</v>
+        <v>6.32795068085319e-06</v>
       </c>
       <c r="J42" t="n">
-        <v>4.288501127200469e-09</v>
+        <v>4.762114675324539e-07</v>
       </c>
       <c r="K42" t="n">
-        <v>1.45810212641858e-08</v>
+        <v>1.502337010784878e-06</v>
       </c>
       <c r="L42" t="n">
-        <v>3.142902942067189e-08</v>
+        <v>2.150376071016003e-08</v>
       </c>
       <c r="M42" t="n">
-        <v>1.163510498537947e-12</v>
+        <v>7.014180762955459e-12</v>
       </c>
       <c r="N42" t="n">
-        <v>3.436250017439128e-06</v>
+        <v>0.0006114638696755216</v>
       </c>
       <c r="O42" t="n">
-        <v>2.332459145688719e-13</v>
+        <v>5.556708429743987e-13</v>
       </c>
       <c r="P42" t="n">
-        <v>4.027630624701256e-12</v>
+        <v>6.808717010418689e-13</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.991710676853344e-05</v>
+        <v>4.418743398460593e-06</v>
       </c>
       <c r="R42" t="n">
-        <v>0.05750530490144997</v>
+        <v>0.001020959114195369</v>
       </c>
       <c r="S42" t="n">
-        <v>4.946523744940071e-06</v>
+        <v>5.098128684693226e-07</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9124090503352488</v>
+        <v>0.8250441437338185</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9124090503352488</v>
+        <v>0.8250441437338185</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -3711,68 +3711,68 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40251.fa</t>
+          <t>even_MAG-GUT39078.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.128424801856889e-06</v>
+        <v>1.736676350756768e-07</v>
       </c>
       <c r="C43" t="n">
-        <v>1.619485948599067e-07</v>
+        <v>3.449962554088778e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>1.046670771861922e-06</v>
+        <v>4.8079285409402e-07</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3306681268447361</v>
+        <v>0.03516896403959287</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0006899500011889125</v>
+        <v>3.653865064435206e-05</v>
       </c>
       <c r="G43" t="n">
-        <v>5.933203010830033e-10</v>
+        <v>7.477521369368032e-12</v>
       </c>
       <c r="H43" t="n">
-        <v>4.433397435189731e-08</v>
+        <v>1.035495856395784e-06</v>
       </c>
       <c r="I43" t="n">
-        <v>4.674929526353734e-06</v>
+        <v>4.258052581337171e-06</v>
       </c>
       <c r="J43" t="n">
-        <v>1.583595492965027e-05</v>
+        <v>3.766278975153764e-08</v>
       </c>
       <c r="K43" t="n">
-        <v>1.810985794349138e-05</v>
+        <v>1.531262450960635e-07</v>
       </c>
       <c r="L43" t="n">
-        <v>2.258200595359608e-07</v>
+        <v>2.414116044209231e-09</v>
       </c>
       <c r="M43" t="n">
-        <v>1.136893529036134e-11</v>
+        <v>1.718193308413815e-11</v>
       </c>
       <c r="N43" t="n">
-        <v>0.009892860399241518</v>
+        <v>2.356894266282999e-06</v>
       </c>
       <c r="O43" t="n">
-        <v>2.889343388221328e-12</v>
+        <v>8.168072115378491e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>9.71558716161466e-12</v>
+        <v>1.66339677858413e-12</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.476647627197608e-07</v>
+        <v>8.332892348620049e-06</v>
       </c>
       <c r="R43" t="n">
-        <v>3.195246555610925e-05</v>
+        <v>0.01966364575987869</v>
       </c>
       <c r="S43" t="n">
-        <v>3.548515510782729e-07</v>
+        <v>1.039185280297105e-06</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6586682792150674</v>
+        <v>0.945112636342516</v>
       </c>
       <c r="U43" t="n">
-        <v>0.6586682792150674</v>
+        <v>0.945112636342516</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -3788,145 +3788,145 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40620.fa</t>
+          <t>even_MAG-GUT39245.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.522001318356214e-07</v>
+        <v>0.04749454458533565</v>
       </c>
       <c r="C44" t="n">
-        <v>6.523927348206965e-08</v>
+        <v>4.038241654555491e-11</v>
       </c>
       <c r="D44" t="n">
-        <v>3.475334856376207e-06</v>
+        <v>0.0004259730605102802</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0109810719129675</v>
+        <v>1.461286847009445e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>1.355111477824708e-05</v>
+        <v>1.036378382740605e-05</v>
       </c>
       <c r="G44" t="n">
-        <v>1.369353008741754e-12</v>
+        <v>3.64726979566304e-11</v>
       </c>
       <c r="H44" t="n">
-        <v>3.594104915051241e-05</v>
+        <v>2.565170128274384e-05</v>
       </c>
       <c r="I44" t="n">
-        <v>1.606968130117542e-05</v>
+        <v>5.425058564490365e-05</v>
       </c>
       <c r="J44" t="n">
-        <v>4.027139150365865e-07</v>
+        <v>5.038050346432644e-05</v>
       </c>
       <c r="K44" t="n">
-        <v>2.0243508638717e-06</v>
+        <v>0.0001592575082514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1.932923246052646e-09</v>
+        <v>3.7545366649866e-07</v>
       </c>
       <c r="M44" t="n">
-        <v>1.049261214634498e-10</v>
+        <v>0.9016264511120283</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0003226539067612252</v>
+        <v>3.009434465617783e-05</v>
       </c>
       <c r="O44" t="n">
-        <v>1.182138787008404e-13</v>
+        <v>0.002360474875889659</v>
       </c>
       <c r="P44" t="n">
-        <v>3.002874435090156e-11</v>
+        <v>2.595392271114811e-07</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.123065759687356e-06</v>
+        <v>3.298252237415698e-05</v>
       </c>
       <c r="R44" t="n">
-        <v>0.03113741571816482</v>
+        <v>0.04759659652678824</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0001176701503435534</v>
+        <v>6.897482813873335e-05</v>
       </c>
       <c r="T44" t="n">
-        <v>0.9573680814923671</v>
+        <v>4.875612358912404e-05</v>
       </c>
       <c r="U44" t="n">
-        <v>0.9573680814923671</v>
+        <v>0.9016264511120283</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1696</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1696</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40941.fa</t>
+          <t>even_MAG-GUT39373.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9.920109937477399e-06</v>
+        <v>1.943391773826287e-07</v>
       </c>
       <c r="C45" t="n">
-        <v>2.170672523302866e-08</v>
+        <v>5.923934821618994e-08</v>
       </c>
       <c r="D45" t="n">
-        <v>4.176135400986563e-07</v>
+        <v>6.3347503277235e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3293664326155581</v>
+        <v>0.02967389596277181</v>
       </c>
       <c r="F45" t="n">
-        <v>0.002723743316096356</v>
+        <v>0.0002795446282882644</v>
       </c>
       <c r="G45" t="n">
-        <v>5.50208069559761e-10</v>
+        <v>4.992814734705905e-12</v>
       </c>
       <c r="H45" t="n">
-        <v>4.034856885985925e-08</v>
+        <v>2.236206561722024e-05</v>
       </c>
       <c r="I45" t="n">
-        <v>2.883559061205227e-06</v>
+        <v>7.060486356559504e-05</v>
       </c>
       <c r="J45" t="n">
-        <v>1.415219582975663e-06</v>
+        <v>4.288501127200469e-09</v>
       </c>
       <c r="K45" t="n">
-        <v>1.816670122666845e-06</v>
+        <v>1.45810212641858e-08</v>
       </c>
       <c r="L45" t="n">
-        <v>3.442387825585347e-06</v>
+        <v>3.142902942067189e-08</v>
       </c>
       <c r="M45" t="n">
-        <v>3.097895329128328e-12</v>
+        <v>1.163510498537947e-12</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0008667065372593003</v>
+        <v>3.436250017439128e-06</v>
       </c>
       <c r="O45" t="n">
-        <v>1.468689069966206e-12</v>
+        <v>2.332459145688719e-13</v>
       </c>
       <c r="P45" t="n">
-        <v>7.324995457794616e-13</v>
+        <v>4.027630624701256e-12</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.314531150679429e-06</v>
+        <v>2.991710676853344e-05</v>
       </c>
       <c r="R45" t="n">
-        <v>9.24024407715631e-05</v>
+        <v>0.05750530490144997</v>
       </c>
       <c r="S45" t="n">
-        <v>1.237234103009597e-07</v>
+        <v>4.946523744940071e-06</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6669283186648823</v>
+        <v>0.9124090503352488</v>
       </c>
       <c r="U45" t="n">
-        <v>0.6669283186648823</v>
+        <v>0.9124090503352488</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -3942,68 +3942,68 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41171.fa</t>
+          <t>even_MAG-GUT40251.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.306418692141308e-06</v>
+        <v>8.128424801856889e-06</v>
       </c>
       <c r="C46" t="n">
-        <v>2.919710223223538e-08</v>
+        <v>1.619485948599067e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>5.974469567958216e-07</v>
+        <v>1.046670771861922e-06</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3934048676610554</v>
+        <v>0.3306681268447361</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004065241939788317</v>
+        <v>0.0006899500011889125</v>
       </c>
       <c r="G46" t="n">
-        <v>6.525894177352536e-10</v>
+        <v>5.933203010830033e-10</v>
       </c>
       <c r="H46" t="n">
-        <v>3.951314950285613e-09</v>
+        <v>4.433397435189731e-08</v>
       </c>
       <c r="I46" t="n">
-        <v>1.524749812874883e-06</v>
+        <v>4.674929526353734e-06</v>
       </c>
       <c r="J46" t="n">
-        <v>5.419445576444642e-07</v>
+        <v>1.583595492965027e-05</v>
       </c>
       <c r="K46" t="n">
-        <v>6.023758349409135e-07</v>
+        <v>1.810985794349138e-05</v>
       </c>
       <c r="L46" t="n">
-        <v>1.799461331907209e-06</v>
+        <v>2.258200595359608e-07</v>
       </c>
       <c r="M46" t="n">
-        <v>5.241276458115983e-13</v>
+        <v>1.136893529036134e-11</v>
       </c>
       <c r="N46" t="n">
-        <v>0.001498274053216025</v>
+        <v>0.009892860399241518</v>
       </c>
       <c r="O46" t="n">
-        <v>3.089742319764236e-13</v>
+        <v>2.889343388221328e-12</v>
       </c>
       <c r="P46" t="n">
-        <v>1.202396610002087e-13</v>
+        <v>9.71558716161466e-12</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.620873921217738e-06</v>
+        <v>2.476647627197608e-07</v>
       </c>
       <c r="R46" t="n">
-        <v>6.042445226362477e-05</v>
+        <v>3.195246555610925e-05</v>
       </c>
       <c r="S46" t="n">
-        <v>5.589645555139739e-08</v>
+        <v>3.548515510782729e-07</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6009541089241538</v>
+        <v>0.6586682792150674</v>
       </c>
       <c r="U46" t="n">
-        <v>0.6009541089241538</v>
+        <v>0.6586682792150674</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4019,68 +4019,68 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41197.fa</t>
+          <t>even_MAG-GUT40620.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8.9446253450437e-07</v>
+        <v>4.522001318356214e-07</v>
       </c>
       <c r="C47" t="n">
-        <v>5.298482036775344e-11</v>
+        <v>6.523927348206965e-08</v>
       </c>
       <c r="D47" t="n">
-        <v>2.395275327139716e-07</v>
+        <v>3.475334856376207e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1467456010937766</v>
+        <v>0.0109810719129675</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0001633357051057701</v>
+        <v>1.355111477824708e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>2.080370461553995e-11</v>
+        <v>1.369353008741754e-12</v>
       </c>
       <c r="H47" t="n">
-        <v>8.84856384973417e-09</v>
+        <v>3.594104915051241e-05</v>
       </c>
       <c r="I47" t="n">
-        <v>6.65021341630828e-07</v>
+        <v>1.606968130117542e-05</v>
       </c>
       <c r="J47" t="n">
-        <v>8.790438983374648e-09</v>
+        <v>4.027139150365865e-07</v>
       </c>
       <c r="K47" t="n">
-        <v>1.951105844143979e-07</v>
+        <v>2.0243508638717e-06</v>
       </c>
       <c r="L47" t="n">
-        <v>1.574537994306143e-07</v>
+        <v>1.932923246052646e-09</v>
       </c>
       <c r="M47" t="n">
-        <v>2.21973580661651e-14</v>
+        <v>1.049261214634498e-10</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0004616134257555123</v>
+        <v>0.0003226539067612252</v>
       </c>
       <c r="O47" t="n">
-        <v>2.21973580661651e-14</v>
+        <v>1.182138787008404e-13</v>
       </c>
       <c r="P47" t="n">
-        <v>1.326112174054501e-13</v>
+        <v>3.002874435090156e-11</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.354877358347755e-07</v>
+        <v>1.123065759687356e-06</v>
       </c>
       <c r="R47" t="n">
-        <v>1.005101653444822e-06</v>
+        <v>0.03113741571816482</v>
       </c>
       <c r="S47" t="n">
-        <v>1.539801448837517e-10</v>
+        <v>0.0001176701503435534</v>
       </c>
       <c r="T47" t="n">
-        <v>0.8526260397432316</v>
+        <v>0.9573680814923671</v>
       </c>
       <c r="U47" t="n">
-        <v>0.8526260397432316</v>
+        <v>0.9573680814923671</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4096,68 +4096,68 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41616.fa</t>
+          <t>even_MAG-GUT40941.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3.588567251807876e-08</v>
+        <v>9.920109937477399e-06</v>
       </c>
       <c r="C48" t="n">
-        <v>2.925333156146415e-08</v>
+        <v>2.170672523302866e-08</v>
       </c>
       <c r="D48" t="n">
-        <v>6.535315053721588e-07</v>
+        <v>4.176135400986563e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>0.04428775326328837</v>
+        <v>0.3293664326155581</v>
       </c>
       <c r="F48" t="n">
-        <v>1.266526057094063e-05</v>
+        <v>0.002723743316096356</v>
       </c>
       <c r="G48" t="n">
-        <v>2.026614157245857e-12</v>
+        <v>5.50208069559761e-10</v>
       </c>
       <c r="H48" t="n">
-        <v>8.3133689436853e-07</v>
+        <v>4.034856885985925e-08</v>
       </c>
       <c r="I48" t="n">
-        <v>4.562578132267853e-06</v>
+        <v>2.883559061205227e-06</v>
       </c>
       <c r="J48" t="n">
-        <v>6.834272279911447e-09</v>
+        <v>1.415219582975663e-06</v>
       </c>
       <c r="K48" t="n">
-        <v>1.608873754187602e-07</v>
+        <v>1.816670122666845e-06</v>
       </c>
       <c r="L48" t="n">
-        <v>7.960286695490178e-10</v>
+        <v>3.442387825585347e-06</v>
       </c>
       <c r="M48" t="n">
-        <v>3.907605035952956e-13</v>
+        <v>3.097895329128328e-12</v>
       </c>
       <c r="N48" t="n">
-        <v>2.562066500739548e-05</v>
+        <v>0.0008667065372593003</v>
       </c>
       <c r="O48" t="n">
-        <v>2.282878764990734e-14</v>
+        <v>1.468689069966206e-12</v>
       </c>
       <c r="P48" t="n">
-        <v>3.614523499994645e-13</v>
+        <v>7.324995457794616e-13</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.216452150542477e-06</v>
+        <v>2.314531150679429e-06</v>
       </c>
       <c r="R48" t="n">
-        <v>0.002167666960413153</v>
+        <v>9.24024407715631e-05</v>
       </c>
       <c r="S48" t="n">
-        <v>6.351719549518831e-07</v>
+        <v>1.237234103009597e-07</v>
       </c>
       <c r="T48" t="n">
-        <v>0.9534971611206006</v>
+        <v>0.6669283186648823</v>
       </c>
       <c r="U48" t="n">
-        <v>0.9534971611206006</v>
+        <v>0.6669283186648823</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4173,222 +4173,222 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41956.fa</t>
+          <t>even_MAG-GUT41171.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9.230266518744495e-05</v>
+        <v>5.306418692141308e-06</v>
       </c>
       <c r="C49" t="n">
-        <v>5.067119561615041e-06</v>
+        <v>2.919710223223538e-08</v>
       </c>
       <c r="D49" t="n">
-        <v>3.814987170900473e-09</v>
+        <v>5.974469567958216e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01109307969420749</v>
+        <v>0.3934048676610554</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9867612273596533</v>
+        <v>0.004065241939788317</v>
       </c>
       <c r="G49" t="n">
-        <v>7.649351812421279e-07</v>
+        <v>6.525894177352536e-10</v>
       </c>
       <c r="H49" t="n">
-        <v>5.741338644856998e-06</v>
+        <v>3.951314950285613e-09</v>
       </c>
       <c r="I49" t="n">
-        <v>1.244660463326311e-05</v>
+        <v>1.524749812874883e-06</v>
       </c>
       <c r="J49" t="n">
-        <v>6.705293902636383e-07</v>
+        <v>5.419445576444642e-07</v>
       </c>
       <c r="K49" t="n">
-        <v>3.596021764687453e-07</v>
+        <v>6.023758349409135e-07</v>
       </c>
       <c r="L49" t="n">
-        <v>0.001172144317387339</v>
+        <v>1.799461331907209e-06</v>
       </c>
       <c r="M49" t="n">
-        <v>1.49116635995548e-12</v>
+        <v>5.241276458115983e-13</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0007599315801821809</v>
+        <v>0.001498274053216025</v>
       </c>
       <c r="O49" t="n">
-        <v>2.962312113697431e-12</v>
+        <v>3.089742319764236e-13</v>
       </c>
       <c r="P49" t="n">
-        <v>4.014152313817977e-10</v>
+        <v>1.202396610002087e-13</v>
       </c>
       <c r="Q49" t="n">
-        <v>8.531348606703026e-06</v>
+        <v>6.620873921217738e-06</v>
       </c>
       <c r="R49" t="n">
-        <v>1.20020266815185e-08</v>
+        <v>6.042445226362477e-05</v>
       </c>
       <c r="S49" t="n">
-        <v>9.553640870391286e-08</v>
+        <v>5.589645555139739e-08</v>
       </c>
       <c r="T49" t="n">
-        <v>8.762114589629855e-05</v>
+        <v>0.6009541089241538</v>
       </c>
       <c r="U49" t="n">
-        <v>0.9867612273596533</v>
+        <v>0.6009541089241538</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>g__CAG-841</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>g__CAG-841</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42163.fa</t>
+          <t>even_MAG-GUT41197.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.090100856140507e-05</v>
+        <v>8.9446253450437e-07</v>
       </c>
       <c r="C50" t="n">
-        <v>5.465906543856191e-07</v>
+        <v>5.298482036775344e-11</v>
       </c>
       <c r="D50" t="n">
-        <v>5.259466605640887e-07</v>
+        <v>2.395275327139716e-07</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5263676309694599</v>
+        <v>0.1467456010937766</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007839010157017162</v>
+        <v>0.0001633357051057701</v>
       </c>
       <c r="G50" t="n">
-        <v>1.799911785380076e-09</v>
+        <v>2.080370461553995e-11</v>
       </c>
       <c r="H50" t="n">
-        <v>5.215107168944267e-08</v>
+        <v>8.84856384973417e-09</v>
       </c>
       <c r="I50" t="n">
-        <v>5.509149611590575e-06</v>
+        <v>6.65021341630828e-07</v>
       </c>
       <c r="J50" t="n">
-        <v>3.300822000408712e-05</v>
+        <v>8.790438983374648e-09</v>
       </c>
       <c r="K50" t="n">
-        <v>2.359953295360564e-06</v>
+        <v>1.951105844143979e-07</v>
       </c>
       <c r="L50" t="n">
-        <v>1.690809362775423e-07</v>
+        <v>1.574537994306143e-07</v>
       </c>
       <c r="M50" t="n">
-        <v>8.239232752000675e-11</v>
+        <v>2.21973580661651e-14</v>
       </c>
       <c r="N50" t="n">
-        <v>0.001359988156355081</v>
+        <v>0.0004616134257555123</v>
       </c>
       <c r="O50" t="n">
-        <v>9.424742688884244e-12</v>
+        <v>2.21973580661651e-14</v>
       </c>
       <c r="P50" t="n">
-        <v>2.155969841543497e-12</v>
+        <v>1.326112174054501e-13</v>
       </c>
       <c r="Q50" t="n">
-        <v>3.201630101770633e-06</v>
+        <v>2.354877358347755e-07</v>
       </c>
       <c r="R50" t="n">
-        <v>9.253996786663942e-05</v>
+        <v>1.005101653444822e-06</v>
       </c>
       <c r="S50" t="n">
-        <v>4.569291596836447e-07</v>
+        <v>1.539801448837517e-10</v>
       </c>
       <c r="T50" t="n">
-        <v>0.4642540981953595</v>
+        <v>0.8526260397432316</v>
       </c>
       <c r="U50" t="n">
-        <v>0.5263676309694599</v>
+        <v>0.8526260397432316</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42317.fa</t>
+          <t>even_MAG-GUT41616.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8.959990180691218e-06</v>
+        <v>3.588567251807876e-08</v>
       </c>
       <c r="C51" t="n">
-        <v>4.991910925648067e-08</v>
+        <v>2.925333156146415e-08</v>
       </c>
       <c r="D51" t="n">
-        <v>3.959454678671906e-08</v>
+        <v>6.535315053721588e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>0.216795115981021</v>
+        <v>0.04428775326328837</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00181045731770268</v>
+        <v>1.266526057094063e-05</v>
       </c>
       <c r="G51" t="n">
-        <v>9.659950188333419e-10</v>
+        <v>2.026614157245857e-12</v>
       </c>
       <c r="H51" t="n">
-        <v>5.144674268153432e-08</v>
+        <v>8.3133689436853e-07</v>
       </c>
       <c r="I51" t="n">
-        <v>7.252160555543069e-07</v>
+        <v>4.562578132267853e-06</v>
       </c>
       <c r="J51" t="n">
-        <v>1.310656924436524e-06</v>
+        <v>6.834272279911447e-09</v>
       </c>
       <c r="K51" t="n">
-        <v>1.240797807976178e-07</v>
+        <v>1.608873754187602e-07</v>
       </c>
       <c r="L51" t="n">
-        <v>3.296164686296007e-07</v>
+        <v>7.960286695490178e-10</v>
       </c>
       <c r="M51" t="n">
-        <v>2.218217025399394e-13</v>
+        <v>3.907605035952956e-13</v>
       </c>
       <c r="N51" t="n">
-        <v>9.881665935334163e-05</v>
+        <v>2.562066500739548e-05</v>
       </c>
       <c r="O51" t="n">
-        <v>6.494753027796205e-14</v>
+        <v>2.282878764990734e-14</v>
       </c>
       <c r="P51" t="n">
-        <v>3.144539805334907e-14</v>
+        <v>3.614523499994645e-13</v>
       </c>
       <c r="Q51" t="n">
-        <v>3.350369644830738e-06</v>
+        <v>2.216452150542477e-06</v>
       </c>
       <c r="R51" t="n">
-        <v>5.024453231477856e-06</v>
+        <v>0.002167666960413153</v>
       </c>
       <c r="S51" t="n">
-        <v>4.979056565500065e-08</v>
+        <v>6.351719549518831e-07</v>
       </c>
       <c r="T51" t="n">
-        <v>0.781275593942359</v>
+        <v>0.9534971611206006</v>
       </c>
       <c r="U51" t="n">
-        <v>0.781275593942359</v>
+        <v>0.9534971611206006</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4404,222 +4404,222 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42455.fa</t>
+          <t>even_MAG-GUT41956.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.128929805478182e-07</v>
+        <v>9.230266518744495e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>2.692820902714561e-09</v>
+        <v>5.067119561615041e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>4.193471573678697e-07</v>
+        <v>3.814987170900473e-09</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1692256418631115</v>
+        <v>0.01109307969420749</v>
       </c>
       <c r="F52" t="n">
-        <v>3.41584670215427e-05</v>
+        <v>0.9867612273596533</v>
       </c>
       <c r="G52" t="n">
-        <v>1.687627473626573e-11</v>
+        <v>7.649351812421279e-07</v>
       </c>
       <c r="H52" t="n">
-        <v>1.241009812877144e-08</v>
+        <v>5.741338644856998e-06</v>
       </c>
       <c r="I52" t="n">
-        <v>1.287549465222482e-06</v>
+        <v>1.244660463326311e-05</v>
       </c>
       <c r="J52" t="n">
-        <v>3.687112778979768e-08</v>
+        <v>6.705293902636383e-07</v>
       </c>
       <c r="K52" t="n">
-        <v>1.020008689051082e-06</v>
+        <v>3.596021764687453e-07</v>
       </c>
       <c r="L52" t="n">
-        <v>3.977227041866256e-08</v>
+        <v>0.001172144317387339</v>
       </c>
       <c r="M52" t="n">
-        <v>1.521579075694867e-13</v>
+        <v>1.49116635995548e-12</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0003404520432697152</v>
+        <v>0.0007599315801821809</v>
       </c>
       <c r="O52" t="n">
-        <v>1.051219612148611e-13</v>
+        <v>2.962312113697431e-12</v>
       </c>
       <c r="P52" t="n">
-        <v>9.544473649738208e-14</v>
+        <v>4.014152313817977e-10</v>
       </c>
       <c r="Q52" t="n">
-        <v>7.303285590717504e-07</v>
+        <v>8.531348606703026e-06</v>
       </c>
       <c r="R52" t="n">
-        <v>3.131527130128251e-05</v>
+        <v>1.20020266815185e-08</v>
       </c>
       <c r="S52" t="n">
-        <v>1.029596393539327e-07</v>
+        <v>9.553640870391286e-08</v>
       </c>
       <c r="T52" t="n">
-        <v>0.830364567505259</v>
+        <v>8.762114589629855e-05</v>
       </c>
       <c r="U52" t="n">
-        <v>0.830364567505259</v>
+        <v>0.9867612273596533</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-841</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-841</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42654.fa</t>
+          <t>even_MAG-GUT42163.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.643331435022091e-07</v>
+        <v>4.090100856140507e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>1.066107271121354e-06</v>
+        <v>5.465906543856191e-07</v>
       </c>
       <c r="D53" t="n">
-        <v>9.281752587593876e-07</v>
+        <v>5.259466605640887e-07</v>
       </c>
       <c r="E53" t="n">
-        <v>0.00564313863570844</v>
+        <v>0.5263676309694599</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0001308353877031205</v>
+        <v>0.007839010157017162</v>
       </c>
       <c r="G53" t="n">
-        <v>5.330100829966199e-12</v>
+        <v>1.799911785380076e-09</v>
       </c>
       <c r="H53" t="n">
-        <v>6.431644507753387e-06</v>
+        <v>5.215107168944267e-08</v>
       </c>
       <c r="I53" t="n">
-        <v>5.778465893226565e-05</v>
+        <v>5.509149611590575e-06</v>
       </c>
       <c r="J53" t="n">
-        <v>3.482871207037467e-08</v>
+        <v>3.300822000408712e-05</v>
       </c>
       <c r="K53" t="n">
-        <v>6.607773642609934e-08</v>
+        <v>2.359953295360564e-06</v>
       </c>
       <c r="L53" t="n">
-        <v>1.122525035608045e-08</v>
+        <v>1.690809362775423e-07</v>
       </c>
       <c r="M53" t="n">
-        <v>3.001330037373582e-11</v>
+        <v>8.239232752000675e-11</v>
       </c>
       <c r="N53" t="n">
-        <v>5.540323772014028e-05</v>
+        <v>0.001359988156355081</v>
       </c>
       <c r="O53" t="n">
-        <v>1.554414028379166e-12</v>
+        <v>9.424742688884244e-12</v>
       </c>
       <c r="P53" t="n">
-        <v>3.534570872747413e-11</v>
+        <v>2.155969841543497e-12</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.368797463952754e-05</v>
+        <v>3.201630101770633e-06</v>
       </c>
       <c r="R53" t="n">
-        <v>0.292454030332609</v>
+        <v>9.253996786663942e-05</v>
       </c>
       <c r="S53" t="n">
-        <v>0.001696507494481822</v>
+        <v>4.569291596836447e-07</v>
       </c>
       <c r="T53" t="n">
-        <v>0.6999397098140822</v>
+        <v>0.4642540981953595</v>
       </c>
       <c r="U53" t="n">
-        <v>0.6999397098140822</v>
+        <v>0.5263676309694599</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-724</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-724</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42829.fa</t>
+          <t>even_MAG-GUT42317.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.75907791028685e-05</v>
+        <v>8.959990180691218e-06</v>
       </c>
       <c r="C54" t="n">
-        <v>9.039691188555165e-05</v>
+        <v>4.991910925648067e-08</v>
       </c>
       <c r="D54" t="n">
-        <v>3.284472480725307e-05</v>
+        <v>3.959454678671906e-08</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09687534089803328</v>
+        <v>0.216795115981021</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0003740437281434687</v>
+        <v>0.00181045731770268</v>
       </c>
       <c r="G54" t="n">
-        <v>9.388787355479044e-11</v>
+        <v>9.659950188333419e-10</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0001289385010227982</v>
+        <v>5.144674268153432e-08</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0002291564794726675</v>
+        <v>7.252160555543069e-07</v>
       </c>
       <c r="J54" t="n">
-        <v>2.575151172428724e-06</v>
+        <v>1.310656924436524e-06</v>
       </c>
       <c r="K54" t="n">
-        <v>7.952110223206541e-05</v>
+        <v>1.240797807976178e-07</v>
       </c>
       <c r="L54" t="n">
-        <v>2.327590128401949e-07</v>
+        <v>3.296164686296007e-07</v>
       </c>
       <c r="M54" t="n">
-        <v>6.669984681690853e-10</v>
+        <v>2.218217025399394e-13</v>
       </c>
       <c r="N54" t="n">
-        <v>0.003833512653225961</v>
+        <v>9.881665935334163e-05</v>
       </c>
       <c r="O54" t="n">
-        <v>4.90162546163102e-10</v>
+        <v>6.494753027796205e-14</v>
       </c>
       <c r="P54" t="n">
-        <v>1.056757017658507e-09</v>
+        <v>3.144539805334907e-14</v>
       </c>
       <c r="Q54" t="n">
-        <v>6.403748325248798e-06</v>
+        <v>3.350369644830738e-06</v>
       </c>
       <c r="R54" t="n">
-        <v>0.01626126974116172</v>
+        <v>5.024453231477856e-06</v>
       </c>
       <c r="S54" t="n">
-        <v>0.001623328157482569</v>
+        <v>4.979056565500065e-08</v>
       </c>
       <c r="T54" t="n">
-        <v>0.8804348423571134</v>
+        <v>0.781275593942359</v>
       </c>
       <c r="U54" t="n">
-        <v>0.8804348423571134</v>
+        <v>0.781275593942359</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -4635,68 +4635,68 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45058.fa</t>
+          <t>even_MAG-GUT42455.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.607644896645492e-08</v>
+        <v>2.128929805478182e-07</v>
       </c>
       <c r="C55" t="n">
-        <v>4.522070812567716e-08</v>
+        <v>2.692820902714561e-09</v>
       </c>
       <c r="D55" t="n">
-        <v>7.784521344058092e-07</v>
+        <v>4.193471573678697e-07</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1001331194463869</v>
+        <v>0.1692256418631115</v>
       </c>
       <c r="F55" t="n">
-        <v>5.139718541767978e-05</v>
+        <v>3.41584670215427e-05</v>
       </c>
       <c r="G55" t="n">
-        <v>5.392324946065546e-12</v>
+        <v>1.687627473626573e-11</v>
       </c>
       <c r="H55" t="n">
-        <v>4.347882768297335e-07</v>
+        <v>1.241009812877144e-08</v>
       </c>
       <c r="I55" t="n">
-        <v>1.105566093350825e-05</v>
+        <v>1.287549465222482e-06</v>
       </c>
       <c r="J55" t="n">
-        <v>9.031366576393005e-10</v>
+        <v>3.687112778979768e-08</v>
       </c>
       <c r="K55" t="n">
-        <v>2.638336113946889e-08</v>
+        <v>1.020008689051082e-06</v>
       </c>
       <c r="L55" t="n">
-        <v>2.441487444372544e-09</v>
+        <v>3.977227041866256e-08</v>
       </c>
       <c r="M55" t="n">
-        <v>6.536951010735317e-14</v>
+        <v>1.521579075694867e-13</v>
       </c>
       <c r="N55" t="n">
-        <v>3.55121683718109e-06</v>
+        <v>0.0003404520432697152</v>
       </c>
       <c r="O55" t="n">
-        <v>6.536951010731231e-14</v>
+        <v>1.051219612148611e-13</v>
       </c>
       <c r="P55" t="n">
-        <v>1.862524821811998e-13</v>
+        <v>9.544473649738208e-14</v>
       </c>
       <c r="Q55" t="n">
-        <v>7.416753201768824e-06</v>
+        <v>7.303285590717504e-07</v>
       </c>
       <c r="R55" t="n">
-        <v>0.001744574702998578</v>
+        <v>3.131527130128251e-05</v>
       </c>
       <c r="S55" t="n">
-        <v>4.887169010153612e-07</v>
+        <v>1.029596393539327e-07</v>
       </c>
       <c r="T55" t="n">
-        <v>0.8980470620460606</v>
+        <v>0.830364567505259</v>
       </c>
       <c r="U55" t="n">
-        <v>0.8980470620460606</v>
+        <v>0.830364567505259</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -4712,145 +4712,145 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45894.fa</t>
+          <t>even_MAG-GUT42654.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.155720479944991e-05</v>
+        <v>3.643331435022091e-07</v>
       </c>
       <c r="C56" t="n">
-        <v>3.899546349012329e-09</v>
+        <v>1.066107271121354e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>1.089413148078538e-06</v>
+        <v>9.281752587593876e-07</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6235574686461595</v>
+        <v>0.00564313863570844</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001021383881395527</v>
+        <v>0.0001308353877031205</v>
       </c>
       <c r="G56" t="n">
-        <v>5.446075411346914e-10</v>
+        <v>5.330100829966199e-12</v>
       </c>
       <c r="H56" t="n">
-        <v>1.347408990952878e-08</v>
+        <v>6.431644507753387e-06</v>
       </c>
       <c r="I56" t="n">
-        <v>6.165708403672637e-06</v>
+        <v>5.778465893226565e-05</v>
       </c>
       <c r="J56" t="n">
-        <v>1.774441626881866e-06</v>
+        <v>3.482871207037467e-08</v>
       </c>
       <c r="K56" t="n">
-        <v>1.805180951745556e-06</v>
+        <v>6.607773642609934e-08</v>
       </c>
       <c r="L56" t="n">
-        <v>9.473853178809481e-06</v>
+        <v>1.122525035608045e-08</v>
       </c>
       <c r="M56" t="n">
-        <v>5.691174515753822e-11</v>
+        <v>3.001330037373582e-11</v>
       </c>
       <c r="N56" t="n">
-        <v>0.001627657016742282</v>
+        <v>5.540323772014028e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>1.49890787476696e-12</v>
+        <v>1.554414028379166e-12</v>
       </c>
       <c r="P56" t="n">
-        <v>7.614546553728149e-13</v>
+        <v>3.534570872747413e-11</v>
       </c>
       <c r="Q56" t="n">
-        <v>8.636395403655783e-06</v>
+        <v>1.368797463952754e-05</v>
       </c>
       <c r="R56" t="n">
-        <v>0.0001489350911988945</v>
+        <v>0.292454030332609</v>
       </c>
       <c r="S56" t="n">
-        <v>5.11758855125469e-08</v>
+        <v>0.001696507494481822</v>
       </c>
       <c r="T56" t="n">
-        <v>0.3735839840136902</v>
+        <v>0.6999397098140822</v>
       </c>
       <c r="U56" t="n">
-        <v>0.6235574686461595</v>
+        <v>0.6999397098140822</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4602.fa</t>
+          <t>even_MAG-GUT42829.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.14556603420499e-07</v>
+        <v>2.75907791028685e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>1.944261422263762e-07</v>
+        <v>9.039691188555165e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>5.206223074911374e-07</v>
+        <v>3.284472480725307e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01654622000971814</v>
+        <v>0.09687534089803328</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0004219273052270702</v>
+        <v>0.0003740437281434687</v>
       </c>
       <c r="G57" t="n">
-        <v>4.744919729416679e-11</v>
+        <v>9.388787355479044e-11</v>
       </c>
       <c r="H57" t="n">
-        <v>4.367825892211278e-06</v>
+        <v>0.0001289385010227982</v>
       </c>
       <c r="I57" t="n">
-        <v>3.170718093112158e-06</v>
+        <v>0.0002291564794726675</v>
       </c>
       <c r="J57" t="n">
-        <v>1.01440689025752e-07</v>
+        <v>2.575151172428724e-06</v>
       </c>
       <c r="K57" t="n">
-        <v>6.293660583899395e-06</v>
+        <v>7.952110223206541e-05</v>
       </c>
       <c r="L57" t="n">
-        <v>1.822487984591217e-09</v>
+        <v>2.327590128401949e-07</v>
       </c>
       <c r="M57" t="n">
-        <v>2.352390028887652e-13</v>
+        <v>6.669984681690853e-10</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0003187004685204234</v>
+        <v>0.003833512653225961</v>
       </c>
       <c r="O57" t="n">
-        <v>2.22011206700904e-14</v>
+        <v>4.90162546163102e-10</v>
       </c>
       <c r="P57" t="n">
-        <v>1.952809453292636e-12</v>
+        <v>1.056757017658507e-09</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.184717244910903e-06</v>
+        <v>6.403748325248798e-06</v>
       </c>
       <c r="R57" t="n">
-        <v>0.0001825010040954224</v>
+        <v>0.01626126974116172</v>
       </c>
       <c r="S57" t="n">
-        <v>1.297973830004028e-07</v>
+        <v>0.001623328157482569</v>
       </c>
       <c r="T57" t="n">
-        <v>0.9825141715753523</v>
+        <v>0.8804348423571134</v>
       </c>
       <c r="U57" t="n">
-        <v>0.9825141715753523</v>
+        <v>0.8804348423571134</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -4866,376 +4866,376 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46175.fa</t>
+          <t>even_MAG-GUT45058.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.503595363840231e-05</v>
+        <v>4.607644896645492e-08</v>
       </c>
       <c r="C58" t="n">
-        <v>3.472903160580308e-07</v>
+        <v>4.522070812567716e-08</v>
       </c>
       <c r="D58" t="n">
-        <v>3.135842126775499e-07</v>
+        <v>7.784521344058092e-07</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5067432135786853</v>
+        <v>0.1001331194463869</v>
       </c>
       <c r="F58" t="n">
-        <v>0.003349848151584367</v>
+        <v>5.139718541767978e-05</v>
       </c>
       <c r="G58" t="n">
-        <v>3.292206946177814e-09</v>
+        <v>5.392324946065546e-12</v>
       </c>
       <c r="H58" t="n">
-        <v>4.513443254963034e-08</v>
+        <v>4.347882768297335e-07</v>
       </c>
       <c r="I58" t="n">
-        <v>3.75826953777665e-06</v>
+        <v>1.105566093350825e-05</v>
       </c>
       <c r="J58" t="n">
-        <v>1.904323303565754e-05</v>
+        <v>9.031366576393005e-10</v>
       </c>
       <c r="K58" t="n">
-        <v>4.849408740968733e-06</v>
+        <v>2.638336113946889e-08</v>
       </c>
       <c r="L58" t="n">
-        <v>1.21941759126212e-07</v>
+        <v>2.441487444372544e-09</v>
       </c>
       <c r="M58" t="n">
-        <v>3.264088511903912e-12</v>
+        <v>6.536951010735317e-14</v>
       </c>
       <c r="N58" t="n">
-        <v>0.001499902902636545</v>
+        <v>3.55121683718109e-06</v>
       </c>
       <c r="O58" t="n">
-        <v>8.072891279937286e-12</v>
+        <v>6.536951010731231e-14</v>
       </c>
       <c r="P58" t="n">
-        <v>1.317662382999549e-13</v>
+        <v>1.862524821811998e-13</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.263592816777853e-06</v>
+        <v>7.416753201768824e-06</v>
       </c>
       <c r="R58" t="n">
-        <v>9.188215946752709e-05</v>
+        <v>0.001744574702998578</v>
       </c>
       <c r="S58" t="n">
-        <v>1.124747874824638e-05</v>
+        <v>4.887169010153612e-07</v>
       </c>
       <c r="T58" t="n">
-        <v>0.4882581240167123</v>
+        <v>0.8980470620460606</v>
       </c>
       <c r="U58" t="n">
-        <v>0.5067432135786853</v>
+        <v>0.8980470620460606</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47410.fa</t>
+          <t>even_MAG-GUT45894.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.681632962167365e-05</v>
+        <v>3.155720479944991e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>9.856730865109717e-07</v>
+        <v>3.899546349012329e-09</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0001214374496342535</v>
+        <v>1.089413148078538e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2787774801533406</v>
+        <v>0.6235574686461595</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01571444140362111</v>
+        <v>0.001021383881395527</v>
       </c>
       <c r="G59" t="n">
-        <v>6.376994484221357e-10</v>
+        <v>5.446075411346914e-10</v>
       </c>
       <c r="H59" t="n">
-        <v>1.121747017053947e-05</v>
+        <v>1.347408990952878e-08</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0008256903178293814</v>
+        <v>6.165708403672637e-06</v>
       </c>
       <c r="J59" t="n">
-        <v>6.760455541098424e-07</v>
+        <v>1.774441626881866e-06</v>
       </c>
       <c r="K59" t="n">
-        <v>1.754074840196455e-06</v>
+        <v>1.805180951745556e-06</v>
       </c>
       <c r="L59" t="n">
-        <v>3.258903349222295e-05</v>
+        <v>9.473853178809481e-06</v>
       </c>
       <c r="M59" t="n">
-        <v>2.467481974167183e-11</v>
+        <v>5.691174515753822e-11</v>
       </c>
       <c r="N59" t="n">
-        <v>0.009305858376013009</v>
+        <v>0.001627657016742282</v>
       </c>
       <c r="O59" t="n">
-        <v>5.033847236721342e-12</v>
+        <v>1.49890787476696e-12</v>
       </c>
       <c r="P59" t="n">
-        <v>2.034105564139633e-11</v>
+        <v>7.614546553728149e-13</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.001482848723752065</v>
+        <v>8.636395403655783e-06</v>
       </c>
       <c r="R59" t="n">
-        <v>0.1086504822608391</v>
+        <v>0.0001489350911988945</v>
       </c>
       <c r="S59" t="n">
-        <v>8.296675005653387e-06</v>
+        <v>5.11758855125469e-08</v>
       </c>
       <c r="T59" t="n">
-        <v>0.5850494253254503</v>
+        <v>0.3735839840136902</v>
       </c>
       <c r="U59" t="n">
-        <v>0.5850494253254503</v>
+        <v>0.6235574686461595</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-724</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-724</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4760.fa</t>
+          <t>even_MAG-GUT4602.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.000248927432257931</v>
+        <v>5.14556603420499e-07</v>
       </c>
       <c r="C60" t="n">
-        <v>3.710573357522928e-06</v>
+        <v>1.944261422263762e-07</v>
       </c>
       <c r="D60" t="n">
-        <v>1.730036216433732e-10</v>
+        <v>5.206223074911374e-07</v>
       </c>
       <c r="E60" t="n">
-        <v>0.007702547773133642</v>
+        <v>0.01654622000971814</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9839864734279766</v>
+        <v>0.0004219273052270702</v>
       </c>
       <c r="G60" t="n">
-        <v>5.088387754628988e-07</v>
+        <v>4.744919729416679e-11</v>
       </c>
       <c r="H60" t="n">
-        <v>1.260872249752487e-07</v>
+        <v>4.367825892211278e-06</v>
       </c>
       <c r="I60" t="n">
-        <v>4.953653950888182e-06</v>
+        <v>3.170718093112158e-06</v>
       </c>
       <c r="J60" t="n">
-        <v>2.58353345102597e-07</v>
+        <v>1.01440689025752e-07</v>
       </c>
       <c r="K60" t="n">
-        <v>2.774948529066954e-07</v>
+        <v>6.293660583899395e-06</v>
       </c>
       <c r="L60" t="n">
-        <v>0.007131751524706711</v>
+        <v>1.822487984591217e-09</v>
       </c>
       <c r="M60" t="n">
-        <v>1.755691021593228e-12</v>
+        <v>2.352390028887652e-13</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0001270125273685028</v>
+        <v>0.0003187004685204234</v>
       </c>
       <c r="O60" t="n">
-        <v>5.596415020276401e-13</v>
+        <v>2.22011206700904e-14</v>
       </c>
       <c r="P60" t="n">
-        <v>5.771281275124356e-13</v>
+        <v>1.952809453292636e-12</v>
       </c>
       <c r="Q60" t="n">
-        <v>5.658065424722154e-05</v>
+        <v>1.184717244910903e-06</v>
       </c>
       <c r="R60" t="n">
-        <v>2.480701669849854e-08</v>
+        <v>0.0001825010040954224</v>
       </c>
       <c r="S60" t="n">
-        <v>1.152652001323469e-06</v>
+        <v>1.297973830004028e-07</v>
       </c>
       <c r="T60" t="n">
-        <v>0.0007356940238882744</v>
+        <v>0.9825141715753523</v>
       </c>
       <c r="U60" t="n">
-        <v>0.9839864734279766</v>
+        <v>0.9825141715753523</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>g__CAG-841</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>g__CAG-841</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47995.fa</t>
+          <t>even_MAG-GUT46175.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.373939020953904e-05</v>
+        <v>1.503595363840231e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>1.152939893620378e-06</v>
+        <v>3.472903160580308e-07</v>
       </c>
       <c r="D61" t="n">
-        <v>1.371926265697912e-06</v>
+        <v>3.135842126775499e-07</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2900535795587409</v>
+        <v>0.5067432135786853</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01208723581884669</v>
+        <v>0.003349848151584367</v>
       </c>
       <c r="G61" t="n">
-        <v>1.922464478840099e-09</v>
+        <v>3.292206946177814e-09</v>
       </c>
       <c r="H61" t="n">
-        <v>2.666549775519429e-07</v>
+        <v>4.513443254963034e-08</v>
       </c>
       <c r="I61" t="n">
-        <v>7.237164474966142e-06</v>
+        <v>3.75826953777665e-06</v>
       </c>
       <c r="J61" t="n">
-        <v>4.798606661561286e-06</v>
+        <v>1.904323303565754e-05</v>
       </c>
       <c r="K61" t="n">
-        <v>4.828020430623585e-06</v>
+        <v>4.849408740968733e-06</v>
       </c>
       <c r="L61" t="n">
-        <v>6.253011763675673e-07</v>
+        <v>1.21941759126212e-07</v>
       </c>
       <c r="M61" t="n">
-        <v>1.310998259105292e-11</v>
+        <v>3.264088511903912e-12</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0006580242117606645</v>
+        <v>0.001499902902636545</v>
       </c>
       <c r="O61" t="n">
-        <v>6.600884981506876e-12</v>
+        <v>8.072891279937286e-12</v>
       </c>
       <c r="P61" t="n">
-        <v>1.368447226268903e-12</v>
+        <v>1.317662382999549e-13</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.578529593051355e-05</v>
+        <v>2.263592816777853e-06</v>
       </c>
       <c r="R61" t="n">
-        <v>0.0002057596744025621</v>
+        <v>9.188215946752709e-05</v>
       </c>
       <c r="S61" t="n">
-        <v>8.537519973995869e-07</v>
+        <v>1.124747874824638e-05</v>
       </c>
       <c r="T61" t="n">
-        <v>0.6969247397406875</v>
+        <v>0.4882581240167123</v>
       </c>
       <c r="U61" t="n">
-        <v>0.6969247397406875</v>
+        <v>0.5067432135786853</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-724</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-724</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50522.fa</t>
+          <t>even_MAG-GUT47410.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3.106348784101733e-07</v>
+        <v>1.681632962167365e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>3.996679221110594e-09</v>
+        <v>9.856730865109717e-07</v>
       </c>
       <c r="D62" t="n">
-        <v>1.486001574789006e-06</v>
+        <v>0.0001214374496342535</v>
       </c>
       <c r="E62" t="n">
-        <v>0.01176481164464237</v>
+        <v>0.2787774801533406</v>
       </c>
       <c r="F62" t="n">
-        <v>6.698786473931405e-05</v>
+        <v>0.01571444140362111</v>
       </c>
       <c r="G62" t="n">
-        <v>1.603268587916263e-12</v>
+        <v>6.376994484221357e-10</v>
       </c>
       <c r="H62" t="n">
-        <v>9.553951214756603e-06</v>
+        <v>1.121747017053947e-05</v>
       </c>
       <c r="I62" t="n">
-        <v>5.499068174925466e-05</v>
+        <v>0.0008256903178293814</v>
       </c>
       <c r="J62" t="n">
-        <v>2.468405756305033e-08</v>
+        <v>6.760455541098424e-07</v>
       </c>
       <c r="K62" t="n">
-        <v>5.735651324436526e-08</v>
+        <v>1.754074840196455e-06</v>
       </c>
       <c r="L62" t="n">
-        <v>3.552985822800068e-08</v>
+        <v>3.258903349222295e-05</v>
       </c>
       <c r="M62" t="n">
-        <v>3.379944569467113e-12</v>
+        <v>2.467481974167183e-11</v>
       </c>
       <c r="N62" t="n">
-        <v>0.0007482615520414356</v>
+        <v>0.009305858376013009</v>
       </c>
       <c r="O62" t="n">
-        <v>9.493924971581796e-14</v>
+        <v>5.033847236721342e-12</v>
       </c>
       <c r="P62" t="n">
-        <v>2.21222993034483e-11</v>
+        <v>2.034105564139633e-11</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.489975728352325e-06</v>
+        <v>0.001482848723752065</v>
       </c>
       <c r="R62" t="n">
-        <v>0.02995807971924446</v>
+        <v>0.1086504822608391</v>
       </c>
       <c r="S62" t="n">
-        <v>9.425344062299024e-05</v>
+        <v>8.296675005653387e-06</v>
       </c>
       <c r="T62" t="n">
-        <v>0.9572986529392552</v>
+        <v>0.5850494253254503</v>
       </c>
       <c r="U62" t="n">
-        <v>0.9572986529392552</v>
+        <v>0.5850494253254503</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5251,145 +5251,145 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50532.fa</t>
+          <t>even_MAG-GUT4760.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3.106348784101733e-07</v>
+        <v>0.000248927432257931</v>
       </c>
       <c r="C63" t="n">
-        <v>3.996679221110594e-09</v>
+        <v>3.710573357522928e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>1.486001574789006e-06</v>
+        <v>1.730036216433732e-10</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01176481164464237</v>
+        <v>0.007702547773133642</v>
       </c>
       <c r="F63" t="n">
-        <v>6.698786473931405e-05</v>
+        <v>0.9839864734279766</v>
       </c>
       <c r="G63" t="n">
-        <v>1.603268587916263e-12</v>
+        <v>5.088387754628988e-07</v>
       </c>
       <c r="H63" t="n">
-        <v>9.553951214756603e-06</v>
+        <v>1.260872249752487e-07</v>
       </c>
       <c r="I63" t="n">
-        <v>5.499068174925466e-05</v>
+        <v>4.953653950888182e-06</v>
       </c>
       <c r="J63" t="n">
-        <v>2.468405756305033e-08</v>
+        <v>2.58353345102597e-07</v>
       </c>
       <c r="K63" t="n">
-        <v>5.735651324436526e-08</v>
+        <v>2.774948529066954e-07</v>
       </c>
       <c r="L63" t="n">
-        <v>3.552985822800068e-08</v>
+        <v>0.007131751524706711</v>
       </c>
       <c r="M63" t="n">
-        <v>3.379944569467113e-12</v>
+        <v>1.755691021593228e-12</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0007482615520414356</v>
+        <v>0.0001270125273685028</v>
       </c>
       <c r="O63" t="n">
-        <v>9.493924971581796e-14</v>
+        <v>5.596415020276401e-13</v>
       </c>
       <c r="P63" t="n">
-        <v>2.21222993034483e-11</v>
+        <v>5.771281275124356e-13</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.489975728352325e-06</v>
+        <v>5.658065424722154e-05</v>
       </c>
       <c r="R63" t="n">
-        <v>0.02995807971924446</v>
+        <v>2.480701669849854e-08</v>
       </c>
       <c r="S63" t="n">
-        <v>9.425344062299024e-05</v>
+        <v>1.152652001323469e-06</v>
       </c>
       <c r="T63" t="n">
-        <v>0.9572986529392552</v>
+        <v>0.0007356940238882744</v>
       </c>
       <c r="U63" t="n">
-        <v>0.9572986529392552</v>
+        <v>0.9839864734279766</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-841</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-841</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50760.fa</t>
+          <t>even_MAG-GUT47995.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.450494324290473e-07</v>
+        <v>2.373939020953904e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>8.299448775963582e-08</v>
+        <v>1.152939893620378e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>6.552943466299841e-07</v>
+        <v>1.371926265697912e-06</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01641743187699405</v>
+        <v>0.2900535795587409</v>
       </c>
       <c r="F64" t="n">
-        <v>1.434226411608106e-05</v>
+        <v>0.01208723581884669</v>
       </c>
       <c r="G64" t="n">
-        <v>9.148758511033172e-13</v>
+        <v>1.922464478840099e-09</v>
       </c>
       <c r="H64" t="n">
-        <v>6.770112748022832e-06</v>
+        <v>2.666549775519429e-07</v>
       </c>
       <c r="I64" t="n">
-        <v>4.04809414362824e-05</v>
+        <v>7.237164474966142e-06</v>
       </c>
       <c r="J64" t="n">
-        <v>8.636783854817681e-09</v>
+        <v>4.798606661561286e-06</v>
       </c>
       <c r="K64" t="n">
-        <v>4.068334968108406e-08</v>
+        <v>4.828020430623585e-06</v>
       </c>
       <c r="L64" t="n">
-        <v>2.636576703583575e-09</v>
+        <v>6.253011763675673e-07</v>
       </c>
       <c r="M64" t="n">
-        <v>1.889256462993659e-11</v>
+        <v>1.310998259105292e-11</v>
       </c>
       <c r="N64" t="n">
-        <v>2.469691978589892e-05</v>
+        <v>0.0006580242117606645</v>
       </c>
       <c r="O64" t="n">
-        <v>7.394155851437218e-14</v>
+        <v>6.600884981506876e-12</v>
       </c>
       <c r="P64" t="n">
-        <v>2.743549754457273e-11</v>
+        <v>1.368447226268903e-12</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.920893034820449e-06</v>
+        <v>2.578529593051355e-05</v>
       </c>
       <c r="R64" t="n">
-        <v>0.03211958926775964</v>
+        <v>0.0002057596744025621</v>
       </c>
       <c r="S64" t="n">
-        <v>7.456934414046928e-05</v>
+        <v>8.537519973995869e-07</v>
       </c>
       <c r="T64" t="n">
-        <v>0.9512992630376909</v>
+        <v>0.6969247397406875</v>
       </c>
       <c r="U64" t="n">
-        <v>0.9512992630376909</v>
+        <v>0.6969247397406875</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5405,68 +5405,68 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5376.fa</t>
+          <t>even_MAG-GUT50522.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.100543559650765e-06</v>
+        <v>3.106348784101733e-07</v>
       </c>
       <c r="C65" t="n">
-        <v>2.776534131392804e-08</v>
+        <v>3.996679221110594e-09</v>
       </c>
       <c r="D65" t="n">
-        <v>2.20398072815346e-07</v>
+        <v>1.486001574789006e-06</v>
       </c>
       <c r="E65" t="n">
-        <v>0.125092511828424</v>
+        <v>0.01176481164464237</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0002158198036337496</v>
+        <v>6.698786473931405e-05</v>
       </c>
       <c r="G65" t="n">
-        <v>6.563464739644598e-11</v>
+        <v>1.603268587916263e-12</v>
       </c>
       <c r="H65" t="n">
-        <v>3.331407413260481e-09</v>
+        <v>9.553951214756603e-06</v>
       </c>
       <c r="I65" t="n">
-        <v>4.686901808657852e-07</v>
+        <v>5.499068174925466e-05</v>
       </c>
       <c r="J65" t="n">
-        <v>8.40728755287396e-07</v>
+        <v>2.468405756305033e-08</v>
       </c>
       <c r="K65" t="n">
-        <v>7.602831785005451e-07</v>
+        <v>5.735651324436526e-08</v>
       </c>
       <c r="L65" t="n">
-        <v>7.005634090863036e-09</v>
+        <v>3.552985822800068e-08</v>
       </c>
       <c r="M65" t="n">
-        <v>4.493638454113573e-14</v>
+        <v>3.379944569467113e-12</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0001550419438282824</v>
+        <v>0.0007482615520414356</v>
       </c>
       <c r="O65" t="n">
-        <v>2.219737759889098e-14</v>
+        <v>9.493924971581796e-14</v>
       </c>
       <c r="P65" t="n">
-        <v>3.750059976640394e-14</v>
+        <v>2.21222993034483e-11</v>
       </c>
       <c r="Q65" t="n">
-        <v>3.467052870471393e-07</v>
+        <v>2.489975728352325e-06</v>
       </c>
       <c r="R65" t="n">
-        <v>1.055607991376085e-05</v>
+        <v>0.02995807971924446</v>
       </c>
       <c r="S65" t="n">
-        <v>2.429023129148755e-08</v>
+        <v>9.425344062299024e-05</v>
       </c>
       <c r="T65" t="n">
-        <v>0.8745222705368126</v>
+        <v>0.9572986529392552</v>
       </c>
       <c r="U65" t="n">
-        <v>0.8745222705368126</v>
+        <v>0.9572986529392552</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -5482,68 +5482,68 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54489.fa</t>
+          <t>even_MAG-GUT50532.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.249155222044703e-07</v>
+        <v>3.106348784101733e-07</v>
       </c>
       <c r="C66" t="n">
-        <v>1.271280858282724e-05</v>
+        <v>3.996679221110594e-09</v>
       </c>
       <c r="D66" t="n">
-        <v>3.608228724325689e-07</v>
+        <v>1.486001574789006e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001792480020525138</v>
+        <v>0.01176481164464237</v>
       </c>
       <c r="F66" t="n">
-        <v>1.78037253847052e-05</v>
+        <v>6.698786473931405e-05</v>
       </c>
       <c r="G66" t="n">
-        <v>1.305803239843204e-12</v>
+        <v>1.603268587916263e-12</v>
       </c>
       <c r="H66" t="n">
-        <v>2.861134025631658e-05</v>
+        <v>9.553951214756603e-06</v>
       </c>
       <c r="I66" t="n">
-        <v>2.995817146602374e-05</v>
+        <v>5.499068174925466e-05</v>
       </c>
       <c r="J66" t="n">
-        <v>3.301489588488906e-08</v>
+        <v>2.468405756305033e-08</v>
       </c>
       <c r="K66" t="n">
-        <v>2.441653769200973e-08</v>
+        <v>5.735651324436526e-08</v>
       </c>
       <c r="L66" t="n">
-        <v>2.152439707360203e-09</v>
+        <v>3.552985822800068e-08</v>
       </c>
       <c r="M66" t="n">
-        <v>2.425564248466035e-10</v>
+        <v>3.379944569467113e-12</v>
       </c>
       <c r="N66" t="n">
-        <v>4.108946148728712e-06</v>
+        <v>0.0007482615520414356</v>
       </c>
       <c r="O66" t="n">
-        <v>3.465275931912278e-13</v>
+        <v>9.493924971581796e-14</v>
       </c>
       <c r="P66" t="n">
-        <v>1.070291833139077e-09</v>
+        <v>2.21222993034483e-11</v>
       </c>
       <c r="Q66" t="n">
-        <v>4.835575567239119e-06</v>
+        <v>2.489975728352325e-06</v>
       </c>
       <c r="R66" t="n">
-        <v>0.136764532038761</v>
+        <v>0.02995807971924446</v>
       </c>
       <c r="S66" t="n">
-        <v>0.0003299854459377528</v>
+        <v>9.425344062299024e-05</v>
       </c>
       <c r="T66" t="n">
-        <v>0.8610143252906017</v>
+        <v>0.9572986529392552</v>
       </c>
       <c r="U66" t="n">
-        <v>0.8610143252906017</v>
+        <v>0.9572986529392552</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -5559,68 +5559,68 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5576.fa</t>
+          <t>even_MAG-GUT50760.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.669952630410639e-05</v>
+        <v>1.450494324290473e-07</v>
       </c>
       <c r="C67" t="n">
-        <v>2.397073432142528e-08</v>
+        <v>8.299448775963582e-08</v>
       </c>
       <c r="D67" t="n">
-        <v>7.863336887492297e-07</v>
+        <v>6.552943466299841e-07</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4110716823295852</v>
+        <v>0.01641743187699405</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003083920751530916</v>
+        <v>1.434226411608106e-05</v>
       </c>
       <c r="G67" t="n">
-        <v>5.36531341264985e-10</v>
+        <v>9.148758511033172e-13</v>
       </c>
       <c r="H67" t="n">
-        <v>1.991182368807327e-08</v>
+        <v>6.770112748022832e-06</v>
       </c>
       <c r="I67" t="n">
-        <v>3.249353332634987e-06</v>
+        <v>4.04809414362824e-05</v>
       </c>
       <c r="J67" t="n">
-        <v>7.08385550025526e-06</v>
+        <v>8.636783854817681e-09</v>
       </c>
       <c r="K67" t="n">
-        <v>8.376599724110449e-07</v>
+        <v>4.068334968108406e-08</v>
       </c>
       <c r="L67" t="n">
-        <v>4.394834954960447e-07</v>
+        <v>2.636576703583575e-09</v>
       </c>
       <c r="M67" t="n">
-        <v>1.606367314290973e-11</v>
+        <v>1.889256462993659e-11</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0009396918862217905</v>
+        <v>2.469691978589892e-05</v>
       </c>
       <c r="O67" t="n">
-        <v>5.783734207053561e-13</v>
+        <v>7.394155851437218e-14</v>
       </c>
       <c r="P67" t="n">
-        <v>8.785201647072221e-13</v>
+        <v>2.743549754457273e-11</v>
       </c>
       <c r="Q67" t="n">
-        <v>4.971657715857597e-06</v>
+        <v>1.920893034820449e-06</v>
       </c>
       <c r="R67" t="n">
-        <v>0.0002009498185899149</v>
+        <v>0.03211958926775964</v>
       </c>
       <c r="S67" t="n">
-        <v>2.229229391028993e-07</v>
+        <v>7.456934414046928e-05</v>
       </c>
       <c r="T67" t="n">
-        <v>0.5846694199845136</v>
+        <v>0.9512992630376909</v>
       </c>
       <c r="U67" t="n">
-        <v>0.5846694199845136</v>
+        <v>0.9512992630376909</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -5636,68 +5636,68 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5634.fa</t>
+          <t>even_MAG-GUT5376.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.634441537002453e-05</v>
+        <v>1.100543559650765e-06</v>
       </c>
       <c r="C68" t="n">
-        <v>4.269518493612479e-07</v>
+        <v>2.776534131392804e-08</v>
       </c>
       <c r="D68" t="n">
-        <v>4.608386111466135e-07</v>
+        <v>2.20398072815346e-07</v>
       </c>
       <c r="E68" t="n">
-        <v>0.367952249539416</v>
+        <v>0.125092511828424</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003959981136441684</v>
+        <v>0.0002158198036337496</v>
       </c>
       <c r="G68" t="n">
-        <v>1.11695282922469e-09</v>
+        <v>6.563464739644598e-11</v>
       </c>
       <c r="H68" t="n">
-        <v>3.43265935563682e-08</v>
+        <v>3.331407413260481e-09</v>
       </c>
       <c r="I68" t="n">
-        <v>3.366536348428288e-06</v>
+        <v>4.686901808657852e-07</v>
       </c>
       <c r="J68" t="n">
-        <v>1.858178256533111e-05</v>
+        <v>8.40728755287396e-07</v>
       </c>
       <c r="K68" t="n">
-        <v>3.089506818345695e-06</v>
+        <v>7.602831785005451e-07</v>
       </c>
       <c r="L68" t="n">
-        <v>4.11356233688568e-08</v>
+        <v>7.005634090863036e-09</v>
       </c>
       <c r="M68" t="n">
-        <v>2.766089679797742e-12</v>
+        <v>4.493638454113573e-14</v>
       </c>
       <c r="N68" t="n">
-        <v>0.001025276973092143</v>
+        <v>0.0001550419438282824</v>
       </c>
       <c r="O68" t="n">
-        <v>8.605240592901142e-14</v>
+        <v>2.219737759889098e-14</v>
       </c>
       <c r="P68" t="n">
-        <v>8.2399895557909e-13</v>
+        <v>3.750059976640394e-14</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.074801829297579e-06</v>
+        <v>3.467052870471393e-07</v>
       </c>
       <c r="R68" t="n">
-        <v>5.906405032679893e-06</v>
+        <v>1.055607991376085e-05</v>
       </c>
       <c r="S68" t="n">
-        <v>4.500428776217192e-08</v>
+        <v>2.429023129148755e-08</v>
       </c>
       <c r="T68" t="n">
-        <v>0.6270121195254919</v>
+        <v>0.8745222705368126</v>
       </c>
       <c r="U68" t="n">
-        <v>0.6270121195254919</v>
+        <v>0.8745222705368126</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -5713,68 +5713,68 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56644.fa</t>
+          <t>even_MAG-GUT54489.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6.46201601622351e-08</v>
+        <v>2.249155222044703e-07</v>
       </c>
       <c r="C69" t="n">
-        <v>2.271261376945649e-08</v>
+        <v>1.271280858282724e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>2.966368497524126e-07</v>
+        <v>3.608228724325689e-07</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001610317413498932</v>
+        <v>0.001792480020525138</v>
       </c>
       <c r="F69" t="n">
-        <v>2.392551137020089e-05</v>
+        <v>1.78037253847052e-05</v>
       </c>
       <c r="G69" t="n">
-        <v>2.82967708084189e-13</v>
+        <v>1.305803239843204e-12</v>
       </c>
       <c r="H69" t="n">
-        <v>3.350176667735352e-06</v>
+        <v>2.861134025631658e-05</v>
       </c>
       <c r="I69" t="n">
-        <v>9.417264138791233e-06</v>
+        <v>2.995817146602374e-05</v>
       </c>
       <c r="J69" t="n">
-        <v>8.193479619822899e-09</v>
+        <v>3.301489588488906e-08</v>
       </c>
       <c r="K69" t="n">
-        <v>1.231259883656324e-08</v>
+        <v>2.441653769200973e-08</v>
       </c>
       <c r="L69" t="n">
-        <v>9.599329602545381e-10</v>
+        <v>2.152439707360203e-09</v>
       </c>
       <c r="M69" t="n">
-        <v>9.056664693008372e-13</v>
+        <v>2.425564248466035e-10</v>
       </c>
       <c r="N69" t="n">
-        <v>8.660336240213823e-06</v>
+        <v>4.108946148728712e-06</v>
       </c>
       <c r="O69" t="n">
-        <v>2.22017248425366e-14</v>
+        <v>3.465275931912278e-13</v>
       </c>
       <c r="P69" t="n">
-        <v>6.367842311003001e-12</v>
+        <v>1.070291833139077e-09</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.144033086434786e-06</v>
+        <v>4.835575567239119e-06</v>
       </c>
       <c r="R69" t="n">
-        <v>0.08450652440254487</v>
+        <v>0.136764532038761</v>
       </c>
       <c r="S69" t="n">
-        <v>5.672572989214084e-06</v>
+        <v>0.0003299854459377528</v>
       </c>
       <c r="T69" t="n">
-        <v>0.9138305828462497</v>
+        <v>0.8610143252906017</v>
       </c>
       <c r="U69" t="n">
-        <v>0.9138305828462497</v>
+        <v>0.8610143252906017</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -5790,68 +5790,68 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56762.fa</t>
+          <t>even_MAG-GUT5576.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.032823232595513e-08</v>
+        <v>1.669952630410639e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>2.966973891572358e-07</v>
+        <v>2.397073432142528e-08</v>
       </c>
       <c r="D70" t="n">
-        <v>4.155552222980987e-07</v>
+        <v>7.863336887492297e-07</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002497299615955</v>
+        <v>0.4110716823295852</v>
       </c>
       <c r="F70" t="n">
-        <v>2.610232017452166e-06</v>
+        <v>0.003083920751530916</v>
       </c>
       <c r="G70" t="n">
-        <v>2.667387942902422e-13</v>
+        <v>5.36531341264985e-10</v>
       </c>
       <c r="H70" t="n">
-        <v>2.139822941533617e-06</v>
+        <v>1.991182368807327e-08</v>
       </c>
       <c r="I70" t="n">
-        <v>5.056553654162263e-06</v>
+        <v>3.249353332634987e-06</v>
       </c>
       <c r="J70" t="n">
-        <v>5.898715488776665e-09</v>
+        <v>7.08385550025526e-06</v>
       </c>
       <c r="K70" t="n">
-        <v>3.556987707969757e-08</v>
+        <v>8.376599724110449e-07</v>
       </c>
       <c r="L70" t="n">
-        <v>4.578971689734689e-11</v>
+        <v>4.394834954960447e-07</v>
       </c>
       <c r="M70" t="n">
-        <v>1.753630496319508e-11</v>
+        <v>1.606367314290973e-11</v>
       </c>
       <c r="N70" t="n">
-        <v>1.849424035308372e-05</v>
+        <v>0.0009396918862217905</v>
       </c>
       <c r="O70" t="n">
-        <v>2.285535763678591e-14</v>
+        <v>5.783734207053561e-13</v>
       </c>
       <c r="P70" t="n">
-        <v>7.149960444859015e-12</v>
+        <v>8.785201647072221e-13</v>
       </c>
       <c r="Q70" t="n">
-        <v>7.56316422966805e-07</v>
+        <v>4.971657715857597e-06</v>
       </c>
       <c r="R70" t="n">
-        <v>0.04926688035494475</v>
+        <v>0.0002009498185899149</v>
       </c>
       <c r="S70" t="n">
-        <v>0.0001117501229444928</v>
+        <v>2.229229391028993e-07</v>
       </c>
       <c r="T70" t="n">
-        <v>0.9480942386205646</v>
+        <v>0.5846694199845136</v>
       </c>
       <c r="U70" t="n">
-        <v>0.9480942386205646</v>
+        <v>0.5846694199845136</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -5867,68 +5867,68 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56896.fa</t>
+          <t>even_MAG-GUT5634.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.838523082357158e-06</v>
+        <v>1.634441537002453e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>9.376188829079515e-07</v>
+        <v>4.269518493612479e-07</v>
       </c>
       <c r="D71" t="n">
-        <v>5.95009259040615e-06</v>
+        <v>4.608386111466135e-07</v>
       </c>
       <c r="E71" t="n">
-        <v>0.05565283703664058</v>
+        <v>0.367952249539416</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0003163201954549206</v>
+        <v>0.003959981136441684</v>
       </c>
       <c r="G71" t="n">
-        <v>2.273333825992005e-11</v>
+        <v>1.11695282922469e-09</v>
       </c>
       <c r="H71" t="n">
-        <v>5.046788836686444e-05</v>
+        <v>3.43265935563682e-08</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0001065160108477961</v>
+        <v>3.366536348428288e-06</v>
       </c>
       <c r="J71" t="n">
-        <v>2.121038399098711e-07</v>
+        <v>1.858178256533111e-05</v>
       </c>
       <c r="K71" t="n">
-        <v>1.06173599987068e-06</v>
+        <v>3.089506818345695e-06</v>
       </c>
       <c r="L71" t="n">
-        <v>1.517203648655668e-07</v>
+        <v>4.11356233688568e-08</v>
       </c>
       <c r="M71" t="n">
-        <v>3.273448402023648e-12</v>
+        <v>2.766089679797742e-12</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0002409679006399324</v>
+        <v>0.001025276973092143</v>
       </c>
       <c r="O71" t="n">
-        <v>4.186443250852756e-13</v>
+        <v>8.605240592901142e-14</v>
       </c>
       <c r="P71" t="n">
-        <v>2.883869587926384e-11</v>
+        <v>8.2399895557909e-13</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.499956248051024e-05</v>
+        <v>2.074801829297579e-06</v>
       </c>
       <c r="R71" t="n">
-        <v>0.02293832356918535</v>
+        <v>5.906405032679893e-06</v>
       </c>
       <c r="S71" t="n">
-        <v>1.93089123597659e-05</v>
+        <v>4.500428776217192e-08</v>
       </c>
       <c r="T71" t="n">
-        <v>0.9206491070739999</v>
+        <v>0.6270121195254919</v>
       </c>
       <c r="U71" t="n">
-        <v>0.9206491070739999</v>
+        <v>0.6270121195254919</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -5944,68 +5944,68 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57047.fa</t>
+          <t>even_MAG-GUT56644.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.579336496361167e-05</v>
+        <v>6.46201601622351e-08</v>
       </c>
       <c r="C72" t="n">
-        <v>8.103306184210778e-07</v>
+        <v>2.271261376945649e-08</v>
       </c>
       <c r="D72" t="n">
-        <v>4.013430892481189e-07</v>
+        <v>2.966368497524126e-07</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4383265937084148</v>
+        <v>0.001610317413498932</v>
       </c>
       <c r="F72" t="n">
-        <v>0.009406156537773679</v>
+        <v>2.392551137020089e-05</v>
       </c>
       <c r="G72" t="n">
-        <v>2.330120585400462e-09</v>
+        <v>2.82967708084189e-13</v>
       </c>
       <c r="H72" t="n">
-        <v>2.54764740053882e-09</v>
+        <v>3.350176667735352e-06</v>
       </c>
       <c r="I72" t="n">
-        <v>1.806579217397855e-06</v>
+        <v>9.417264138791233e-06</v>
       </c>
       <c r="J72" t="n">
-        <v>5.163779130950787e-06</v>
+        <v>8.193479619822899e-09</v>
       </c>
       <c r="K72" t="n">
-        <v>4.047724463241805e-07</v>
+        <v>1.231259883656324e-08</v>
       </c>
       <c r="L72" t="n">
-        <v>4.413146384285396e-07</v>
+        <v>9.599329602545381e-10</v>
       </c>
       <c r="M72" t="n">
-        <v>1.161669279108405e-11</v>
+        <v>9.056664693008372e-13</v>
       </c>
       <c r="N72" t="n">
-        <v>4.441602766630163e-05</v>
+        <v>8.660336240213823e-06</v>
       </c>
       <c r="O72" t="n">
-        <v>2.170277992492178e-12</v>
+        <v>2.22017248425366e-14</v>
       </c>
       <c r="P72" t="n">
-        <v>1.084009443241937e-13</v>
+        <v>6.367842311003001e-12</v>
       </c>
       <c r="Q72" t="n">
-        <v>9.344546843904759e-05</v>
+        <v>1.144033086434786e-06</v>
       </c>
       <c r="R72" t="n">
-        <v>0.0003029186492477666</v>
+        <v>0.08450652440254487</v>
       </c>
       <c r="S72" t="n">
-        <v>8.082200994808846e-07</v>
+        <v>5.672572989214084e-06</v>
       </c>
       <c r="T72" t="n">
-        <v>0.5517908350125912</v>
+        <v>0.9138305828462497</v>
       </c>
       <c r="U72" t="n">
-        <v>0.5517908350125912</v>
+        <v>0.9138305828462497</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6021,68 +6021,68 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5720.fa</t>
+          <t>even_MAG-GUT56762.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5.948622559895141e-08</v>
+        <v>2.032823232595513e-08</v>
       </c>
       <c r="C73" t="n">
-        <v>4.946024317729473e-09</v>
+        <v>2.966973891572358e-07</v>
       </c>
       <c r="D73" t="n">
-        <v>3.249862871772543e-07</v>
+        <v>4.155552222980987e-07</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01471075107543147</v>
+        <v>0.002497299615955</v>
       </c>
       <c r="F73" t="n">
-        <v>3.127602208911787e-05</v>
+        <v>2.610232017452166e-06</v>
       </c>
       <c r="G73" t="n">
-        <v>3.576252970967849e-12</v>
+        <v>2.667387942902422e-13</v>
       </c>
       <c r="H73" t="n">
-        <v>2.779505408191358e-05</v>
+        <v>2.139822941533617e-06</v>
       </c>
       <c r="I73" t="n">
-        <v>3.653937688643841e-06</v>
+        <v>5.056553654162263e-06</v>
       </c>
       <c r="J73" t="n">
-        <v>3.210616484874933e-09</v>
+        <v>5.898715488776665e-09</v>
       </c>
       <c r="K73" t="n">
-        <v>3.075122091242189e-07</v>
+        <v>3.556987707969757e-08</v>
       </c>
       <c r="L73" t="n">
-        <v>1.672798503335416e-09</v>
+        <v>4.578971689734689e-11</v>
       </c>
       <c r="M73" t="n">
-        <v>5.861906520921316e-14</v>
+        <v>1.753630496319508e-11</v>
       </c>
       <c r="N73" t="n">
-        <v>1.373172288454119e-05</v>
+        <v>1.849424035308372e-05</v>
       </c>
       <c r="O73" t="n">
-        <v>2.220108471333091e-14</v>
+        <v>2.285535763678591e-14</v>
       </c>
       <c r="P73" t="n">
-        <v>1.214456673397508e-12</v>
+        <v>7.149960444859015e-12</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.934794345516066e-06</v>
+        <v>7.56316422966805e-07</v>
       </c>
       <c r="R73" t="n">
-        <v>8.292738449788397e-05</v>
+        <v>0.04926688035494475</v>
       </c>
       <c r="S73" t="n">
-        <v>1.370419202573022e-07</v>
+        <v>0.0001117501229444928</v>
       </c>
       <c r="T73" t="n">
-        <v>0.9851270911480279</v>
+        <v>0.9480942386205646</v>
       </c>
       <c r="U73" t="n">
-        <v>0.9851270911480279</v>
+        <v>0.9480942386205646</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6098,145 +6098,145 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58214.fa</t>
+          <t>even_MAG-GUT56896.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2587937704776566</v>
+        <v>2.838523082357158e-06</v>
       </c>
       <c r="C74" t="n">
-        <v>4.175185654452717e-10</v>
+        <v>9.376188829079515e-07</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0005389086602877205</v>
+        <v>5.95009259040615e-06</v>
       </c>
       <c r="E74" t="n">
-        <v>6.349786284716067e-05</v>
+        <v>0.05565283703664058</v>
       </c>
       <c r="F74" t="n">
-        <v>1.55281295231564e-05</v>
+        <v>0.0003163201954549206</v>
       </c>
       <c r="G74" t="n">
-        <v>1.026436150523216e-10</v>
+        <v>2.273333825992005e-11</v>
       </c>
       <c r="H74" t="n">
-        <v>2.188592343109681e-05</v>
+        <v>5.046788836686444e-05</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0002166003591534033</v>
+        <v>0.0001065160108477961</v>
       </c>
       <c r="J74" t="n">
-        <v>4.899415931511103e-05</v>
+        <v>2.121038399098711e-07</v>
       </c>
       <c r="K74" t="n">
-        <v>0.00296983473107339</v>
+        <v>1.06173599987068e-06</v>
       </c>
       <c r="L74" t="n">
-        <v>1.253292882856538e-05</v>
+        <v>1.517203648655668e-07</v>
       </c>
       <c r="M74" t="n">
-        <v>0.3854599553942825</v>
+        <v>3.273448402023648e-12</v>
       </c>
       <c r="N74" t="n">
-        <v>3.509407443313535e-05</v>
+        <v>0.0002409679006399324</v>
       </c>
       <c r="O74" t="n">
-        <v>0.3361809326785788</v>
+        <v>4.186443250852756e-13</v>
       </c>
       <c r="P74" t="n">
-        <v>3.749478079692663e-06</v>
+        <v>2.883869587926384e-11</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.980375029641307e-05</v>
+        <v>1.499956248051024e-05</v>
       </c>
       <c r="R74" t="n">
-        <v>0.01533529377568349</v>
+        <v>0.02293832356918535</v>
       </c>
       <c r="S74" t="n">
-        <v>0.0001769783149874527</v>
+        <v>1.93089123597659e-05</v>
       </c>
       <c r="T74" t="n">
-        <v>0.0001066387813801448</v>
+        <v>0.9206491070739999</v>
       </c>
       <c r="U74" t="n">
-        <v>0.3854599553942825</v>
+        <v>0.9206491070739999</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58689.fa</t>
+          <t>even_MAG-GUT57047.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>9.726124045605041e-07</v>
+        <v>2.579336496361167e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>1.462129954758821e-07</v>
+        <v>8.103306184210778e-07</v>
       </c>
       <c r="D75" t="n">
-        <v>6.33962136959938e-06</v>
+        <v>4.013430892481189e-07</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05791631891298275</v>
+        <v>0.4383265937084148</v>
       </c>
       <c r="F75" t="n">
-        <v>0.000288719866902187</v>
+        <v>0.009406156537773679</v>
       </c>
       <c r="G75" t="n">
-        <v>1.362737159680526e-11</v>
+        <v>2.330120585400462e-09</v>
       </c>
       <c r="H75" t="n">
-        <v>5.296589636964031e-05</v>
+        <v>2.54764740053882e-09</v>
       </c>
       <c r="I75" t="n">
-        <v>7.332137377476653e-05</v>
+        <v>1.806579217397855e-06</v>
       </c>
       <c r="J75" t="n">
-        <v>1.699160615788452e-07</v>
+        <v>5.163779130950787e-06</v>
       </c>
       <c r="K75" t="n">
-        <v>3.255366660713425e-06</v>
+        <v>4.047724463241805e-07</v>
       </c>
       <c r="L75" t="n">
-        <v>3.910289392992059e-08</v>
+        <v>4.413146384285396e-07</v>
       </c>
       <c r="M75" t="n">
-        <v>9.116448657274165e-12</v>
+        <v>1.161669279108405e-11</v>
       </c>
       <c r="N75" t="n">
-        <v>0.001673094990858021</v>
+        <v>4.441602766630163e-05</v>
       </c>
       <c r="O75" t="n">
-        <v>4.556366338265932e-13</v>
+        <v>2.170277992492178e-12</v>
       </c>
       <c r="P75" t="n">
-        <v>1.982214568578861e-11</v>
+        <v>1.084009443241937e-13</v>
       </c>
       <c r="Q75" t="n">
-        <v>6.936296417893616e-06</v>
+        <v>9.344546843904759e-05</v>
       </c>
       <c r="R75" t="n">
-        <v>0.01184658810976601</v>
+        <v>0.0003029186492477666</v>
       </c>
       <c r="S75" t="n">
-        <v>0.0001046504074365062</v>
+        <v>8.082200994808846e-07</v>
       </c>
       <c r="T75" t="n">
-        <v>0.9280264812700848</v>
+        <v>0.5517908350125912</v>
       </c>
       <c r="U75" t="n">
-        <v>0.9280264812700848</v>
+        <v>0.5517908350125912</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6252,68 +6252,68 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5994.fa</t>
+          <t>even_MAG-GUT5720.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.579646556702337e-05</v>
+        <v>5.948622559895141e-08</v>
       </c>
       <c r="C76" t="n">
-        <v>1.861289430629414e-07</v>
+        <v>4.946024317729473e-09</v>
       </c>
       <c r="D76" t="n">
-        <v>5.581937834580594e-07</v>
+        <v>3.249862871772543e-07</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1893799687155661</v>
+        <v>0.01471075107543147</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001410798804084285</v>
+        <v>3.127602208911787e-05</v>
       </c>
       <c r="G76" t="n">
-        <v>9.325020909342999e-10</v>
+        <v>3.576252970967849e-12</v>
       </c>
       <c r="H76" t="n">
-        <v>9.605282279147441e-07</v>
+        <v>2.779505408191358e-05</v>
       </c>
       <c r="I76" t="n">
-        <v>5.700450597702178e-06</v>
+        <v>3.653937688643841e-06</v>
       </c>
       <c r="J76" t="n">
-        <v>9.466281467762682e-06</v>
+        <v>3.210616484874933e-09</v>
       </c>
       <c r="K76" t="n">
-        <v>3.76924319668719e-05</v>
+        <v>3.075122091242189e-07</v>
       </c>
       <c r="L76" t="n">
-        <v>3.658456001411735e-07</v>
+        <v>1.672798503335416e-09</v>
       </c>
       <c r="M76" t="n">
-        <v>6.302213167881963e-13</v>
+        <v>5.861906520921316e-14</v>
       </c>
       <c r="N76" t="n">
-        <v>0.00613528366327112</v>
+        <v>1.373172288454119e-05</v>
       </c>
       <c r="O76" t="n">
-        <v>2.880883750721697e-13</v>
+        <v>2.220108471333091e-14</v>
       </c>
       <c r="P76" t="n">
-        <v>8.98928657855693e-12</v>
+        <v>1.214456673397508e-12</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.770653976608827e-07</v>
+        <v>1.934794345516066e-06</v>
       </c>
       <c r="R76" t="n">
-        <v>3.237839518734606e-06</v>
+        <v>8.292738449788397e-05</v>
       </c>
       <c r="S76" t="n">
-        <v>5.789187553847879e-08</v>
+        <v>1.370419202573022e-07</v>
       </c>
       <c r="T76" t="n">
-        <v>0.8029897487517229</v>
+        <v>0.9851270911480279</v>
       </c>
       <c r="U76" t="n">
-        <v>0.8029897487517229</v>
+        <v>0.9851270911480279</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -6329,145 +6329,145 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60838.fa</t>
+          <t>even_MAG-GUT58214.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.457945535693705e-07</v>
+        <v>0.2587937704776566</v>
       </c>
       <c r="C77" t="n">
-        <v>1.251242348501586e-07</v>
+        <v>4.175185654452717e-10</v>
       </c>
       <c r="D77" t="n">
-        <v>1.004955709345622e-06</v>
+        <v>0.0005389086602877205</v>
       </c>
       <c r="E77" t="n">
-        <v>0.006566910515263606</v>
+        <v>6.349786284716067e-05</v>
       </c>
       <c r="F77" t="n">
-        <v>1.70480199551195e-05</v>
+        <v>1.55281295231564e-05</v>
       </c>
       <c r="G77" t="n">
-        <v>1.502592478313776e-12</v>
+        <v>1.026436150523216e-10</v>
       </c>
       <c r="H77" t="n">
-        <v>4.210621863685831e-05</v>
+        <v>2.188592343109681e-05</v>
       </c>
       <c r="I77" t="n">
-        <v>1.353186527199967e-05</v>
+        <v>0.0002166003591534033</v>
       </c>
       <c r="J77" t="n">
-        <v>4.150225219502088e-08</v>
+        <v>4.899415931511103e-05</v>
       </c>
       <c r="K77" t="n">
-        <v>4.878845183372362e-07</v>
+        <v>0.00296983473107339</v>
       </c>
       <c r="L77" t="n">
-        <v>1.34494124840697e-09</v>
+        <v>1.253292882856538e-05</v>
       </c>
       <c r="M77" t="n">
-        <v>4.088247728776208e-12</v>
+        <v>0.3854599553942825</v>
       </c>
       <c r="N77" t="n">
-        <v>4.968958829948166e-05</v>
+        <v>3.509407443313535e-05</v>
       </c>
       <c r="O77" t="n">
-        <v>6.255834700621815e-13</v>
+        <v>0.3361809326785788</v>
       </c>
       <c r="P77" t="n">
-        <v>3.348976022148113e-11</v>
+        <v>3.749478079692663e-06</v>
       </c>
       <c r="Q77" t="n">
-        <v>5.865134345710973e-07</v>
+        <v>1.980375029641307e-05</v>
       </c>
       <c r="R77" t="n">
-        <v>0.006092829780067748</v>
+        <v>0.01533529377568349</v>
       </c>
       <c r="S77" t="n">
-        <v>3.537577521361489e-05</v>
+        <v>0.0001769783149874527</v>
       </c>
       <c r="T77" t="n">
-        <v>0.9871800150779412</v>
+        <v>0.0001066387813801448</v>
       </c>
       <c r="U77" t="n">
-        <v>0.9871800150779412</v>
+        <v>0.3854599553942825</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1696</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1696</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61101.fa</t>
+          <t>even_MAG-GUT58689.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>7.783870821665488e-08</v>
+        <v>9.726124045605041e-07</v>
       </c>
       <c r="C78" t="n">
-        <v>3.34261173729884e-08</v>
+        <v>1.462129954758821e-07</v>
       </c>
       <c r="D78" t="n">
-        <v>7.657485076494985e-07</v>
+        <v>6.33962136959938e-06</v>
       </c>
       <c r="E78" t="n">
-        <v>0.01085640924087463</v>
+        <v>0.05791631891298275</v>
       </c>
       <c r="F78" t="n">
-        <v>4.499763010445507e-05</v>
+        <v>0.000288719866902187</v>
       </c>
       <c r="G78" t="n">
-        <v>1.452654736327864e-12</v>
+        <v>1.362737159680526e-11</v>
       </c>
       <c r="H78" t="n">
-        <v>2.920503338811054e-05</v>
+        <v>5.296589636964031e-05</v>
       </c>
       <c r="I78" t="n">
-        <v>2.743356070474187e-05</v>
+        <v>7.332137377476653e-05</v>
       </c>
       <c r="J78" t="n">
-        <v>2.894488022672505e-09</v>
+        <v>1.699160615788452e-07</v>
       </c>
       <c r="K78" t="n">
-        <v>3.897589327890855e-08</v>
+        <v>3.255366660713425e-06</v>
       </c>
       <c r="L78" t="n">
-        <v>1.420492670558135e-09</v>
+        <v>3.910289392992059e-08</v>
       </c>
       <c r="M78" t="n">
-        <v>1.388049677684902e-12</v>
+        <v>9.116448657274165e-12</v>
       </c>
       <c r="N78" t="n">
-        <v>6.453636796028058e-05</v>
+        <v>0.001673094990858021</v>
       </c>
       <c r="O78" t="n">
-        <v>6.142446752381263e-14</v>
+        <v>4.556366338265932e-13</v>
       </c>
       <c r="P78" t="n">
-        <v>8.587906522218583e-12</v>
+        <v>1.982214568578861e-11</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.809183689787202e-06</v>
+        <v>6.936296417893616e-06</v>
       </c>
       <c r="R78" t="n">
-        <v>0.01957556216150919</v>
+        <v>0.01184658810976601</v>
       </c>
       <c r="S78" t="n">
-        <v>4.514252052522432e-06</v>
+        <v>0.0001046504074365062</v>
       </c>
       <c r="T78" t="n">
-        <v>0.9693936122540191</v>
+        <v>0.9280264812700848</v>
       </c>
       <c r="U78" t="n">
-        <v>0.9693936122540191</v>
+        <v>0.9280264812700848</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -6483,145 +6483,145 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61409.fa</t>
+          <t>even_MAG-GUT5994.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2556495620704547</v>
+        <v>2.579646556702337e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>3.292439146331894e-10</v>
+        <v>1.861289430629414e-07</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0009071480386725078</v>
+        <v>5.581937834580594e-07</v>
       </c>
       <c r="E79" t="n">
-        <v>4.290740589134218e-05</v>
+        <v>0.1893799687155661</v>
       </c>
       <c r="F79" t="n">
-        <v>1.722383214884237e-05</v>
+        <v>0.001410798804084285</v>
       </c>
       <c r="G79" t="n">
-        <v>1.76244532573483e-10</v>
+        <v>9.325020909342999e-10</v>
       </c>
       <c r="H79" t="n">
-        <v>9.669568405019666e-05</v>
+        <v>9.605282279147441e-07</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0003921621285572457</v>
+        <v>5.700450597702178e-06</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0003356628000975878</v>
+        <v>9.466281467762682e-06</v>
       </c>
       <c r="K79" t="n">
-        <v>0.002217028347081142</v>
+        <v>3.76924319668719e-05</v>
       </c>
       <c r="L79" t="n">
-        <v>4.860478168309573e-06</v>
+        <v>3.658456001411735e-07</v>
       </c>
       <c r="M79" t="n">
-        <v>0.5973552724681345</v>
+        <v>6.302213167881963e-13</v>
       </c>
       <c r="N79" t="n">
-        <v>2.224388662066949e-05</v>
+        <v>0.00613528366327112</v>
       </c>
       <c r="O79" t="n">
-        <v>0.1005716369002966</v>
+        <v>2.880883750721697e-13</v>
       </c>
       <c r="P79" t="n">
-        <v>2.566103461116674e-06</v>
+        <v>8.98928657855693e-12</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.603551675791394e-05</v>
+        <v>1.770653976608827e-07</v>
       </c>
       <c r="R79" t="n">
-        <v>0.04188721420808261</v>
+        <v>3.237839518734606e-06</v>
       </c>
       <c r="S79" t="n">
-        <v>0.0003269844836272069</v>
+        <v>5.789187553847879e-08</v>
       </c>
       <c r="T79" t="n">
-        <v>0.0001447951424091782</v>
+        <v>0.8029897487517229</v>
       </c>
       <c r="U79" t="n">
-        <v>0.5973552724681345</v>
+        <v>0.8029897487517229</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61546.fa</t>
+          <t>even_MAG-GUT60838.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.650361724253261e-07</v>
+        <v>2.457945535693705e-07</v>
       </c>
       <c r="C80" t="n">
-        <v>1.082876424682117e-07</v>
+        <v>1.251242348501586e-07</v>
       </c>
       <c r="D80" t="n">
-        <v>1.060358525081711e-06</v>
+        <v>1.004955709345622e-06</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01858898480110796</v>
+        <v>0.006566910515263606</v>
       </c>
       <c r="F80" t="n">
-        <v>4.80478260761164e-05</v>
+        <v>1.70480199551195e-05</v>
       </c>
       <c r="G80" t="n">
-        <v>5.041942519001544e-12</v>
+        <v>1.502592478313776e-12</v>
       </c>
       <c r="H80" t="n">
-        <v>4.807890110499244e-06</v>
+        <v>4.210621863685831e-05</v>
       </c>
       <c r="I80" t="n">
-        <v>2.22033307538417e-05</v>
+        <v>1.353186527199967e-05</v>
       </c>
       <c r="J80" t="n">
-        <v>1.105818485967491e-08</v>
+        <v>4.150225219502088e-08</v>
       </c>
       <c r="K80" t="n">
-        <v>8.40211413590463e-08</v>
+        <v>4.878845183372362e-07</v>
       </c>
       <c r="L80" t="n">
-        <v>4.806232836952971e-08</v>
+        <v>1.34494124840697e-09</v>
       </c>
       <c r="M80" t="n">
-        <v>1.555612785850984e-12</v>
+        <v>4.088247728776208e-12</v>
       </c>
       <c r="N80" t="n">
-        <v>4.75913346328919e-06</v>
+        <v>4.968958829948166e-05</v>
       </c>
       <c r="O80" t="n">
-        <v>3.402312402772599e-13</v>
+        <v>6.255834700621815e-13</v>
       </c>
       <c r="P80" t="n">
-        <v>1.431736937107809e-12</v>
+        <v>3.348976022148113e-11</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.486838787640801e-05</v>
+        <v>5.865134345710973e-07</v>
       </c>
       <c r="R80" t="n">
-        <v>0.0287826640018286</v>
+        <v>0.006092829780067748</v>
       </c>
       <c r="S80" t="n">
-        <v>1.049104653311766e-05</v>
+        <v>3.537577521361489e-05</v>
       </c>
       <c r="T80" t="n">
-        <v>0.9525216967498862</v>
+        <v>0.9871800150779412</v>
       </c>
       <c r="U80" t="n">
-        <v>0.9525216967498862</v>
+        <v>0.9871800150779412</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -6637,68 +6637,68 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62011.fa</t>
+          <t>even_MAG-GUT61101.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5.433386044635215e-07</v>
+        <v>7.783870821665488e-08</v>
       </c>
       <c r="C81" t="n">
-        <v>5.472186666690239e-08</v>
+        <v>3.34261173729884e-08</v>
       </c>
       <c r="D81" t="n">
-        <v>3.175722320666905e-06</v>
+        <v>7.657485076494985e-07</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02288910892092178</v>
+        <v>0.01085640924087463</v>
       </c>
       <c r="F81" t="n">
-        <v>6.356100987389964e-05</v>
+        <v>4.499763010445507e-05</v>
       </c>
       <c r="G81" t="n">
-        <v>1.568642810572491e-12</v>
+        <v>1.452654736327864e-12</v>
       </c>
       <c r="H81" t="n">
-        <v>5.155653129622147e-06</v>
+        <v>2.920503338811054e-05</v>
       </c>
       <c r="I81" t="n">
-        <v>3.454695691182906e-05</v>
+        <v>2.743356070474187e-05</v>
       </c>
       <c r="J81" t="n">
-        <v>9.599043055688107e-08</v>
+        <v>2.894488022672505e-09</v>
       </c>
       <c r="K81" t="n">
-        <v>9.151770527193763e-08</v>
+        <v>3.897589327890855e-08</v>
       </c>
       <c r="L81" t="n">
-        <v>2.701364065325506e-09</v>
+        <v>1.420492670558135e-09</v>
       </c>
       <c r="M81" t="n">
-        <v>9.734765828135839e-12</v>
+        <v>1.388049677684902e-12</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0008486041445721033</v>
+        <v>6.453636796028058e-05</v>
       </c>
       <c r="O81" t="n">
-        <v>9.269954694600152e-14</v>
+        <v>6.142446752381263e-14</v>
       </c>
       <c r="P81" t="n">
-        <v>7.962456029646438e-12</v>
+        <v>8.587906522218583e-12</v>
       </c>
       <c r="Q81" t="n">
-        <v>3.265441699435892e-06</v>
+        <v>2.809183689787202e-06</v>
       </c>
       <c r="R81" t="n">
-        <v>0.05064044109695676</v>
+        <v>0.01957556216150919</v>
       </c>
       <c r="S81" t="n">
-        <v>2.928748798743339e-05</v>
+        <v>4.514252052522432e-06</v>
       </c>
       <c r="T81" t="n">
-        <v>0.9254820652762968</v>
+        <v>0.9693936122540191</v>
       </c>
       <c r="U81" t="n">
-        <v>0.9254820652762968</v>
+        <v>0.9693936122540191</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -6714,145 +6714,145 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62413.fa</t>
+          <t>even_MAG-GUT61409.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4.278034944213076e-06</v>
+        <v>0.2556495620704547</v>
       </c>
       <c r="C82" t="n">
-        <v>2.486197770136757e-06</v>
+        <v>3.292439146331894e-10</v>
       </c>
       <c r="D82" t="n">
-        <v>4.92040488533457e-06</v>
+        <v>0.0009071480386725078</v>
       </c>
       <c r="E82" t="n">
-        <v>0.007777853940354084</v>
+        <v>4.290740589134218e-05</v>
       </c>
       <c r="F82" t="n">
-        <v>6.563653210696857e-05</v>
+        <v>1.722383214884237e-05</v>
       </c>
       <c r="G82" t="n">
-        <v>8.098307942780835e-12</v>
+        <v>1.76244532573483e-10</v>
       </c>
       <c r="H82" t="n">
-        <v>4.958399406108124e-05</v>
+        <v>9.669568405019666e-05</v>
       </c>
       <c r="I82" t="n">
-        <v>4.828433831049981e-05</v>
+        <v>0.0003921621285572457</v>
       </c>
       <c r="J82" t="n">
-        <v>2.423549546507643e-06</v>
+        <v>0.0003356628000975878</v>
       </c>
       <c r="K82" t="n">
-        <v>8.40687649329056e-06</v>
+        <v>0.002217028347081142</v>
       </c>
       <c r="L82" t="n">
-        <v>2.12817770678413e-09</v>
+        <v>4.860478168309573e-06</v>
       </c>
       <c r="M82" t="n">
-        <v>4.087949485544733e-10</v>
+        <v>0.5973552724681345</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0002081801788053422</v>
+        <v>2.224388662066949e-05</v>
       </c>
       <c r="O82" t="n">
-        <v>1.567626641132913e-11</v>
+        <v>0.1005716369002966</v>
       </c>
       <c r="P82" t="n">
-        <v>4.232444235667534e-10</v>
+        <v>2.566103461116674e-06</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.816762861355573e-06</v>
+        <v>2.603551675791394e-05</v>
       </c>
       <c r="R82" t="n">
-        <v>0.0694619199841217</v>
+        <v>0.04188721420808261</v>
       </c>
       <c r="S82" t="n">
-        <v>0.001039466219946568</v>
+        <v>0.0003269844836272069</v>
       </c>
       <c r="T82" t="n">
-        <v>0.9213247400018012</v>
+        <v>0.0001447951424091782</v>
       </c>
       <c r="U82" t="n">
-        <v>0.9213247400018012</v>
+        <v>0.5973552724681345</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1696</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1696</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65836.fa</t>
+          <t>even_MAG-GUT61546.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>8.128424801856889e-06</v>
+        <v>1.650361724253261e-07</v>
       </c>
       <c r="C83" t="n">
-        <v>1.619485948599067e-07</v>
+        <v>1.082876424682117e-07</v>
       </c>
       <c r="D83" t="n">
-        <v>1.046670771861922e-06</v>
+        <v>1.060358525081711e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3306681268447361</v>
+        <v>0.01858898480110796</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0006899500011889125</v>
+        <v>4.80478260761164e-05</v>
       </c>
       <c r="G83" t="n">
-        <v>5.933203010830033e-10</v>
+        <v>5.041942519001544e-12</v>
       </c>
       <c r="H83" t="n">
-        <v>4.433397435189731e-08</v>
+        <v>4.807890110499244e-06</v>
       </c>
       <c r="I83" t="n">
-        <v>4.674929526353734e-06</v>
+        <v>2.22033307538417e-05</v>
       </c>
       <c r="J83" t="n">
-        <v>1.583595492965027e-05</v>
+        <v>1.105818485967491e-08</v>
       </c>
       <c r="K83" t="n">
-        <v>1.810985794349138e-05</v>
+        <v>8.40211413590463e-08</v>
       </c>
       <c r="L83" t="n">
-        <v>2.258200595359608e-07</v>
+        <v>4.806232836952971e-08</v>
       </c>
       <c r="M83" t="n">
-        <v>1.136893529036134e-11</v>
+        <v>1.555612785850984e-12</v>
       </c>
       <c r="N83" t="n">
-        <v>0.009892860399241518</v>
+        <v>4.75913346328919e-06</v>
       </c>
       <c r="O83" t="n">
-        <v>2.889343388221328e-12</v>
+        <v>3.402312402772599e-13</v>
       </c>
       <c r="P83" t="n">
-        <v>9.71558716161466e-12</v>
+        <v>1.431736937107809e-12</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.476647627197608e-07</v>
+        <v>1.486838787640801e-05</v>
       </c>
       <c r="R83" t="n">
-        <v>3.195246555610925e-05</v>
+        <v>0.0287826640018286</v>
       </c>
       <c r="S83" t="n">
-        <v>3.548515510782729e-07</v>
+        <v>1.049104653311766e-05</v>
       </c>
       <c r="T83" t="n">
-        <v>0.6586682792150674</v>
+        <v>0.9525216967498862</v>
       </c>
       <c r="U83" t="n">
-        <v>0.6586682792150674</v>
+        <v>0.9525216967498862</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -6868,145 +6868,145 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66889.fa</t>
+          <t>even_MAG-GUT62011.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2.547901466372397e-06</v>
+        <v>5.433386044635215e-07</v>
       </c>
       <c r="C84" t="n">
-        <v>5.411838578621541e-08</v>
+        <v>5.472186666690239e-08</v>
       </c>
       <c r="D84" t="n">
-        <v>8.474110032673225e-07</v>
+        <v>3.175722320666905e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5808913323209444</v>
+        <v>0.02288910892092178</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0004852918889234245</v>
+        <v>6.356100987389964e-05</v>
       </c>
       <c r="G84" t="n">
-        <v>3.438010088272849e-10</v>
+        <v>1.568642810572491e-12</v>
       </c>
       <c r="H84" t="n">
-        <v>3.942906784944227e-09</v>
+        <v>5.155653129622147e-06</v>
       </c>
       <c r="I84" t="n">
-        <v>1.856642932876183e-06</v>
+        <v>3.454695691182906e-05</v>
       </c>
       <c r="J84" t="n">
-        <v>2.448229285994798e-07</v>
+        <v>9.599043055688107e-08</v>
       </c>
       <c r="K84" t="n">
-        <v>6.570978062899466e-07</v>
+        <v>9.151770527193763e-08</v>
       </c>
       <c r="L84" t="n">
-        <v>7.831458569992647e-07</v>
+        <v>2.701364065325506e-09</v>
       </c>
       <c r="M84" t="n">
-        <v>1.133089599039955e-12</v>
+        <v>9.734765828135839e-12</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0001854568552620327</v>
+        <v>0.0008486041445721033</v>
       </c>
       <c r="O84" t="n">
-        <v>2.121539861944943e-13</v>
+        <v>9.269954694600152e-14</v>
       </c>
       <c r="P84" t="n">
-        <v>1.437064861591529e-13</v>
+        <v>7.962456029646438e-12</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.021111800336719e-05</v>
+        <v>3.265441699435892e-06</v>
       </c>
       <c r="R84" t="n">
-        <v>4.520336004669375e-05</v>
+        <v>0.05064044109695676</v>
       </c>
       <c r="S84" t="n">
-        <v>5.648533871987678e-08</v>
+        <v>2.928748798743339e-05</v>
       </c>
       <c r="T84" t="n">
-        <v>0.4183654525429046</v>
+        <v>0.9254820652762968</v>
       </c>
       <c r="U84" t="n">
-        <v>0.5808913323209444</v>
+        <v>0.9254820652762968</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71501.fa</t>
+          <t>even_MAG-GUT62413.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7.282991966197765e-06</v>
+        <v>4.278034944213076e-06</v>
       </c>
       <c r="C85" t="n">
-        <v>8.952825217222211e-06</v>
+        <v>2.486197770136757e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>7.29036328891668e-06</v>
+        <v>4.92040488533457e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>0.09794543681695854</v>
+        <v>0.007777853940354084</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0001659692338115184</v>
+        <v>6.563653210696857e-05</v>
       </c>
       <c r="G85" t="n">
-        <v>3.63773242485774e-11</v>
+        <v>8.098307942780835e-12</v>
       </c>
       <c r="H85" t="n">
-        <v>2.04175751921772e-05</v>
+        <v>4.958399406108124e-05</v>
       </c>
       <c r="I85" t="n">
-        <v>3.43390808996262e-05</v>
+        <v>4.828433831049981e-05</v>
       </c>
       <c r="J85" t="n">
-        <v>9.741816976789472e-07</v>
+        <v>2.423549546507643e-06</v>
       </c>
       <c r="K85" t="n">
-        <v>2.389920745200015e-06</v>
+        <v>8.40687649329056e-06</v>
       </c>
       <c r="L85" t="n">
-        <v>2.30163350409424e-08</v>
+        <v>2.12817770678413e-09</v>
       </c>
       <c r="M85" t="n">
-        <v>4.772146839147818e-11</v>
+        <v>4.087949485544733e-10</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0004250722530118487</v>
+        <v>0.0002081801788053422</v>
       </c>
       <c r="O85" t="n">
-        <v>1.3693846201198e-12</v>
+        <v>1.567626641132913e-11</v>
       </c>
       <c r="P85" t="n">
-        <v>7.368595864682903e-11</v>
+        <v>4.232444235667534e-10</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.095910093403577e-05</v>
+        <v>1.816762861355573e-06</v>
       </c>
       <c r="R85" t="n">
-        <v>0.008750786268178571</v>
+        <v>0.0694619199841217</v>
       </c>
       <c r="S85" t="n">
-        <v>4.462251104769124e-06</v>
+        <v>0.001039466219946568</v>
       </c>
       <c r="T85" t="n">
-        <v>0.8926156439615044</v>
+        <v>0.9213247400018012</v>
       </c>
       <c r="U85" t="n">
-        <v>0.8926156439615044</v>
+        <v>0.9213247400018012</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -7022,68 +7022,68 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT72738.fa</t>
+          <t>even_MAG-GUT65836.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>8.691386666261087e-07</v>
+        <v>8.128424801856889e-06</v>
       </c>
       <c r="C86" t="n">
-        <v>6.211407432285857e-09</v>
+        <v>1.619485948599067e-07</v>
       </c>
       <c r="D86" t="n">
-        <v>4.59254869144892e-07</v>
+        <v>1.046670771861922e-06</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2700820517985631</v>
+        <v>0.3306681268447361</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0003986104445471219</v>
+        <v>0.0006899500011889125</v>
       </c>
       <c r="G86" t="n">
-        <v>6.856058568713373e-11</v>
+        <v>5.933203010830033e-10</v>
       </c>
       <c r="H86" t="n">
-        <v>6.051714705425049e-08</v>
+        <v>4.433397435189731e-08</v>
       </c>
       <c r="I86" t="n">
-        <v>2.23268935737905e-06</v>
+        <v>4.674929526353734e-06</v>
       </c>
       <c r="J86" t="n">
-        <v>1.960443770329555e-07</v>
+        <v>1.583595492965027e-05</v>
       </c>
       <c r="K86" t="n">
-        <v>3.729289853448223e-07</v>
+        <v>1.810985794349138e-05</v>
       </c>
       <c r="L86" t="n">
-        <v>8.792417973508453e-09</v>
+        <v>2.258200595359608e-07</v>
       </c>
       <c r="M86" t="n">
-        <v>9.909207704710248e-13</v>
+        <v>1.136893529036134e-11</v>
       </c>
       <c r="N86" t="n">
-        <v>8.775455911993869e-05</v>
+        <v>0.009892860399241518</v>
       </c>
       <c r="O86" t="n">
-        <v>2.220298400862483e-14</v>
+        <v>2.889343388221328e-12</v>
       </c>
       <c r="P86" t="n">
-        <v>7.588555806563235e-14</v>
+        <v>9.71558716161466e-12</v>
       </c>
       <c r="Q86" t="n">
-        <v>7.151815457099784e-06</v>
+        <v>2.476647627197608e-07</v>
       </c>
       <c r="R86" t="n">
-        <v>0.0004554953975004745</v>
+        <v>3.195246555610925e-05</v>
       </c>
       <c r="S86" t="n">
-        <v>7.884568020195285e-08</v>
+        <v>3.548515510782729e-07</v>
       </c>
       <c r="T86" t="n">
-        <v>0.7289646514922544</v>
+        <v>0.6586682792150674</v>
       </c>
       <c r="U86" t="n">
-        <v>0.7289646514922544</v>
+        <v>0.6586682792150674</v>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -7099,68 +7099,68 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73031.fa</t>
+          <t>even_MAG-GUT66889.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2.574162622893357e-05</v>
+        <v>2.547901466372397e-06</v>
       </c>
       <c r="C87" t="n">
-        <v>1.49187838962693e-07</v>
+        <v>5.411838578621541e-08</v>
       </c>
       <c r="D87" t="n">
-        <v>3.629178124544648e-07</v>
+        <v>8.474110032673225e-07</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6135022508113251</v>
+        <v>0.5808913323209444</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001198427852548626</v>
+        <v>0.0004852918889234245</v>
       </c>
       <c r="G87" t="n">
-        <v>1.228315946919962e-09</v>
+        <v>3.438010088272849e-10</v>
       </c>
       <c r="H87" t="n">
-        <v>2.634901594011143e-08</v>
+        <v>3.942906784944227e-09</v>
       </c>
       <c r="I87" t="n">
-        <v>2.725679726007547e-06</v>
+        <v>1.856642932876183e-06</v>
       </c>
       <c r="J87" t="n">
-        <v>4.66195985284115e-06</v>
+        <v>2.448229285994798e-07</v>
       </c>
       <c r="K87" t="n">
-        <v>2.368682537802676e-06</v>
+        <v>6.570978062899466e-07</v>
       </c>
       <c r="L87" t="n">
-        <v>7.958722899257495e-07</v>
+        <v>7.831458569992647e-07</v>
       </c>
       <c r="M87" t="n">
-        <v>2.301324690317744e-11</v>
+        <v>1.133089599039955e-12</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0001468540210288077</v>
+        <v>0.0001854568552620327</v>
       </c>
       <c r="O87" t="n">
-        <v>2.209199408699049e-12</v>
+        <v>2.121539861944943e-13</v>
       </c>
       <c r="P87" t="n">
-        <v>2.785973449245372e-13</v>
+        <v>1.437064861591529e-13</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.175565699560503e-05</v>
+        <v>2.021111800336719e-05</v>
       </c>
       <c r="R87" t="n">
-        <v>0.0001007122418250173</v>
+        <v>4.520336004669375e-05</v>
       </c>
       <c r="S87" t="n">
-        <v>2.959593147267349e-07</v>
+        <v>5.648533871987678e-08</v>
       </c>
       <c r="T87" t="n">
-        <v>0.3850028699278423</v>
+        <v>0.4183654525429046</v>
       </c>
       <c r="U87" t="n">
-        <v>0.6135022508113251</v>
+        <v>0.5808913323209444</v>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -7176,68 +7176,68 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74537.fa</t>
+          <t>even_MAG-GUT71501.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>9.759703552263683e-07</v>
+        <v>7.282991966197765e-06</v>
       </c>
       <c r="C88" t="n">
-        <v>1.548048860925303e-06</v>
+        <v>8.952825217222211e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>3.79765403577619e-06</v>
+        <v>7.29036328891668e-06</v>
       </c>
       <c r="E88" t="n">
-        <v>0.06815080896165249</v>
+        <v>0.09794543681695854</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0001225671346764978</v>
+        <v>0.0001659692338115184</v>
       </c>
       <c r="G88" t="n">
-        <v>1.054183857050816e-11</v>
+        <v>3.63773242485774e-11</v>
       </c>
       <c r="H88" t="n">
-        <v>1.963953135731204e-06</v>
+        <v>2.04175751921772e-05</v>
       </c>
       <c r="I88" t="n">
-        <v>2.900280076666024e-05</v>
+        <v>3.43390808996262e-05</v>
       </c>
       <c r="J88" t="n">
-        <v>7.396632383532368e-08</v>
+        <v>9.741816976789472e-07</v>
       </c>
       <c r="K88" t="n">
-        <v>8.030378838650908e-07</v>
+        <v>2.389920745200015e-06</v>
       </c>
       <c r="L88" t="n">
-        <v>5.467944716069453e-08</v>
+        <v>2.30163350409424e-08</v>
       </c>
       <c r="M88" t="n">
-        <v>1.266437451968623e-11</v>
+        <v>4.772146839147818e-11</v>
       </c>
       <c r="N88" t="n">
-        <v>7.918611014385015e-05</v>
+        <v>0.0004250722530118487</v>
       </c>
       <c r="O88" t="n">
-        <v>4.856537517453143e-13</v>
+        <v>1.3693846201198e-12</v>
       </c>
       <c r="P88" t="n">
-        <v>7.853676629163474e-12</v>
+        <v>7.368595864682903e-11</v>
       </c>
       <c r="Q88" t="n">
-        <v>9.020658922930775e-06</v>
+        <v>1.095910093403577e-05</v>
       </c>
       <c r="R88" t="n">
-        <v>0.01293996504334653</v>
+        <v>0.008750786268178571</v>
       </c>
       <c r="S88" t="n">
-        <v>2.773895275357614e-05</v>
+        <v>4.462251104769124e-06</v>
       </c>
       <c r="T88" t="n">
-        <v>0.9186324929961495</v>
+        <v>0.8926156439615044</v>
       </c>
       <c r="U88" t="n">
-        <v>0.9186324929961495</v>
+        <v>0.8926156439615044</v>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -7253,68 +7253,68 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77913.fa</t>
+          <t>even_MAG-GUT72738.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2.870314074135928e-07</v>
+        <v>8.691386666261087e-07</v>
       </c>
       <c r="C89" t="n">
-        <v>2.209911040356737e-07</v>
+        <v>6.211407432285857e-09</v>
       </c>
       <c r="D89" t="n">
-        <v>1.372013374623277e-06</v>
+        <v>4.59254869144892e-07</v>
       </c>
       <c r="E89" t="n">
-        <v>0.01682540483708202</v>
+        <v>0.2700820517985631</v>
       </c>
       <c r="F89" t="n">
-        <v>5.377890768169002e-05</v>
+        <v>0.0003986104445471219</v>
       </c>
       <c r="G89" t="n">
-        <v>3.425707705372853e-12</v>
+        <v>6.856058568713373e-11</v>
       </c>
       <c r="H89" t="n">
-        <v>3.587917283885758e-06</v>
+        <v>6.051714705425049e-08</v>
       </c>
       <c r="I89" t="n">
-        <v>1.445249992590796e-05</v>
+        <v>2.23268935737905e-06</v>
       </c>
       <c r="J89" t="n">
-        <v>3.62808395577491e-08</v>
+        <v>1.960443770329555e-07</v>
       </c>
       <c r="K89" t="n">
-        <v>1.463227793225584e-07</v>
+        <v>3.729289853448223e-07</v>
       </c>
       <c r="L89" t="n">
-        <v>1.77943579494883e-09</v>
+        <v>8.792417973508453e-09</v>
       </c>
       <c r="M89" t="n">
-        <v>1.593013441919871e-11</v>
+        <v>9.909207704710248e-13</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0001156212588002813</v>
+        <v>8.775455911993869e-05</v>
       </c>
       <c r="O89" t="n">
-        <v>2.608757288131814e-13</v>
+        <v>2.220298400862483e-14</v>
       </c>
       <c r="P89" t="n">
-        <v>4.050075885955057e-12</v>
+        <v>7.588555806563235e-14</v>
       </c>
       <c r="Q89" t="n">
-        <v>3.777916193487969e-06</v>
+        <v>7.151815457099784e-06</v>
       </c>
       <c r="R89" t="n">
-        <v>0.03118322297216284</v>
+        <v>0.0004554953975004745</v>
       </c>
       <c r="S89" t="n">
-        <v>2.823257921265908e-05</v>
+        <v>7.884568020195285e-08</v>
       </c>
       <c r="T89" t="n">
-        <v>0.9517698566690497</v>
+        <v>0.7289646514922544</v>
       </c>
       <c r="U89" t="n">
-        <v>0.9517698566690497</v>
+        <v>0.7289646514922544</v>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -7330,145 +7330,145 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7808.fa</t>
+          <t>even_MAG-GUT73031.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4.373110590404515e-06</v>
+        <v>2.574162622893357e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>1.307443683927791e-07</v>
+        <v>1.49187838962693e-07</v>
       </c>
       <c r="D90" t="n">
-        <v>9.74760615901424e-07</v>
+        <v>3.629178124544648e-07</v>
       </c>
       <c r="E90" t="n">
-        <v>0.454842235445227</v>
+        <v>0.6135022508113251</v>
       </c>
       <c r="F90" t="n">
-        <v>0.001043869133129307</v>
+        <v>0.001198427852548626</v>
       </c>
       <c r="G90" t="n">
-        <v>3.467414033004529e-10</v>
+        <v>1.228315946919962e-09</v>
       </c>
       <c r="H90" t="n">
-        <v>4.494533453086796e-08</v>
+        <v>2.634901594011143e-08</v>
       </c>
       <c r="I90" t="n">
-        <v>2.677990742120837e-06</v>
+        <v>2.725679726007547e-06</v>
       </c>
       <c r="J90" t="n">
-        <v>3.679279595536657e-06</v>
+        <v>4.66195985284115e-06</v>
       </c>
       <c r="K90" t="n">
-        <v>3.652483809084484e-07</v>
+        <v>2.368682537802676e-06</v>
       </c>
       <c r="L90" t="n">
-        <v>3.926035052729691e-07</v>
+        <v>7.958722899257495e-07</v>
       </c>
       <c r="M90" t="n">
-        <v>1.371851049781036e-11</v>
+        <v>2.301324690317744e-11</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0003752257818782461</v>
+        <v>0.0001468540210288077</v>
       </c>
       <c r="O90" t="n">
-        <v>4.041597198043917e-13</v>
+        <v>2.209199408699049e-12</v>
       </c>
       <c r="P90" t="n">
-        <v>3.178991750895664e-13</v>
+        <v>2.785973449245372e-13</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.111508188554254e-05</v>
+        <v>1.175565699560503e-05</v>
       </c>
       <c r="R90" t="n">
-        <v>0.0002069742549215248</v>
+        <v>0.0001007122418250173</v>
       </c>
       <c r="S90" t="n">
-        <v>3.217380413817768e-07</v>
+        <v>2.959593147267349e-07</v>
       </c>
       <c r="T90" t="n">
-        <v>0.5435076195206019</v>
+        <v>0.3850028699278423</v>
       </c>
       <c r="U90" t="n">
-        <v>0.5435076195206019</v>
+        <v>0.6135022508113251</v>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-724</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-724</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78681.fa</t>
+          <t>even_MAG-GUT74537.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.089263644765744e-06</v>
+        <v>9.759703552263683e-07</v>
       </c>
       <c r="C91" t="n">
-        <v>8.86286596473588e-06</v>
+        <v>1.548048860925303e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>8.088422114443061e-07</v>
+        <v>3.79765403577619e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>0.00282315557042946</v>
+        <v>0.06815080896165249</v>
       </c>
       <c r="F91" t="n">
-        <v>4.851133639712628e-05</v>
+        <v>0.0001225671346764978</v>
       </c>
       <c r="G91" t="n">
-        <v>8.46729648228269e-12</v>
+        <v>1.054183857050816e-11</v>
       </c>
       <c r="H91" t="n">
-        <v>5.045520346672216e-06</v>
+        <v>1.963953135731204e-06</v>
       </c>
       <c r="I91" t="n">
-        <v>1.954371048595942e-05</v>
+        <v>2.900280076666024e-05</v>
       </c>
       <c r="J91" t="n">
-        <v>5.67777809724677e-08</v>
+        <v>7.396632383532368e-08</v>
       </c>
       <c r="K91" t="n">
-        <v>7.030842027695304e-08</v>
+        <v>8.030378838650908e-07</v>
       </c>
       <c r="L91" t="n">
-        <v>1.906602565941809e-09</v>
+        <v>5.467944716069453e-08</v>
       </c>
       <c r="M91" t="n">
-        <v>4.070673125584254e-11</v>
+        <v>1.266437451968623e-11</v>
       </c>
       <c r="N91" t="n">
-        <v>4.931623661976169e-05</v>
+        <v>7.918611014385015e-05</v>
       </c>
       <c r="O91" t="n">
-        <v>1.457311482025491e-12</v>
+        <v>4.856537517453143e-13</v>
       </c>
       <c r="P91" t="n">
-        <v>3.610222194169293e-11</v>
+        <v>7.853676629163474e-12</v>
       </c>
       <c r="Q91" t="n">
-        <v>6.754803317736287e-06</v>
+        <v>9.020658922930775e-06</v>
       </c>
       <c r="R91" t="n">
-        <v>0.07498508027101586</v>
+        <v>0.01293996504334653</v>
       </c>
       <c r="S91" t="n">
-        <v>2.623452703820446e-05</v>
+        <v>2.773895275357614e-05</v>
       </c>
       <c r="T91" t="n">
-        <v>0.9220254679729909</v>
+        <v>0.9186324929961495</v>
       </c>
       <c r="U91" t="n">
-        <v>0.9220254679729909</v>
+        <v>0.9186324929961495</v>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -7484,68 +7484,68 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78853.fa</t>
+          <t>even_MAG-GUT77913.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3.424912619273923e-06</v>
+        <v>2.870314074135928e-07</v>
       </c>
       <c r="C92" t="n">
-        <v>5.449571670724197e-08</v>
+        <v>2.209911040356737e-07</v>
       </c>
       <c r="D92" t="n">
-        <v>6.672775163054732e-07</v>
+        <v>1.372013374623277e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3316256951002223</v>
+        <v>0.01682540483708202</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0003235083741220384</v>
+        <v>5.377890768169002e-05</v>
       </c>
       <c r="G92" t="n">
-        <v>1.259123535166947e-10</v>
+        <v>3.425707705372853e-12</v>
       </c>
       <c r="H92" t="n">
-        <v>6.093159376119909e-08</v>
+        <v>3.587917283885758e-06</v>
       </c>
       <c r="I92" t="n">
-        <v>2.96065362773763e-06</v>
+        <v>1.445249992590796e-05</v>
       </c>
       <c r="J92" t="n">
-        <v>1.073718208987743e-06</v>
+        <v>3.62808395577491e-08</v>
       </c>
       <c r="K92" t="n">
-        <v>1.673810581445678e-06</v>
+        <v>1.463227793225584e-07</v>
       </c>
       <c r="L92" t="n">
-        <v>2.011454824904088e-08</v>
+        <v>1.77943579494883e-09</v>
       </c>
       <c r="M92" t="n">
-        <v>8.729407306587034e-12</v>
+        <v>1.593013441919871e-11</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0003217011540132542</v>
+        <v>0.0001156212588002813</v>
       </c>
       <c r="O92" t="n">
-        <v>3.371977867528806e-13</v>
+        <v>2.608757288131814e-13</v>
       </c>
       <c r="P92" t="n">
-        <v>8.357341081125222e-13</v>
+        <v>4.050075885955057e-12</v>
       </c>
       <c r="Q92" t="n">
-        <v>3.314259287666373e-06</v>
+        <v>3.777916193487969e-06</v>
       </c>
       <c r="R92" t="n">
-        <v>0.0001365624240600145</v>
+        <v>0.03118322297216284</v>
       </c>
       <c r="S92" t="n">
-        <v>3.114182435436762e-07</v>
+        <v>2.823257921265908e-05</v>
       </c>
       <c r="T92" t="n">
-        <v>0.6675789712198239</v>
+        <v>0.9517698566690497</v>
       </c>
       <c r="U92" t="n">
-        <v>0.6675789712198239</v>
+        <v>0.9517698566690497</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -7561,68 +7561,68 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79248.fa</t>
+          <t>even_MAG-GUT7808.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.002096348685594425</v>
+        <v>4.373110590404515e-06</v>
       </c>
       <c r="C93" t="n">
-        <v>0.001194361019520657</v>
+        <v>1.307443683927791e-07</v>
       </c>
       <c r="D93" t="n">
-        <v>1.232598984747041e-05</v>
+        <v>9.74760615901424e-07</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2302389464626995</v>
+        <v>0.454842235445227</v>
       </c>
       <c r="F93" t="n">
-        <v>0.003401888846844787</v>
+        <v>0.001043869133129307</v>
       </c>
       <c r="G93" t="n">
-        <v>2.068605922639897e-07</v>
+        <v>3.467414033004529e-10</v>
       </c>
       <c r="H93" t="n">
-        <v>0.009686949651742428</v>
+        <v>4.494533453086796e-08</v>
       </c>
       <c r="I93" t="n">
-        <v>0.005586164128922268</v>
+        <v>2.677990742120837e-06</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01284551852123279</v>
+        <v>3.679279595536657e-06</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04908847245909909</v>
+        <v>3.652483809084484e-07</v>
       </c>
       <c r="L93" t="n">
-        <v>1.801208304400419e-05</v>
+        <v>3.926035052729691e-07</v>
       </c>
       <c r="M93" t="n">
-        <v>4.85382411170112e-06</v>
+        <v>1.371851049781036e-11</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02992030148163739</v>
+        <v>0.0003752257818782461</v>
       </c>
       <c r="O93" t="n">
-        <v>6.370988956390019e-05</v>
+        <v>4.041597198043917e-13</v>
       </c>
       <c r="P93" t="n">
-        <v>4.05462553331075e-07</v>
+        <v>3.178991750895664e-13</v>
       </c>
       <c r="Q93" t="n">
-        <v>3.769701440352952e-06</v>
+        <v>1.111508188554254e-05</v>
       </c>
       <c r="R93" t="n">
-        <v>0.02215017458196497</v>
+        <v>0.0002069742549215248</v>
       </c>
       <c r="S93" t="n">
-        <v>0.0913150008770032</v>
+        <v>3.217380413817768e-07</v>
       </c>
       <c r="T93" t="n">
-        <v>0.5423725894725855</v>
+        <v>0.5435076195206019</v>
       </c>
       <c r="U93" t="n">
-        <v>0.5423725894725855</v>
+        <v>0.5435076195206019</v>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -7638,68 +7638,68 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79275.fa</t>
+          <t>even_MAG-GUT78681.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>9.775326298670302e-05</v>
+        <v>1.089263644765744e-06</v>
       </c>
       <c r="C94" t="n">
-        <v>1.821592074173059e-05</v>
+        <v>8.86286596473588e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>7.734419270230465e-06</v>
+        <v>8.088422114443061e-07</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1447338611349606</v>
+        <v>0.00282315557042946</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0001756668338031799</v>
+        <v>4.851133639712628e-05</v>
       </c>
       <c r="G94" t="n">
-        <v>1.71324946321474e-09</v>
+        <v>8.46729648228269e-12</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0001520499983642736</v>
+        <v>5.045520346672216e-06</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0002735606379818755</v>
+        <v>1.954371048595942e-05</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0003372890633395153</v>
+        <v>5.67777809724677e-08</v>
       </c>
       <c r="K94" t="n">
-        <v>0.004620777167215944</v>
+        <v>7.030842027695304e-08</v>
       </c>
       <c r="L94" t="n">
-        <v>4.431223537208351e-07</v>
+        <v>1.906602565941809e-09</v>
       </c>
       <c r="M94" t="n">
-        <v>4.486329224117666e-08</v>
+        <v>4.070673125584254e-11</v>
       </c>
       <c r="N94" t="n">
-        <v>0.007423008541301069</v>
+        <v>4.931623661976169e-05</v>
       </c>
       <c r="O94" t="n">
-        <v>2.346326779700044e-07</v>
+        <v>1.457311482025491e-12</v>
       </c>
       <c r="P94" t="n">
-        <v>3.470368987172433e-09</v>
+        <v>3.610222194169293e-11</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.437647482193073e-06</v>
+        <v>6.754803317736287e-06</v>
       </c>
       <c r="R94" t="n">
-        <v>0.03223292474097057</v>
+        <v>0.07498508027101586</v>
       </c>
       <c r="S94" t="n">
-        <v>0.0462919649818545</v>
+        <v>2.623452703820446e-05</v>
       </c>
       <c r="T94" t="n">
-        <v>0.7636330278477852</v>
+        <v>0.9220254679729909</v>
       </c>
       <c r="U94" t="n">
-        <v>0.7636330278477852</v>
+        <v>0.9220254679729909</v>
       </c>
       <c r="V94" t="inlineStr">
         <is>
@@ -7715,145 +7715,145 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79289.fa</t>
+          <t>even_MAG-GUT78853.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0001122069492971161</v>
+        <v>3.424912619273923e-06</v>
       </c>
       <c r="C95" t="n">
-        <v>3.34005687042468e-06</v>
+        <v>5.449571670724197e-08</v>
       </c>
       <c r="D95" t="n">
-        <v>6.532028321021957e-07</v>
+        <v>6.672775163054732e-07</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5889801108170502</v>
+        <v>0.3316256951002223</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0003937135444949253</v>
+        <v>0.0003235083741220384</v>
       </c>
       <c r="G95" t="n">
-        <v>1.842077632864937e-09</v>
+        <v>1.259123535166947e-10</v>
       </c>
       <c r="H95" t="n">
-        <v>3.956081477229283e-07</v>
+        <v>6.093159376119909e-08</v>
       </c>
       <c r="I95" t="n">
-        <v>1.121775108461482e-05</v>
+        <v>2.96065362773763e-06</v>
       </c>
       <c r="J95" t="n">
-        <v>9.7049544439348e-05</v>
+        <v>1.073718208987743e-06</v>
       </c>
       <c r="K95" t="n">
-        <v>1.02656767388578e-05</v>
+        <v>1.673810581445678e-06</v>
       </c>
       <c r="L95" t="n">
-        <v>1.015084212160793e-06</v>
+        <v>2.011454824904088e-08</v>
       </c>
       <c r="M95" t="n">
-        <v>1.255010065458641e-09</v>
+        <v>8.729407306587034e-12</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0003524314032527528</v>
+        <v>0.0003217011540132542</v>
       </c>
       <c r="O95" t="n">
-        <v>4.591708099727254e-11</v>
+        <v>3.371977867528806e-13</v>
       </c>
       <c r="P95" t="n">
-        <v>1.313324591078488e-11</v>
+        <v>8.357341081125222e-13</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.152745021981723e-06</v>
+        <v>3.314259287666373e-06</v>
       </c>
       <c r="R95" t="n">
-        <v>0.0002333076414439166</v>
+        <v>0.0001365624240600145</v>
       </c>
       <c r="S95" t="n">
-        <v>2.676172531381396e-06</v>
+        <v>3.114182435436762e-07</v>
       </c>
       <c r="T95" t="n">
-        <v>0.4097994606464444</v>
+        <v>0.6675789712198239</v>
       </c>
       <c r="U95" t="n">
-        <v>0.5889801108170502</v>
+        <v>0.6675789712198239</v>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__UMGS911</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79304.fa</t>
+          <t>even_MAG-GUT79248.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4.589241620537705e-05</v>
+        <v>0.002096348685594425</v>
       </c>
       <c r="C96" t="n">
-        <v>9.156278886684913e-08</v>
+        <v>0.001194361019520657</v>
       </c>
       <c r="D96" t="n">
-        <v>5.775794598538197e-07</v>
+        <v>1.232598984747041e-05</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3172438040372376</v>
+        <v>0.2302389464626995</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00011722668169541</v>
+        <v>0.003401888846844787</v>
       </c>
       <c r="G96" t="n">
-        <v>4.962605153827768e-10</v>
+        <v>2.068605922639897e-07</v>
       </c>
       <c r="H96" t="n">
-        <v>1.098894421394517e-06</v>
+        <v>0.009686949651742428</v>
       </c>
       <c r="I96" t="n">
-        <v>6.504895162954532e-06</v>
+        <v>0.005586164128922268</v>
       </c>
       <c r="J96" t="n">
-        <v>2.263287921008865e-05</v>
+        <v>0.01284551852123279</v>
       </c>
       <c r="K96" t="n">
-        <v>1.105731567242466e-05</v>
+        <v>0.04908847245909909</v>
       </c>
       <c r="L96" t="n">
-        <v>6.390237729385248e-07</v>
+        <v>1.801208304400419e-05</v>
       </c>
       <c r="M96" t="n">
-        <v>7.013648696414779e-11</v>
+        <v>4.85382411170112e-06</v>
       </c>
       <c r="N96" t="n">
-        <v>0.001447092893448647</v>
+        <v>0.02992030148163739</v>
       </c>
       <c r="O96" t="n">
-        <v>7.796819057861629e-11</v>
+        <v>6.370988956390019e-05</v>
       </c>
       <c r="P96" t="n">
-        <v>4.691647948471529e-12</v>
+        <v>4.05462553331075e-07</v>
       </c>
       <c r="Q96" t="n">
-        <v>3.39917619677503e-07</v>
+        <v>3.769701440352952e-06</v>
       </c>
       <c r="R96" t="n">
-        <v>6.579261154256425e-05</v>
+        <v>0.02215017458196497</v>
       </c>
       <c r="S96" t="n">
-        <v>9.144574443910885e-07</v>
+        <v>0.0913150008770032</v>
       </c>
       <c r="T96" t="n">
-        <v>0.6810363341852611</v>
+        <v>0.5423725894725855</v>
       </c>
       <c r="U96" t="n">
-        <v>0.6810363341852611</v>
+        <v>0.5423725894725855</v>
       </c>
       <c r="V96" t="inlineStr">
         <is>
@@ -7869,68 +7869,68 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79312.fa</t>
+          <t>even_MAG-GUT79275.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4.066174982495613e-08</v>
+        <v>9.775326298670302e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>7.475349465101753e-07</v>
+        <v>1.821592074173059e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>6.021739768032728e-07</v>
+        <v>7.734419270230465e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004468474644809065</v>
+        <v>0.1447338611349606</v>
       </c>
       <c r="F97" t="n">
-        <v>7.907994231469117e-06</v>
+        <v>0.0001756668338031799</v>
       </c>
       <c r="G97" t="n">
-        <v>5.868891984783665e-13</v>
+        <v>1.71324946321474e-09</v>
       </c>
       <c r="H97" t="n">
-        <v>4.807167491937875e-06</v>
+        <v>0.0001520499983642736</v>
       </c>
       <c r="I97" t="n">
-        <v>8.43857857292889e-06</v>
+        <v>0.0002735606379818755</v>
       </c>
       <c r="J97" t="n">
-        <v>1.263449286904959e-08</v>
+        <v>0.0003372890633395153</v>
       </c>
       <c r="K97" t="n">
-        <v>1.874606033665581e-08</v>
+        <v>0.004620777167215944</v>
       </c>
       <c r="L97" t="n">
-        <v>3.827148907385841e-11</v>
+        <v>4.431223537208351e-07</v>
       </c>
       <c r="M97" t="n">
-        <v>7.773200913347746e-12</v>
+        <v>4.486329224117666e-08</v>
       </c>
       <c r="N97" t="n">
-        <v>1.306280708917717e-05</v>
+        <v>0.007423008541301069</v>
       </c>
       <c r="O97" t="n">
-        <v>2.220205604284198e-14</v>
+        <v>2.346326779700044e-07</v>
       </c>
       <c r="P97" t="n">
-        <v>4.189448377112015e-12</v>
+        <v>3.470368987172433e-09</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.620535614206264e-06</v>
+        <v>1.437647482193073e-06</v>
       </c>
       <c r="R97" t="n">
-        <v>0.06746300354794135</v>
+        <v>0.03223292474097057</v>
       </c>
       <c r="S97" t="n">
-        <v>0.0001219979511457341</v>
+        <v>0.0462919649818545</v>
       </c>
       <c r="T97" t="n">
-        <v>0.9279092649710345</v>
+        <v>0.7636330278477852</v>
       </c>
       <c r="U97" t="n">
-        <v>0.9279092649710345</v>
+        <v>0.7636330278477852</v>
       </c>
       <c r="V97" t="inlineStr">
         <is>
@@ -7946,145 +7946,145 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79322.fa</t>
+          <t>even_MAG-GUT79289.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>6.681102265363427e-05</v>
+        <v>0.0001122069492971161</v>
       </c>
       <c r="C98" t="n">
-        <v>2.825114524669808e-07</v>
+        <v>3.34005687042468e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>3.913671660453735e-06</v>
+        <v>6.532028321021957e-07</v>
       </c>
       <c r="E98" t="n">
-        <v>0.365971509804491</v>
+        <v>0.5889801108170502</v>
       </c>
       <c r="F98" t="n">
-        <v>4.383197328642608e-05</v>
+        <v>0.0003937135444949253</v>
       </c>
       <c r="G98" t="n">
-        <v>4.439114058112534e-10</v>
+        <v>1.842077632864937e-09</v>
       </c>
       <c r="H98" t="n">
-        <v>2.581150031090056e-06</v>
+        <v>3.956081477229283e-07</v>
       </c>
       <c r="I98" t="n">
-        <v>2.034440154664223e-05</v>
+        <v>1.121775108461482e-05</v>
       </c>
       <c r="J98" t="n">
-        <v>6.363890009250535e-05</v>
+        <v>9.7049544439348e-05</v>
       </c>
       <c r="K98" t="n">
-        <v>2.742255746750599e-05</v>
+        <v>1.02656767388578e-05</v>
       </c>
       <c r="L98" t="n">
-        <v>2.171912857321202e-06</v>
+        <v>1.015084212160793e-06</v>
       </c>
       <c r="M98" t="n">
-        <v>4.570743267309288e-09</v>
+        <v>1.255010065458641e-09</v>
       </c>
       <c r="N98" t="n">
-        <v>0.01414393230804562</v>
+        <v>0.0003524314032527528</v>
       </c>
       <c r="O98" t="n">
-        <v>9.534650834480993e-11</v>
+        <v>4.591708099727254e-11</v>
       </c>
       <c r="P98" t="n">
-        <v>1.243961272040361e-10</v>
+        <v>1.313324591078488e-11</v>
       </c>
       <c r="Q98" t="n">
-        <v>6.010079395713961e-07</v>
+        <v>2.152745021981723e-06</v>
       </c>
       <c r="R98" t="n">
-        <v>0.0005676184827718763</v>
+        <v>0.0002333076414439166</v>
       </c>
       <c r="S98" t="n">
-        <v>7.754621692618596e-06</v>
+        <v>2.676172531381396e-06</v>
       </c>
       <c r="T98" t="n">
-        <v>0.6190775804396139</v>
+        <v>0.4097994606464444</v>
       </c>
       <c r="U98" t="n">
-        <v>0.6190775804396139</v>
+        <v>0.5889801108170502</v>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-724</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__CAG-724</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79351.fa</t>
+          <t>even_MAG-GUT79304.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.091038185397958e-06</v>
+        <v>4.589241620537705e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1.533455623191267e-08</v>
+        <v>9.156278886684913e-08</v>
       </c>
       <c r="D99" t="n">
-        <v>9.687894288524367e-07</v>
+        <v>5.775794598538197e-07</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4799675894081808</v>
+        <v>0.3172438040372376</v>
       </c>
       <c r="F99" t="n">
-        <v>1.103065394523374e-05</v>
+        <v>0.00011722668169541</v>
       </c>
       <c r="G99" t="n">
-        <v>2.87439637663236e-11</v>
+        <v>4.962605153827768e-10</v>
       </c>
       <c r="H99" t="n">
-        <v>1.996913930012776e-07</v>
+        <v>1.098894421394517e-06</v>
       </c>
       <c r="I99" t="n">
-        <v>2.928431656479099e-06</v>
+        <v>6.504895162954532e-06</v>
       </c>
       <c r="J99" t="n">
-        <v>6.61723331610997e-07</v>
+        <v>2.263287921008865e-05</v>
       </c>
       <c r="K99" t="n">
-        <v>3.018600396083959e-06</v>
+        <v>1.105731567242466e-05</v>
       </c>
       <c r="L99" t="n">
-        <v>1.738114711062645e-08</v>
+        <v>6.390237729385248e-07</v>
       </c>
       <c r="M99" t="n">
-        <v>1.265156382587868e-11</v>
+        <v>7.013648696414779e-11</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0006723563487432463</v>
+        <v>0.001447092893448647</v>
       </c>
       <c r="O99" t="n">
-        <v>3.824818149579321e-13</v>
+        <v>7.796819057861629e-11</v>
       </c>
       <c r="P99" t="n">
-        <v>3.841681354756454e-13</v>
+        <v>4.691647948471529e-12</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.193163881514727e-06</v>
+        <v>3.39917619677503e-07</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0001434373649340633</v>
+        <v>6.579261154256425e-05</v>
       </c>
       <c r="S99" t="n">
-        <v>1.814077878739486e-07</v>
+        <v>9.144574443910885e-07</v>
       </c>
       <c r="T99" t="n">
-        <v>0.5191943106202702</v>
+        <v>0.6810363341852611</v>
       </c>
       <c r="U99" t="n">
-        <v>0.5191943106202702</v>
+        <v>0.6810363341852611</v>
       </c>
       <c r="V99" t="inlineStr">
         <is>
@@ -8100,68 +8100,68 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT79767.fa</t>
+          <t>even_MAG-GUT79312.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.663396835452492e-06</v>
+        <v>4.066174982495613e-08</v>
       </c>
       <c r="C100" t="n">
-        <v>3.565247750450028e-09</v>
+        <v>7.475349465101753e-07</v>
       </c>
       <c r="D100" t="n">
-        <v>2.538144115204424e-06</v>
+        <v>6.021739768032728e-07</v>
       </c>
       <c r="E100" t="n">
-        <v>0.07652806765827247</v>
+        <v>0.004468474644809065</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0001568554328511549</v>
+        <v>7.907994231469117e-06</v>
       </c>
       <c r="G100" t="n">
-        <v>1.462615513007597e-11</v>
+        <v>5.868891984783665e-13</v>
       </c>
       <c r="H100" t="n">
-        <v>1.267770266640381e-06</v>
+        <v>4.807167491937875e-06</v>
       </c>
       <c r="I100" t="n">
-        <v>1.367892402060053e-05</v>
+        <v>8.43857857292889e-06</v>
       </c>
       <c r="J100" t="n">
-        <v>7.983036756107614e-08</v>
+        <v>1.263449286904959e-08</v>
       </c>
       <c r="K100" t="n">
-        <v>1.437615963977141e-06</v>
+        <v>1.874606033665581e-08</v>
       </c>
       <c r="L100" t="n">
-        <v>6.10479937124558e-08</v>
+        <v>3.827148907385841e-11</v>
       </c>
       <c r="M100" t="n">
-        <v>1.723920637117425e-12</v>
+        <v>7.773200913347746e-12</v>
       </c>
       <c r="N100" t="n">
-        <v>0.001282850269698775</v>
+        <v>1.306280708917717e-05</v>
       </c>
       <c r="O100" t="n">
-        <v>5.64845583152286e-13</v>
+        <v>2.220205604284198e-14</v>
       </c>
       <c r="P100" t="n">
-        <v>1.190217029967804e-12</v>
+        <v>4.189448377112015e-12</v>
       </c>
       <c r="Q100" t="n">
-        <v>3.027084975807349e-06</v>
+        <v>1.620535614206264e-06</v>
       </c>
       <c r="R100" t="n">
-        <v>0.002074558551689327</v>
+        <v>0.06746300354794135</v>
       </c>
       <c r="S100" t="n">
-        <v>2.138461493900556e-06</v>
+        <v>0.0001219979511457341</v>
       </c>
       <c r="T100" t="n">
-        <v>0.9199317722281025</v>
+        <v>0.9279092649710345</v>
       </c>
       <c r="U100" t="n">
-        <v>0.9199317722281025</v>
+        <v>0.9279092649710345</v>
       </c>
       <c r="V100" t="inlineStr">
         <is>
@@ -8177,68 +8177,68 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT82014.fa</t>
+          <t>even_MAG-GUT79322.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.62905474010539e-07</v>
+        <v>6.681102265363427e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>8.593045266533528e-08</v>
+        <v>2.825114524669808e-07</v>
       </c>
       <c r="D101" t="n">
-        <v>1.02076413171056e-06</v>
+        <v>3.913671660453735e-06</v>
       </c>
       <c r="E101" t="n">
-        <v>0.01746885839348946</v>
+        <v>0.365971509804491</v>
       </c>
       <c r="F101" t="n">
-        <v>4.849855977170054e-05</v>
+        <v>4.383197328642608e-05</v>
       </c>
       <c r="G101" t="n">
-        <v>5.252926883507966e-12</v>
+        <v>4.439114058112534e-10</v>
       </c>
       <c r="H101" t="n">
-        <v>9.178998852883838e-06</v>
+        <v>2.581150031090056e-06</v>
       </c>
       <c r="I101" t="n">
-        <v>3.510208189635918e-05</v>
+        <v>2.034440154664223e-05</v>
       </c>
       <c r="J101" t="n">
-        <v>8.596960385018055e-09</v>
+        <v>6.363890009250535e-05</v>
       </c>
       <c r="K101" t="n">
-        <v>1.507873778237488e-07</v>
+        <v>2.742255746750599e-05</v>
       </c>
       <c r="L101" t="n">
-        <v>3.238457326111769e-09</v>
+        <v>2.171912857321202e-06</v>
       </c>
       <c r="M101" t="n">
-        <v>1.0337489404349e-12</v>
+        <v>4.570743267309288e-09</v>
       </c>
       <c r="N101" t="n">
-        <v>2.668002098592116e-05</v>
+        <v>0.01414393230804562</v>
       </c>
       <c r="O101" t="n">
-        <v>2.432209660736965e-13</v>
+        <v>9.534650834480993e-11</v>
       </c>
       <c r="P101" t="n">
-        <v>6.094761171226238e-12</v>
+        <v>1.243961272040361e-10</v>
       </c>
       <c r="Q101" t="n">
-        <v>3.664506300477766e-06</v>
+        <v>6.010079395713961e-07</v>
       </c>
       <c r="R101" t="n">
-        <v>0.02831785038851412</v>
+        <v>0.0005676184827718763</v>
       </c>
       <c r="S101" t="n">
-        <v>4.119014698201485e-05</v>
+        <v>7.754621692618596e-06</v>
       </c>
       <c r="T101" t="n">
-        <v>0.9540474446677284</v>
+        <v>0.6190775804396139</v>
       </c>
       <c r="U101" t="n">
-        <v>0.9540474446677284</v>
+        <v>0.6190775804396139</v>
       </c>
       <c r="V101" t="inlineStr">
         <is>
@@ -8254,68 +8254,68 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83117.fa</t>
+          <t>even_MAG-GUT79351.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1.790568463963871e-06</v>
+        <v>2.091038185397958e-06</v>
       </c>
       <c r="C102" t="n">
-        <v>2.245249007461848e-06</v>
+        <v>1.533455623191267e-08</v>
       </c>
       <c r="D102" t="n">
-        <v>6.50345904674058e-06</v>
+        <v>9.687894288524367e-07</v>
       </c>
       <c r="E102" t="n">
-        <v>0.03319933425695679</v>
+        <v>0.4799675894081808</v>
       </c>
       <c r="F102" t="n">
-        <v>7.670657710804788e-05</v>
+        <v>1.103065394523374e-05</v>
       </c>
       <c r="G102" t="n">
-        <v>9.151418605837301e-12</v>
+        <v>2.87439637663236e-11</v>
       </c>
       <c r="H102" t="n">
-        <v>8.514735354132564e-05</v>
+        <v>1.996913930012776e-07</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0001433965585725569</v>
+        <v>2.928431656479099e-06</v>
       </c>
       <c r="J102" t="n">
-        <v>2.119844205736646e-07</v>
+        <v>6.61723331610997e-07</v>
       </c>
       <c r="K102" t="n">
-        <v>9.169116500886749e-07</v>
+        <v>3.018600396083959e-06</v>
       </c>
       <c r="L102" t="n">
-        <v>1.850923580998991e-07</v>
+        <v>1.738114711062645e-08</v>
       </c>
       <c r="M102" t="n">
-        <v>2.20066102114856e-10</v>
+        <v>1.265156382587868e-11</v>
       </c>
       <c r="N102" t="n">
-        <v>0.000435052260277269</v>
+        <v>0.0006723563487432463</v>
       </c>
       <c r="O102" t="n">
-        <v>5.578641720499735e-12</v>
+        <v>3.824818149579321e-13</v>
       </c>
       <c r="P102" t="n">
-        <v>2.793519900070878e-10</v>
+        <v>3.841681354756454e-13</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.382861972333561e-05</v>
+        <v>1.193163881514727e-06</v>
       </c>
       <c r="R102" t="n">
-        <v>0.0644796891294242</v>
+        <v>0.0001434373649340633</v>
       </c>
       <c r="S102" t="n">
-        <v>0.0003655586878417241</v>
+        <v>1.814077878739486e-07</v>
       </c>
       <c r="T102" t="n">
-        <v>0.9011894327774597</v>
+        <v>0.5191943106202702</v>
       </c>
       <c r="U102" t="n">
-        <v>0.9011894327774597</v>
+        <v>0.5191943106202702</v>
       </c>
       <c r="V102" t="inlineStr">
         <is>
@@ -8331,68 +8331,68 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83561.fa</t>
+          <t>even_MAG-GUT79767.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2.968312989336404e-07</v>
+        <v>1.663396835452492e-06</v>
       </c>
       <c r="C103" t="n">
-        <v>2.568438252140106e-10</v>
+        <v>3.565247750450028e-09</v>
       </c>
       <c r="D103" t="n">
-        <v>3.64352753089448e-07</v>
+        <v>2.538144115204424e-06</v>
       </c>
       <c r="E103" t="n">
-        <v>0.02555398785720988</v>
+        <v>0.07652806765827247</v>
       </c>
       <c r="F103" t="n">
-        <v>1.775655643053092e-05</v>
+        <v>0.0001568554328511549</v>
       </c>
       <c r="G103" t="n">
-        <v>3.151974929040749e-12</v>
+        <v>1.462615513007597e-11</v>
       </c>
       <c r="H103" t="n">
-        <v>7.760853653241415e-07</v>
+        <v>1.267770266640381e-06</v>
       </c>
       <c r="I103" t="n">
-        <v>3.241170546967723e-06</v>
+        <v>1.367892402060053e-05</v>
       </c>
       <c r="J103" t="n">
-        <v>1.178332992783176e-08</v>
+        <v>7.983036756107614e-08</v>
       </c>
       <c r="K103" t="n">
-        <v>1.407070640883582e-07</v>
+        <v>1.437615963977141e-06</v>
       </c>
       <c r="L103" t="n">
-        <v>2.542232562014482e-08</v>
+        <v>6.10479937124558e-08</v>
       </c>
       <c r="M103" t="n">
-        <v>3.434008895502916e-13</v>
+        <v>1.723920637117425e-12</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0001082406816205381</v>
+        <v>0.001282850269698775</v>
       </c>
       <c r="O103" t="n">
-        <v>1.539329415170108e-13</v>
+        <v>5.64845583152286e-13</v>
       </c>
       <c r="P103" t="n">
-        <v>1.966769633933775e-12</v>
+        <v>1.190217029967804e-12</v>
       </c>
       <c r="Q103" t="n">
-        <v>8.673207931602484e-07</v>
+        <v>3.027084975807349e-06</v>
       </c>
       <c r="R103" t="n">
-        <v>0.0005913523762000505</v>
+        <v>0.002074558551689327</v>
       </c>
       <c r="S103" t="n">
-        <v>2.244695146666257e-07</v>
+        <v>2.138461493900556e-06</v>
       </c>
       <c r="T103" t="n">
-        <v>0.9737227141230873</v>
+        <v>0.9199317722281025</v>
       </c>
       <c r="U103" t="n">
-        <v>0.9737227141230873</v>
+        <v>0.9199317722281025</v>
       </c>
       <c r="V103" t="inlineStr">
         <is>
@@ -8408,145 +8408,145 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83564.fa</t>
+          <t>even_MAG-GUT81432.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3.026911160208859e-08</v>
+        <v>0.3461576375367832</v>
       </c>
       <c r="C104" t="n">
-        <v>1.757590462190454e-07</v>
+        <v>7.908958724970473e-10</v>
       </c>
       <c r="D104" t="n">
-        <v>1.925493768687992e-07</v>
+        <v>0.0003557909463856292</v>
       </c>
       <c r="E104" t="n">
-        <v>0.09756257677539334</v>
+        <v>5.428835009376613e-05</v>
       </c>
       <c r="F104" t="n">
-        <v>3.300993220673862e-05</v>
+        <v>2.304225544037735e-05</v>
       </c>
       <c r="G104" t="n">
-        <v>2.295015680798322e-11</v>
+        <v>3.448112092817424e-10</v>
       </c>
       <c r="H104" t="n">
-        <v>1.924131008234338e-07</v>
+        <v>9.093444234907696e-05</v>
       </c>
       <c r="I104" t="n">
-        <v>9.911767083018801e-07</v>
+        <v>0.0001861740712099191</v>
       </c>
       <c r="J104" t="n">
-        <v>2.104217375464583e-08</v>
+        <v>0.0001337563982553552</v>
       </c>
       <c r="K104" t="n">
-        <v>7.138338980606225e-07</v>
+        <v>0.002526528945462355</v>
       </c>
       <c r="L104" t="n">
-        <v>9.079322936114802e-10</v>
+        <v>7.639090347904687e-06</v>
       </c>
       <c r="M104" t="n">
-        <v>1.969017387693746e-13</v>
+        <v>0.2414177376809486</v>
       </c>
       <c r="N104" t="n">
-        <v>7.934425937801927e-05</v>
+        <v>4.564169950938274e-05</v>
       </c>
       <c r="O104" t="n">
-        <v>3.257476674035571e-13</v>
+        <v>0.3708776890771829</v>
       </c>
       <c r="P104" t="n">
-        <v>7.980869331831246e-14</v>
+        <v>6.504879818262392e-07</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.330861801168767e-06</v>
+        <v>4.938256949235608e-05</v>
       </c>
       <c r="R104" t="n">
-        <v>5.626049777100382e-05</v>
+        <v>0.03740352590213982</v>
       </c>
       <c r="S104" t="n">
-        <v>4.325555747093669e-07</v>
+        <v>0.0001790004965963531</v>
       </c>
       <c r="T104" t="n">
-        <v>0.9022647271429746</v>
+        <v>0.0004905789141138673</v>
       </c>
       <c r="U104" t="n">
-        <v>0.9022647271429746</v>
+        <v>0.3708776890771829</v>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1865</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS1865</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84532.fa</t>
+          <t>even_MAG-GUT82014.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2.945756065979229e-06</v>
+        <v>2.62905474010539e-07</v>
       </c>
       <c r="C105" t="n">
-        <v>2.264594523350619e-08</v>
+        <v>8.593045266533528e-08</v>
       </c>
       <c r="D105" t="n">
-        <v>2.258404340744202e-06</v>
+        <v>1.02076413171056e-06</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1771544975267724</v>
+        <v>0.01746885839348946</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0006936926549220341</v>
+        <v>4.849855977170054e-05</v>
       </c>
       <c r="G105" t="n">
-        <v>6.508773745261371e-11</v>
+        <v>5.252926883507966e-12</v>
       </c>
       <c r="H105" t="n">
-        <v>3.763071222839768e-06</v>
+        <v>9.178998852883838e-06</v>
       </c>
       <c r="I105" t="n">
-        <v>1.398444785403021e-05</v>
+        <v>3.510208189635918e-05</v>
       </c>
       <c r="J105" t="n">
-        <v>2.95180946830176e-07</v>
+        <v>8.596960385018055e-09</v>
       </c>
       <c r="K105" t="n">
-        <v>1.675718035194957e-06</v>
+        <v>1.507873778237488e-07</v>
       </c>
       <c r="L105" t="n">
-        <v>2.732962824691176e-07</v>
+        <v>3.238457326111769e-09</v>
       </c>
       <c r="M105" t="n">
-        <v>2.912057248160024e-12</v>
+        <v>1.0337489404349e-12</v>
       </c>
       <c r="N105" t="n">
-        <v>0.002496535266893843</v>
+        <v>2.668002098592116e-05</v>
       </c>
       <c r="O105" t="n">
-        <v>2.59321541630046e-13</v>
+        <v>2.432209660736965e-13</v>
       </c>
       <c r="P105" t="n">
-        <v>3.278359528103963e-12</v>
+        <v>6.094761171226238e-12</v>
       </c>
       <c r="Q105" t="n">
-        <v>5.065512314768264e-06</v>
+        <v>3.664506300477766e-06</v>
       </c>
       <c r="R105" t="n">
-        <v>0.0006107588582742563</v>
+        <v>0.02831785038851412</v>
       </c>
       <c r="S105" t="n">
-        <v>5.8851378026678e-07</v>
+        <v>4.119014698201485e-05</v>
       </c>
       <c r="T105" t="n">
-        <v>0.8190136430748116</v>
+        <v>0.9540474446677284</v>
       </c>
       <c r="U105" t="n">
-        <v>0.8190136430748116</v>
+        <v>0.9540474446677284</v>
       </c>
       <c r="V105" t="inlineStr">
         <is>
@@ -8562,68 +8562,68 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84771.fa</t>
+          <t>even_MAG-GUT83117.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>8.347783127313324e-05</v>
+        <v>1.790568463963871e-06</v>
       </c>
       <c r="C106" t="n">
-        <v>1.226993237808672e-08</v>
+        <v>2.245249007461848e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>2.744292753276273e-06</v>
+        <v>6.50345904674058e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4815550158588286</v>
+        <v>0.03319933425695679</v>
       </c>
       <c r="F106" t="n">
-        <v>0.001661348296587888</v>
+        <v>7.670657710804788e-05</v>
       </c>
       <c r="G106" t="n">
-        <v>4.680857866731437e-10</v>
+        <v>9.151418605837301e-12</v>
       </c>
       <c r="H106" t="n">
-        <v>4.793191263309254e-08</v>
+        <v>8.514735354132564e-05</v>
       </c>
       <c r="I106" t="n">
-        <v>1.058461213560886e-05</v>
+        <v>0.0001433965585725569</v>
       </c>
       <c r="J106" t="n">
-        <v>2.575827175345191e-06</v>
+        <v>2.119844205736646e-07</v>
       </c>
       <c r="K106" t="n">
-        <v>6.994845332027969e-06</v>
+        <v>9.169116500886749e-07</v>
       </c>
       <c r="L106" t="n">
-        <v>1.548339936183726e-05</v>
+        <v>1.850923580998991e-07</v>
       </c>
       <c r="M106" t="n">
-        <v>4.21307263412943e-12</v>
+        <v>2.20066102114856e-10</v>
       </c>
       <c r="N106" t="n">
-        <v>0.007028234538050999</v>
+        <v>0.000435052260277269</v>
       </c>
       <c r="O106" t="n">
-        <v>2.688734464523422e-12</v>
+        <v>5.578641720499735e-12</v>
       </c>
       <c r="P106" t="n">
-        <v>3.513062719936532e-12</v>
+        <v>2.793519900070878e-10</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.546263019345431e-06</v>
+        <v>1.382861972333561e-05</v>
       </c>
       <c r="R106" t="n">
-        <v>0.0002956853979486834</v>
+        <v>0.0644796891294242</v>
       </c>
       <c r="S106" t="n">
-        <v>1.423093633653864e-07</v>
+        <v>0.0003655586878417241</v>
       </c>
       <c r="T106" t="n">
-        <v>0.5093351058478243</v>
+        <v>0.9011894327774597</v>
       </c>
       <c r="U106" t="n">
-        <v>0.5093351058478243</v>
+        <v>0.9011894327774597</v>
       </c>
       <c r="V106" t="inlineStr">
         <is>
@@ -8639,75 +8639,460 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT83561.fa</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2.968312989336404e-07</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.568438252140106e-10</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.64352753089448e-07</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.02555398785720988</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.775655643053092e-05</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3.151974929040749e-12</v>
+      </c>
+      <c r="H107" t="n">
+        <v>7.760853653241415e-07</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.241170546967723e-06</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.178332992783176e-08</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.407070640883582e-07</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2.542232562014482e-08</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3.434008895502916e-13</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.0001082406816205381</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1.539329415170108e-13</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1.966769633933775e-12</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>8.673207931602484e-07</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.0005913523762000505</v>
+      </c>
+      <c r="S107" t="n">
+        <v>2.244695146666257e-07</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.9737227141230873</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.9737227141230873</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT83564.fa</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>3.026911160208859e-08</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.757590462190454e-07</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.925493768687992e-07</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.09756257677539334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.300993220673862e-05</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2.295015680798322e-11</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.924131008234338e-07</v>
+      </c>
+      <c r="I108" t="n">
+        <v>9.911767083018801e-07</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.104217375464583e-08</v>
+      </c>
+      <c r="K108" t="n">
+        <v>7.138338980606225e-07</v>
+      </c>
+      <c r="L108" t="n">
+        <v>9.079322936114802e-10</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.969017387693746e-13</v>
+      </c>
+      <c r="N108" t="n">
+        <v>7.934425937801927e-05</v>
+      </c>
+      <c r="O108" t="n">
+        <v>3.257476674035571e-13</v>
+      </c>
+      <c r="P108" t="n">
+        <v>7.980869331831246e-14</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1.330861801168767e-06</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5.626049777100382e-05</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4.325555747093669e-07</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.9022647271429746</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.9022647271429746</v>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84532.fa</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2.945756065979229e-06</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.264594523350619e-08</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.258404340744202e-06</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.1771544975267724</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0006936926549220341</v>
+      </c>
+      <c r="G109" t="n">
+        <v>6.508773745261371e-11</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.763071222839768e-06</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1.398444785403021e-05</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.95180946830176e-07</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1.675718035194957e-06</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2.732962824691176e-07</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2.912057248160024e-12</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.002496535266893843</v>
+      </c>
+      <c r="O109" t="n">
+        <v>2.59321541630046e-13</v>
+      </c>
+      <c r="P109" t="n">
+        <v>3.278359528103963e-12</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5.065512314768264e-06</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.0006107588582742563</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5.8851378026678e-07</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.8190136430748116</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.8190136430748116</v>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84696.fa</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.08139268976158696</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.03635897649330124</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0002721497785444617</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.002869189325309696</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.007723374828779841</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3.012038918450367e-07</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.1556438817844701</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.002628241370131102</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.2161995100718994</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1.866679086368814e-05</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.003070233708310341</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.0001095384919060483</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.006197231897769931</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.01373022381092833</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.00289858348860486</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.0006477292374970846</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.08204631411026639</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.3876980463714961</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.0004951174744427426</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.3876980463714961</v>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>g__UMGS902</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>g__UMGS902</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84771.fa</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>8.347783127313324e-05</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.226993237808672e-08</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.744292753276273e-06</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.4815550158588286</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.001661348296587888</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4.680857866731437e-10</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4.793191263309254e-08</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.058461213560886e-05</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.575827175345191e-06</v>
+      </c>
+      <c r="K111" t="n">
+        <v>6.994845332027969e-06</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1.548339936183726e-05</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4.21307263412943e-12</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.007028234538050999</v>
+      </c>
+      <c r="O111" t="n">
+        <v>2.688734464523422e-12</v>
+      </c>
+      <c r="P111" t="n">
+        <v>3.513062719936532e-12</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>2.546263019345431e-06</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.0002956853979486834</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1.423093633653864e-07</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.5093351058478243</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.5093351058478243</v>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT86544.fa</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B112" t="n">
         <v>4.731640815874061e-06</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C112" t="n">
         <v>3.791941860354047e-06</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D112" t="n">
         <v>4.788998776729472e-06</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E112" t="n">
         <v>0.03561126270921511</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F112" t="n">
         <v>0.0008150186387988175</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G112" t="n">
         <v>3.938626847142548e-11</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H112" t="n">
         <v>0.0002015457526278772</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I112" t="n">
         <v>0.0001752426685299864</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J112" t="n">
         <v>6.355000924890136e-07</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K112" t="n">
         <v>1.273243496769478e-06</v>
       </c>
-      <c r="L107" t="n">
+      <c r="L112" t="n">
         <v>1.737536525984936e-08</v>
       </c>
-      <c r="M107" t="n">
+      <c r="M112" t="n">
         <v>7.175701410678555e-11</v>
       </c>
-      <c r="N107" t="n">
+      <c r="N112" t="n">
         <v>0.0006800388754521343</v>
       </c>
-      <c r="O107" t="n">
+      <c r="O112" t="n">
         <v>1.171837923466646e-11</v>
       </c>
-      <c r="P107" t="n">
+      <c r="P112" t="n">
         <v>1.423824946670479e-10</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="Q112" t="n">
         <v>2.875795001733749e-05</v>
       </c>
-      <c r="R107" t="n">
+      <c r="R112" t="n">
         <v>0.1450058419458363</v>
       </c>
-      <c r="S107" t="n">
+      <c r="S112" t="n">
         <v>0.0004001438726575252</v>
       </c>
-      <c r="T107" t="n">
+      <c r="T112" t="n">
         <v>0.8170669086212132</v>
       </c>
-      <c r="U107" t="n">
+      <c r="U112" t="n">
         <v>0.8170669086212132</v>
       </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>g__UMGS911</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>g__UMGS911</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
         <is>
           <t>g__UMGS911</t>
         </is>

--- a/outputs-HGR-r202/f__CAG-272.xlsx
+++ b/outputs-HGR-r202/f__CAG-272.xlsx
@@ -855,7 +855,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__UMGS1696(reject)</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g__UMGS1312</t>
+          <t>g__UMGS1312(reject)</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>g__UMGS1312</t>
+          <t>g__UMGS1312(reject)</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__UMGS1696(reject)</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__CAG-724(reject)</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__CAG-724(reject)</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__CAG-724(reject)</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__CAG-724(reject)</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__UMGS1696(reject)</t>
         </is>
       </c>
     </row>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>g__UMGS1696</t>
+          <t>g__UMGS1696(reject)</t>
         </is>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__CAG-724(reject)</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__CAG-724(reject)</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>g__CAG-724</t>
+          <t>g__CAG-724(reject)</t>
         </is>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>g__UMGS1865</t>
+          <t>g__UMGS1865(reject)</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>g__UMGS902</t>
+          <t>g__UMGS902(reject)</t>
         </is>
       </c>
     </row>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>g__UMGS911</t>
+          <t>g__UMGS911(reject)</t>
         </is>
       </c>
     </row>
